--- a/templates/ERC000020/metadata_template_ERC000020.xlsx
+++ b/templates/ERC000020/metadata_template_ERC000020.xlsx
@@ -19,13 +19,13 @@
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AJ$1:$AJ$287</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$75</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
     <definedName name="observedbioticrelationship">'cv_sample'!$CD$1:$CD$5</definedName>
     <definedName name="oxygenationstatusofsample">'cv_sample'!$AY$1:$AY$2</definedName>
-    <definedName name="platform">'cv_experiment'!$M$1:$M$13</definedName>
+    <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
     <definedName name="relationshiptooxygen">'cv_sample'!$CA$1:$CA$7</definedName>
     <definedName name="sequencequalitycheck">'cv_sample'!$AB$1:$AB$3</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="803">
   <si>
     <t>alias</t>
   </si>
@@ -455,6 +455,18 @@
     <t>ULTIMA</t>
   </si>
   <si>
+    <t>VELA_DIAGNOSTICS</t>
+  </si>
+  <si>
+    <t>GENAPSYS</t>
+  </si>
+  <si>
+    <t>GENEMIND</t>
+  </si>
+  <si>
+    <t>TAPESTRI</t>
+  </si>
+  <si>
     <t>platform</t>
   </si>
   <si>
@@ -554,6 +566,24 @@
     <t>Element AVITI</t>
   </si>
   <si>
+    <t>FASTASeq 300</t>
+  </si>
+  <si>
+    <t>GENIUS</t>
+  </si>
+  <si>
+    <t>GS111</t>
+  </si>
+  <si>
+    <t>Genapsys Sequencer</t>
+  </si>
+  <si>
+    <t>GenoCare 1600</t>
+  </si>
+  <si>
+    <t>GenoLab M</t>
+  </si>
+  <si>
     <t>GridION</t>
   </si>
   <si>
@@ -671,6 +701,9 @@
     <t>Revio</t>
   </si>
   <si>
+    <t>Sentosa SQ301</t>
+  </si>
+  <si>
     <t>Sequel</t>
   </si>
   <si>
@@ -678,6 +711,9 @@
   </si>
   <si>
     <t>Sequel IIe</t>
+  </si>
+  <si>
+    <t>Tapestri</t>
   </si>
   <si>
     <t>UG 100</t>
@@ -2961,10 +2997,10 @@
         <v>124</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -3005,10 +3041,10 @@
         <v>125</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3035,7 +3071,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N75"/>
+  <dimension ref="G1:N83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3055,7 +3091,7 @@
         <v>126</v>
       </c>
       <c r="N1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="7:14">
@@ -3072,7 +3108,7 @@
         <v>127</v>
       </c>
       <c r="N2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="7:14">
@@ -3089,7 +3125,7 @@
         <v>128</v>
       </c>
       <c r="N3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="7:14">
@@ -3106,7 +3142,7 @@
         <v>129</v>
       </c>
       <c r="N4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="7:14">
@@ -3123,7 +3159,7 @@
         <v>130</v>
       </c>
       <c r="N5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="7:14">
@@ -3140,7 +3176,7 @@
         <v>131</v>
       </c>
       <c r="N6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="7:14">
@@ -3157,7 +3193,7 @@
         <v>132</v>
       </c>
       <c r="N7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="7:14">
@@ -3174,7 +3210,7 @@
         <v>133</v>
       </c>
       <c r="N8" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="7:14">
@@ -3191,7 +3227,7 @@
         <v>134</v>
       </c>
       <c r="N9" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="7:14">
@@ -3205,7 +3241,7 @@
         <v>135</v>
       </c>
       <c r="N10" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="7:14">
@@ -3219,7 +3255,7 @@
         <v>136</v>
       </c>
       <c r="N11" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="7:14">
@@ -3233,7 +3269,7 @@
         <v>137</v>
       </c>
       <c r="N12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="7:14">
@@ -3247,7 +3283,7 @@
         <v>138</v>
       </c>
       <c r="N13" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="7:14">
@@ -3257,8 +3293,11 @@
       <c r="I14" t="s">
         <v>101</v>
       </c>
+      <c r="M14" t="s">
+        <v>139</v>
+      </c>
       <c r="N14" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="7:14">
@@ -3268,8 +3307,11 @@
       <c r="I15" t="s">
         <v>102</v>
       </c>
+      <c r="M15" t="s">
+        <v>140</v>
+      </c>
       <c r="N15" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="7:14">
@@ -3279,8 +3321,11 @@
       <c r="I16" t="s">
         <v>103</v>
       </c>
+      <c r="M16" t="s">
+        <v>141</v>
+      </c>
       <c r="N16" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="7:14">
@@ -3290,8 +3335,11 @@
       <c r="I17" t="s">
         <v>104</v>
       </c>
+      <c r="M17" t="s">
+        <v>142</v>
+      </c>
       <c r="N17" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="7:14">
@@ -3302,7 +3350,7 @@
         <v>54</v>
       </c>
       <c r="N18" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="7:14">
@@ -3313,7 +3361,7 @@
         <v>105</v>
       </c>
       <c r="N19" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="7:14">
@@ -3324,7 +3372,7 @@
         <v>106</v>
       </c>
       <c r="N20" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="7:14">
@@ -3335,7 +3383,7 @@
         <v>107</v>
       </c>
       <c r="N21" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="7:14">
@@ -3346,7 +3394,7 @@
         <v>108</v>
       </c>
       <c r="N22" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="7:14">
@@ -3357,7 +3405,7 @@
         <v>109</v>
       </c>
       <c r="N23" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="7:14">
@@ -3368,7 +3416,7 @@
         <v>110</v>
       </c>
       <c r="N24" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="7:14">
@@ -3379,7 +3427,7 @@
         <v>111</v>
       </c>
       <c r="N25" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="7:14">
@@ -3390,7 +3438,7 @@
         <v>112</v>
       </c>
       <c r="N26" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="7:14">
@@ -3401,7 +3449,7 @@
         <v>113</v>
       </c>
       <c r="N27" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="7:14">
@@ -3412,7 +3460,7 @@
         <v>114</v>
       </c>
       <c r="N28" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="7:14">
@@ -3423,7 +3471,7 @@
         <v>115</v>
       </c>
       <c r="N29" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="7:14">
@@ -3434,7 +3482,7 @@
         <v>116</v>
       </c>
       <c r="N30" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="7:14">
@@ -3445,7 +3493,7 @@
         <v>117</v>
       </c>
       <c r="N31" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="7:14">
@@ -3453,7 +3501,7 @@
         <v>66</v>
       </c>
       <c r="N32" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="7:14">
@@ -3461,7 +3509,7 @@
         <v>67</v>
       </c>
       <c r="N33" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="7:14">
@@ -3469,7 +3517,7 @@
         <v>68</v>
       </c>
       <c r="N34" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="7:14">
@@ -3477,7 +3525,7 @@
         <v>69</v>
       </c>
       <c r="N35" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="7:14">
@@ -3485,7 +3533,7 @@
         <v>70</v>
       </c>
       <c r="N36" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="7:14">
@@ -3493,7 +3541,7 @@
         <v>71</v>
       </c>
       <c r="N37" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="7:14">
@@ -3501,7 +3549,7 @@
         <v>72</v>
       </c>
       <c r="N38" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="7:14">
@@ -3509,7 +3557,7 @@
         <v>73</v>
       </c>
       <c r="N39" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="7:14">
@@ -3517,7 +3565,7 @@
         <v>74</v>
       </c>
       <c r="N40" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="7:14">
@@ -3525,176 +3573,216 @@
         <v>75</v>
       </c>
       <c r="N41" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="7:14">
       <c r="N42" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="7:14">
       <c r="N43" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="7:14">
       <c r="N44" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="7:14">
       <c r="N45" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="7:14">
       <c r="N46" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="7:14">
       <c r="N47" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="7:14">
       <c r="N48" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="14:14">
       <c r="N49" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="14:14">
       <c r="N50" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="14:14">
       <c r="N51" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="14:14">
       <c r="N52" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" spans="14:14">
       <c r="N53" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="14:14">
       <c r="N54" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55" spans="14:14">
       <c r="N55" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="14:14">
       <c r="N56" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="14:14">
       <c r="N57" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="58" spans="14:14">
       <c r="N58" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="14:14">
       <c r="N59" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="14:14">
       <c r="N60" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="14:14">
       <c r="N61" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" spans="14:14">
       <c r="N62" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="14:14">
       <c r="N63" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="14:14">
       <c r="N64" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="14:14">
       <c r="N65" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="66" spans="14:14">
       <c r="N66" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="14:14">
       <c r="N67" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="14:14">
       <c r="N68" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69" spans="14:14">
       <c r="N69" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="14:14">
       <c r="N70" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="14:14">
       <c r="N71" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="14:14">
       <c r="N72" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="14:14">
       <c r="N73" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="14:14">
       <c r="N74" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="14:14">
       <c r="N75" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="76" spans="14:14">
+      <c r="N76" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="14:14">
+      <c r="N77" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="78" spans="14:14">
+      <c r="N78" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="79" spans="14:14">
+      <c r="N79" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="80" spans="14:14">
+      <c r="N80" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="81" spans="14:14">
+      <c r="N81" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="82" spans="14:14">
+      <c r="N82" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="83" spans="14:14">
+      <c r="N83" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3719,27 +3807,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3762,122 +3850,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -3904,636 +3992,636 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>639</v>
+        <v>651</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>643</v>
+        <v>655</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>647</v>
+        <v>659</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>655</v>
+        <v>667</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>661</v>
+        <v>673</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>665</v>
+        <v>677</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>667</v>
+        <v>679</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>669</v>
+        <v>681</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>671</v>
+        <v>683</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>673</v>
+        <v>685</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>675</v>
+        <v>687</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>677</v>
+        <v>689</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>679</v>
+        <v>691</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>683</v>
+        <v>695</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>685</v>
+        <v>697</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>687</v>
+        <v>699</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>689</v>
+        <v>701</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>721</v>
+        <v>733</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>730</v>
+        <v>742</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>734</v>
+        <v>746</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>741</v>
+        <v>753</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>745</v>
+        <v>757</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>747</v>
+        <v>759</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>749</v>
+        <v>761</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>753</v>
+        <v>765</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>755</v>
+        <v>767</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>757</v>
+        <v>769</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>759</v>
+        <v>771</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>761</v>
+        <v>773</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>763</v>
+        <v>775</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>765</v>
+        <v>777</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>767</v>
+        <v>779</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>769</v>
+        <v>781</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>771</v>
+        <v>783</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>773</v>
+        <v>785</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>775</v>
+        <v>787</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>777</v>
+        <v>789</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>779</v>
+        <v>791</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>781</v>
+        <v>793</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>783</v>
+        <v>795</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>785</v>
+        <v>797</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>787</v>
+        <v>799</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>789</v>
+        <v>801</v>
       </c>
     </row>
     <row r="2" spans="1:106" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>630</v>
+        <v>642</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>632</v>
+        <v>644</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>634</v>
+        <v>646</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>638</v>
+        <v>650</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>646</v>
+        <v>658</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>648</v>
+        <v>660</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>652</v>
+        <v>664</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>662</v>
+        <v>674</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>664</v>
+        <v>676</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>666</v>
+        <v>678</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>668</v>
+        <v>680</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>672</v>
+        <v>684</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>674</v>
+        <v>686</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>676</v>
+        <v>688</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>678</v>
+        <v>690</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>680</v>
+        <v>692</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>684</v>
+        <v>696</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>686</v>
+        <v>698</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>690</v>
+        <v>702</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>722</v>
+        <v>734</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>733</v>
+        <v>745</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>735</v>
+        <v>747</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>744</v>
+        <v>756</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>746</v>
+        <v>758</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>748</v>
+        <v>760</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>750</v>
+        <v>762</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>752</v>
+        <v>764</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>754</v>
+        <v>766</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>756</v>
+        <v>768</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>758</v>
+        <v>770</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>760</v>
+        <v>772</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>762</v>
+        <v>774</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>764</v>
+        <v>776</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>766</v>
+        <v>778</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>768</v>
+        <v>780</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>770</v>
+        <v>782</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>772</v>
+        <v>784</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>774</v>
+        <v>786</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>776</v>
+        <v>788</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>778</v>
+        <v>790</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>780</v>
+        <v>792</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>784</v>
+        <v>796</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>786</v>
+        <v>798</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>788</v>
+        <v>800</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>790</v>
+        <v>802</v>
       </c>
     </row>
   </sheetData>
@@ -4571,1578 +4659,1578 @@
   <sheetData>
     <row r="1" spans="28:82">
       <c r="AB1" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="AJ1" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="AY1" t="s">
-        <v>635</v>
+        <v>647</v>
       </c>
       <c r="BZ1" t="s">
-        <v>691</v>
+        <v>703</v>
       </c>
       <c r="CA1" t="s">
-        <v>723</v>
+        <v>735</v>
       </c>
       <c r="CD1" t="s">
-        <v>736</v>
+        <v>748</v>
       </c>
     </row>
     <row r="2" spans="28:82">
       <c r="AB2" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="AJ2" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="AY2" t="s">
-        <v>636</v>
+        <v>648</v>
       </c>
       <c r="BZ2" t="s">
-        <v>692</v>
+        <v>704</v>
       </c>
       <c r="CA2" t="s">
-        <v>724</v>
+        <v>736</v>
       </c>
       <c r="CD2" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
     </row>
     <row r="3" spans="28:82">
       <c r="AB3" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="AJ3" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="BZ3" t="s">
-        <v>693</v>
+        <v>705</v>
       </c>
       <c r="CA3" t="s">
-        <v>725</v>
+        <v>737</v>
       </c>
       <c r="CD3" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
     </row>
     <row r="4" spans="28:82">
       <c r="AJ4" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="BZ4" t="s">
-        <v>694</v>
+        <v>706</v>
       </c>
       <c r="CA4" t="s">
-        <v>726</v>
+        <v>738</v>
       </c>
       <c r="CD4" t="s">
-        <v>739</v>
+        <v>751</v>
       </c>
     </row>
     <row r="5" spans="28:82">
       <c r="AJ5" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="BZ5" t="s">
-        <v>695</v>
+        <v>707</v>
       </c>
       <c r="CA5" t="s">
-        <v>727</v>
+        <v>739</v>
       </c>
       <c r="CD5" t="s">
-        <v>740</v>
+        <v>752</v>
       </c>
     </row>
     <row r="6" spans="28:82">
       <c r="AJ6" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="BZ6" t="s">
-        <v>696</v>
+        <v>708</v>
       </c>
       <c r="CA6" t="s">
-        <v>728</v>
+        <v>740</v>
       </c>
     </row>
     <row r="7" spans="28:82">
       <c r="AJ7" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="BZ7" t="s">
-        <v>697</v>
+        <v>709</v>
       </c>
       <c r="CA7" t="s">
-        <v>729</v>
+        <v>741</v>
       </c>
     </row>
     <row r="8" spans="28:82">
       <c r="AJ8" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="BZ8" t="s">
-        <v>698</v>
+        <v>710</v>
       </c>
     </row>
     <row r="9" spans="28:82">
       <c r="AJ9" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="BZ9" t="s">
-        <v>699</v>
+        <v>711</v>
       </c>
     </row>
     <row r="10" spans="28:82">
       <c r="AJ10" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="BZ10" t="s">
-        <v>700</v>
+        <v>712</v>
       </c>
     </row>
     <row r="11" spans="28:82">
       <c r="AJ11" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="BZ11" t="s">
-        <v>701</v>
+        <v>713</v>
       </c>
     </row>
     <row r="12" spans="28:82">
       <c r="AJ12" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="BZ12" t="s">
-        <v>702</v>
+        <v>714</v>
       </c>
     </row>
     <row r="13" spans="28:82">
       <c r="AJ13" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="BZ13" t="s">
-        <v>703</v>
+        <v>715</v>
       </c>
     </row>
     <row r="14" spans="28:82">
       <c r="AJ14" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="BZ14" t="s">
-        <v>704</v>
+        <v>716</v>
       </c>
     </row>
     <row r="15" spans="28:82">
       <c r="AJ15" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="BZ15" t="s">
-        <v>705</v>
+        <v>717</v>
       </c>
     </row>
     <row r="16" spans="28:82">
       <c r="AJ16" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="BZ16" t="s">
-        <v>706</v>
+        <v>718</v>
       </c>
     </row>
     <row r="17" spans="36:78">
       <c r="AJ17" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="BZ17" t="s">
-        <v>707</v>
+        <v>719</v>
       </c>
     </row>
     <row r="18" spans="36:78">
       <c r="AJ18" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="BZ18" t="s">
-        <v>708</v>
+        <v>720</v>
       </c>
     </row>
     <row r="19" spans="36:78">
       <c r="AJ19" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="BZ19" t="s">
-        <v>709</v>
+        <v>721</v>
       </c>
     </row>
     <row r="20" spans="36:78">
       <c r="AJ20" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="BZ20" t="s">
-        <v>710</v>
+        <v>722</v>
       </c>
     </row>
     <row r="21" spans="36:78">
       <c r="AJ21" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="BZ21" t="s">
-        <v>711</v>
+        <v>723</v>
       </c>
     </row>
     <row r="22" spans="36:78">
       <c r="AJ22" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="BZ22" t="s">
-        <v>712</v>
+        <v>724</v>
       </c>
     </row>
     <row r="23" spans="36:78">
       <c r="AJ23" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="BZ23" t="s">
-        <v>713</v>
+        <v>725</v>
       </c>
     </row>
     <row r="24" spans="36:78">
       <c r="AJ24" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="BZ24" t="s">
-        <v>714</v>
+        <v>726</v>
       </c>
     </row>
     <row r="25" spans="36:78">
       <c r="AJ25" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="BZ25" t="s">
-        <v>715</v>
+        <v>727</v>
       </c>
     </row>
     <row r="26" spans="36:78">
       <c r="AJ26" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="BZ26" t="s">
-        <v>716</v>
+        <v>728</v>
       </c>
     </row>
     <row r="27" spans="36:78">
       <c r="AJ27" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="BZ27" t="s">
-        <v>717</v>
+        <v>729</v>
       </c>
     </row>
     <row r="28" spans="36:78">
       <c r="AJ28" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="BZ28" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
     </row>
     <row r="29" spans="36:78">
       <c r="AJ29" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="BZ29" t="s">
-        <v>719</v>
+        <v>731</v>
       </c>
     </row>
     <row r="30" spans="36:78">
       <c r="AJ30" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="BZ30" t="s">
-        <v>720</v>
+        <v>732</v>
       </c>
     </row>
     <row r="31" spans="36:78">
       <c r="AJ31" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
     </row>
     <row r="32" spans="36:78">
       <c r="AJ32" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
     </row>
     <row r="33" spans="36:36">
       <c r="AJ33" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
     </row>
     <row r="34" spans="36:36">
       <c r="AJ34" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
     </row>
     <row r="35" spans="36:36">
       <c r="AJ35" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
     </row>
     <row r="36" spans="36:36">
       <c r="AJ36" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
     </row>
     <row r="37" spans="36:36">
       <c r="AJ37" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
     </row>
     <row r="38" spans="36:36">
       <c r="AJ38" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
     </row>
     <row r="39" spans="36:36">
       <c r="AJ39" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
     </row>
     <row r="40" spans="36:36">
       <c r="AJ40" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
     </row>
     <row r="41" spans="36:36">
       <c r="AJ41" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
     </row>
     <row r="42" spans="36:36">
       <c r="AJ42" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
     </row>
     <row r="43" spans="36:36">
       <c r="AJ43" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
     </row>
     <row r="44" spans="36:36">
       <c r="AJ44" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
     </row>
     <row r="45" spans="36:36">
       <c r="AJ45" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
     </row>
     <row r="46" spans="36:36">
       <c r="AJ46" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
     </row>
     <row r="47" spans="36:36">
       <c r="AJ47" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
     </row>
     <row r="48" spans="36:36">
       <c r="AJ48" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
     </row>
     <row r="49" spans="36:36">
       <c r="AJ49" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
     </row>
     <row r="50" spans="36:36">
       <c r="AJ50" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
     </row>
     <row r="51" spans="36:36">
       <c r="AJ51" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
     </row>
     <row r="52" spans="36:36">
       <c r="AJ52" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
     </row>
     <row r="53" spans="36:36">
       <c r="AJ53" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
     </row>
     <row r="54" spans="36:36">
       <c r="AJ54" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
     </row>
     <row r="55" spans="36:36">
       <c r="AJ55" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
     </row>
     <row r="56" spans="36:36">
       <c r="AJ56" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
     </row>
     <row r="57" spans="36:36">
       <c r="AJ57" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
     </row>
     <row r="58" spans="36:36">
       <c r="AJ58" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
     </row>
     <row r="59" spans="36:36">
       <c r="AJ59" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
     </row>
     <row r="60" spans="36:36">
       <c r="AJ60" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
     </row>
     <row r="61" spans="36:36">
       <c r="AJ61" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
     </row>
     <row r="62" spans="36:36">
       <c r="AJ62" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
     </row>
     <row r="63" spans="36:36">
       <c r="AJ63" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
     </row>
     <row r="64" spans="36:36">
       <c r="AJ64" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
     </row>
     <row r="65" spans="36:36">
       <c r="AJ65" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
     </row>
     <row r="66" spans="36:36">
       <c r="AJ66" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
     </row>
     <row r="67" spans="36:36">
       <c r="AJ67" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
     </row>
     <row r="68" spans="36:36">
       <c r="AJ68" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
     </row>
     <row r="69" spans="36:36">
       <c r="AJ69" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
     </row>
     <row r="70" spans="36:36">
       <c r="AJ70" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
     </row>
     <row r="71" spans="36:36">
       <c r="AJ71" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
     </row>
     <row r="72" spans="36:36">
       <c r="AJ72" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
     </row>
     <row r="73" spans="36:36">
       <c r="AJ73" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
     </row>
     <row r="74" spans="36:36">
       <c r="AJ74" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
     </row>
     <row r="75" spans="36:36">
       <c r="AJ75" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
     </row>
     <row r="76" spans="36:36">
       <c r="AJ76" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
     </row>
     <row r="77" spans="36:36">
       <c r="AJ77" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
     </row>
     <row r="78" spans="36:36">
       <c r="AJ78" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
     </row>
     <row r="79" spans="36:36">
       <c r="AJ79" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
     </row>
     <row r="80" spans="36:36">
       <c r="AJ80" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
     </row>
     <row r="81" spans="36:36">
       <c r="AJ81" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
     </row>
     <row r="82" spans="36:36">
       <c r="AJ82" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
     </row>
     <row r="83" spans="36:36">
       <c r="AJ83" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
     </row>
     <row r="84" spans="36:36">
       <c r="AJ84" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
     </row>
     <row r="85" spans="36:36">
       <c r="AJ85" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
     </row>
     <row r="86" spans="36:36">
       <c r="AJ86" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
     </row>
     <row r="87" spans="36:36">
       <c r="AJ87" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
     </row>
     <row r="88" spans="36:36">
       <c r="AJ88" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
     </row>
     <row r="89" spans="36:36">
       <c r="AJ89" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
     </row>
     <row r="90" spans="36:36">
       <c r="AJ90" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
     </row>
     <row r="91" spans="36:36">
       <c r="AJ91" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
     </row>
     <row r="92" spans="36:36">
       <c r="AJ92" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
     </row>
     <row r="93" spans="36:36">
       <c r="AJ93" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
     </row>
     <row r="94" spans="36:36">
       <c r="AJ94" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
     </row>
     <row r="95" spans="36:36">
       <c r="AJ95" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
     </row>
     <row r="96" spans="36:36">
       <c r="AJ96" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
     </row>
     <row r="97" spans="36:36">
       <c r="AJ97" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
     </row>
     <row r="98" spans="36:36">
       <c r="AJ98" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
     </row>
     <row r="99" spans="36:36">
       <c r="AJ99" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
     </row>
     <row r="100" spans="36:36">
       <c r="AJ100" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
     </row>
     <row r="101" spans="36:36">
       <c r="AJ101" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
     </row>
     <row r="102" spans="36:36">
       <c r="AJ102" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
     </row>
     <row r="103" spans="36:36">
       <c r="AJ103" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
     </row>
     <row r="104" spans="36:36">
       <c r="AJ104" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
     </row>
     <row r="105" spans="36:36">
       <c r="AJ105" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
     </row>
     <row r="106" spans="36:36">
       <c r="AJ106" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
     </row>
     <row r="107" spans="36:36">
       <c r="AJ107" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
     </row>
     <row r="108" spans="36:36">
       <c r="AJ108" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
     </row>
     <row r="109" spans="36:36">
       <c r="AJ109" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
     </row>
     <row r="110" spans="36:36">
       <c r="AJ110" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
     </row>
     <row r="111" spans="36:36">
       <c r="AJ111" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
     </row>
     <row r="112" spans="36:36">
       <c r="AJ112" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
     </row>
     <row r="113" spans="36:36">
       <c r="AJ113" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="114" spans="36:36">
       <c r="AJ114" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
     </row>
     <row r="115" spans="36:36">
       <c r="AJ115" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
     </row>
     <row r="116" spans="36:36">
       <c r="AJ116" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
     </row>
     <row r="117" spans="36:36">
       <c r="AJ117" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
     </row>
     <row r="118" spans="36:36">
       <c r="AJ118" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="119" spans="36:36">
       <c r="AJ119" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
     </row>
     <row r="120" spans="36:36">
       <c r="AJ120" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="121" spans="36:36">
       <c r="AJ121" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
     </row>
     <row r="122" spans="36:36">
       <c r="AJ122" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
     </row>
     <row r="123" spans="36:36">
       <c r="AJ123" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
     </row>
     <row r="124" spans="36:36">
       <c r="AJ124" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
     </row>
     <row r="125" spans="36:36">
       <c r="AJ125" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
     </row>
     <row r="126" spans="36:36">
       <c r="AJ126" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
     </row>
     <row r="127" spans="36:36">
       <c r="AJ127" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
     </row>
     <row r="128" spans="36:36">
       <c r="AJ128" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
     </row>
     <row r="129" spans="36:36">
       <c r="AJ129" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
     </row>
     <row r="130" spans="36:36">
       <c r="AJ130" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
     </row>
     <row r="131" spans="36:36">
       <c r="AJ131" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
     </row>
     <row r="132" spans="36:36">
       <c r="AJ132" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
     </row>
     <row r="133" spans="36:36">
       <c r="AJ133" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
     </row>
     <row r="134" spans="36:36">
       <c r="AJ134" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
     </row>
     <row r="135" spans="36:36">
       <c r="AJ135" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
     </row>
     <row r="136" spans="36:36">
       <c r="AJ136" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
     </row>
     <row r="137" spans="36:36">
       <c r="AJ137" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
     </row>
     <row r="138" spans="36:36">
       <c r="AJ138" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="139" spans="36:36">
       <c r="AJ139" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
     </row>
     <row r="140" spans="36:36">
       <c r="AJ140" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
     </row>
     <row r="141" spans="36:36">
       <c r="AJ141" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
     </row>
     <row r="142" spans="36:36">
       <c r="AJ142" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
     </row>
     <row r="143" spans="36:36">
       <c r="AJ143" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
     </row>
     <row r="144" spans="36:36">
       <c r="AJ144" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
     </row>
     <row r="145" spans="36:36">
       <c r="AJ145" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
     </row>
     <row r="146" spans="36:36">
       <c r="AJ146" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
     </row>
     <row r="147" spans="36:36">
       <c r="AJ147" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="148" spans="36:36">
       <c r="AJ148" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
     </row>
     <row r="149" spans="36:36">
       <c r="AJ149" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="150" spans="36:36">
       <c r="AJ150" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
     </row>
     <row r="151" spans="36:36">
       <c r="AJ151" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
     </row>
     <row r="152" spans="36:36">
       <c r="AJ152" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
     </row>
     <row r="153" spans="36:36">
       <c r="AJ153" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
     </row>
     <row r="154" spans="36:36">
       <c r="AJ154" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
     </row>
     <row r="155" spans="36:36">
       <c r="AJ155" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
     </row>
     <row r="156" spans="36:36">
       <c r="AJ156" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
     </row>
     <row r="157" spans="36:36">
       <c r="AJ157" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
     </row>
     <row r="158" spans="36:36">
       <c r="AJ158" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
     </row>
     <row r="159" spans="36:36">
       <c r="AJ159" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
     </row>
     <row r="160" spans="36:36">
       <c r="AJ160" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
     </row>
     <row r="161" spans="36:36">
       <c r="AJ161" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
     </row>
     <row r="162" spans="36:36">
       <c r="AJ162" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
     </row>
     <row r="163" spans="36:36">
       <c r="AJ163" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
     </row>
     <row r="164" spans="36:36">
       <c r="AJ164" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
     </row>
     <row r="165" spans="36:36">
       <c r="AJ165" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
     </row>
     <row r="166" spans="36:36">
       <c r="AJ166" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
     </row>
     <row r="167" spans="36:36">
       <c r="AJ167" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
     </row>
     <row r="168" spans="36:36">
       <c r="AJ168" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
     </row>
     <row r="169" spans="36:36">
       <c r="AJ169" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
     </row>
     <row r="170" spans="36:36">
       <c r="AJ170" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
     </row>
     <row r="171" spans="36:36">
       <c r="AJ171" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
     </row>
     <row r="172" spans="36:36">
       <c r="AJ172" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
     </row>
     <row r="173" spans="36:36">
       <c r="AJ173" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
     </row>
     <row r="174" spans="36:36">
       <c r="AJ174" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
     </row>
     <row r="175" spans="36:36">
       <c r="AJ175" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
     </row>
     <row r="176" spans="36:36">
       <c r="AJ176" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
     </row>
     <row r="177" spans="36:36">
       <c r="AJ177" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
     </row>
     <row r="178" spans="36:36">
       <c r="AJ178" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
     </row>
     <row r="179" spans="36:36">
       <c r="AJ179" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
     </row>
     <row r="180" spans="36:36">
       <c r="AJ180" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
     </row>
     <row r="181" spans="36:36">
       <c r="AJ181" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
     </row>
     <row r="182" spans="36:36">
       <c r="AJ182" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="183" spans="36:36">
       <c r="AJ183" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
     </row>
     <row r="184" spans="36:36">
       <c r="AJ184" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
     </row>
     <row r="185" spans="36:36">
       <c r="AJ185" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
     </row>
     <row r="186" spans="36:36">
       <c r="AJ186" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
     </row>
     <row r="187" spans="36:36">
       <c r="AJ187" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
     </row>
     <row r="188" spans="36:36">
       <c r="AJ188" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
     </row>
     <row r="189" spans="36:36">
       <c r="AJ189" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
     </row>
     <row r="190" spans="36:36">
       <c r="AJ190" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
     </row>
     <row r="191" spans="36:36">
       <c r="AJ191" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
     </row>
     <row r="192" spans="36:36">
       <c r="AJ192" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
     </row>
     <row r="193" spans="36:36">
       <c r="AJ193" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
     </row>
     <row r="194" spans="36:36">
       <c r="AJ194" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
     </row>
     <row r="195" spans="36:36">
       <c r="AJ195" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
     </row>
     <row r="196" spans="36:36">
       <c r="AJ196" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
     </row>
     <row r="197" spans="36:36">
       <c r="AJ197" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
     </row>
     <row r="198" spans="36:36">
       <c r="AJ198" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
     </row>
     <row r="199" spans="36:36">
       <c r="AJ199" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
     </row>
     <row r="200" spans="36:36">
       <c r="AJ200" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
     </row>
     <row r="201" spans="36:36">
       <c r="AJ201" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
     </row>
     <row r="202" spans="36:36">
       <c r="AJ202" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
     </row>
     <row r="203" spans="36:36">
       <c r="AJ203" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
     </row>
     <row r="204" spans="36:36">
       <c r="AJ204" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
     </row>
     <row r="205" spans="36:36">
       <c r="AJ205" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
     </row>
     <row r="206" spans="36:36">
       <c r="AJ206" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
     </row>
     <row r="207" spans="36:36">
       <c r="AJ207" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
     </row>
     <row r="208" spans="36:36">
       <c r="AJ208" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
     </row>
     <row r="209" spans="36:36">
       <c r="AJ209" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
     </row>
     <row r="210" spans="36:36">
       <c r="AJ210" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
     </row>
     <row r="211" spans="36:36">
       <c r="AJ211" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
     </row>
     <row r="212" spans="36:36">
       <c r="AJ212" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
     </row>
     <row r="213" spans="36:36">
       <c r="AJ213" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
     </row>
     <row r="214" spans="36:36">
       <c r="AJ214" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
     </row>
     <row r="215" spans="36:36">
       <c r="AJ215" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
     </row>
     <row r="216" spans="36:36">
       <c r="AJ216" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
     </row>
     <row r="217" spans="36:36">
       <c r="AJ217" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
     </row>
     <row r="218" spans="36:36">
       <c r="AJ218" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
     </row>
     <row r="219" spans="36:36">
       <c r="AJ219" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
     </row>
     <row r="220" spans="36:36">
       <c r="AJ220" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
     </row>
     <row r="221" spans="36:36">
       <c r="AJ221" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
     </row>
     <row r="222" spans="36:36">
       <c r="AJ222" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
     </row>
     <row r="223" spans="36:36">
       <c r="AJ223" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
     </row>
     <row r="224" spans="36:36">
       <c r="AJ224" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
     </row>
     <row r="225" spans="36:36">
       <c r="AJ225" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="226" spans="36:36">
       <c r="AJ226" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
     </row>
     <row r="227" spans="36:36">
       <c r="AJ227" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
     </row>
     <row r="228" spans="36:36">
       <c r="AJ228" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
     </row>
     <row r="229" spans="36:36">
       <c r="AJ229" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
     </row>
     <row r="230" spans="36:36">
       <c r="AJ230" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
     </row>
     <row r="231" spans="36:36">
       <c r="AJ231" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
     </row>
     <row r="232" spans="36:36">
       <c r="AJ232" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
     </row>
     <row r="233" spans="36:36">
       <c r="AJ233" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
     </row>
     <row r="234" spans="36:36">
       <c r="AJ234" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
     </row>
     <row r="235" spans="36:36">
       <c r="AJ235" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
     </row>
     <row r="236" spans="36:36">
       <c r="AJ236" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
     </row>
     <row r="237" spans="36:36">
       <c r="AJ237" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
     </row>
     <row r="238" spans="36:36">
       <c r="AJ238" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
     </row>
     <row r="239" spans="36:36">
       <c r="AJ239" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
     </row>
     <row r="240" spans="36:36">
       <c r="AJ240" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
     </row>
     <row r="241" spans="36:36">
       <c r="AJ241" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
     </row>
     <row r="242" spans="36:36">
       <c r="AJ242" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
     </row>
     <row r="243" spans="36:36">
       <c r="AJ243" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
     </row>
     <row r="244" spans="36:36">
       <c r="AJ244" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
     </row>
     <row r="245" spans="36:36">
       <c r="AJ245" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
     </row>
     <row r="246" spans="36:36">
       <c r="AJ246" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
     </row>
     <row r="247" spans="36:36">
       <c r="AJ247" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
     </row>
     <row r="248" spans="36:36">
       <c r="AJ248" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
     </row>
     <row r="249" spans="36:36">
       <c r="AJ249" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
     </row>
     <row r="250" spans="36:36">
       <c r="AJ250" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
     </row>
     <row r="251" spans="36:36">
       <c r="AJ251" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
     </row>
     <row r="252" spans="36:36">
       <c r="AJ252" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
     </row>
     <row r="253" spans="36:36">
       <c r="AJ253" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
     </row>
     <row r="254" spans="36:36">
       <c r="AJ254" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
     </row>
     <row r="255" spans="36:36">
       <c r="AJ255" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
     </row>
     <row r="256" spans="36:36">
       <c r="AJ256" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
     </row>
     <row r="257" spans="36:36">
       <c r="AJ257" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
     </row>
     <row r="258" spans="36:36">
       <c r="AJ258" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
     </row>
     <row r="259" spans="36:36">
       <c r="AJ259" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
     </row>
     <row r="260" spans="36:36">
       <c r="AJ260" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
     </row>
     <row r="261" spans="36:36">
       <c r="AJ261" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
     </row>
     <row r="262" spans="36:36">
       <c r="AJ262" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
     </row>
     <row r="263" spans="36:36">
       <c r="AJ263" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
     </row>
     <row r="264" spans="36:36">
       <c r="AJ264" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
     </row>
     <row r="265" spans="36:36">
       <c r="AJ265" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
     </row>
     <row r="266" spans="36:36">
       <c r="AJ266" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
     </row>
     <row r="267" spans="36:36">
       <c r="AJ267" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
     </row>
     <row r="268" spans="36:36">
       <c r="AJ268" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
     </row>
     <row r="269" spans="36:36">
       <c r="AJ269" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
     </row>
     <row r="270" spans="36:36">
       <c r="AJ270" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
     </row>
     <row r="271" spans="36:36">
       <c r="AJ271" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
     </row>
     <row r="272" spans="36:36">
       <c r="AJ272" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
     </row>
     <row r="273" spans="36:36">
       <c r="AJ273" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
     </row>
     <row r="274" spans="36:36">
       <c r="AJ274" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
     </row>
     <row r="275" spans="36:36">
       <c r="AJ275" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
     </row>
     <row r="276" spans="36:36">
       <c r="AJ276" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
     </row>
     <row r="277" spans="36:36">
       <c r="AJ277" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
     </row>
     <row r="278" spans="36:36">
       <c r="AJ278" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
     </row>
     <row r="279" spans="36:36">
       <c r="AJ279" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
     </row>
     <row r="280" spans="36:36">
       <c r="AJ280" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
     </row>
     <row r="281" spans="36:36">
       <c r="AJ281" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
     </row>
     <row r="282" spans="36:36">
       <c r="AJ282" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
     </row>
     <row r="283" spans="36:36">
       <c r="AJ283" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
     </row>
     <row r="284" spans="36:36">
       <c r="AJ284" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
     </row>
     <row r="285" spans="36:36">
       <c r="AJ285" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
     </row>
     <row r="286" spans="36:36">
       <c r="AJ286" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
     </row>
     <row r="287" spans="36:36">
       <c r="AJ287" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000020/metadata_template_ERC000020.xlsx
+++ b/templates/ERC000020/metadata_template_ERC000020.xlsx
@@ -884,8 +884,7 @@
     <t>sample volume or weight for DNA extraction</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. Units: 
-                    </t>
+    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: ng)</t>
   </si>
   <si>
     <t>nucleic acid extraction</t>
@@ -1026,8 +1025,7 @@
     <t>altitude</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. Units: 
-                    </t>
+    <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
   </si>
   <si>
     <t>Afghanistan</t>
@@ -1900,15 +1898,13 @@
     <t>geographic location (latitude)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system Units: 
-                    </t>
+    <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
     <t>geographic location (longitude)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system Units: 
-                    </t>
+    <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
     <t>geographic location (region and locality)</t>
@@ -1920,8 +1916,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. Units: 
-                    </t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
   </si>
   <si>
     <t>broad-scale environmental context</t>
@@ -1945,8 +1940,7 @@
     <t>elevation</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. Units: 
-                    </t>
+    <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
   </si>
   <si>
     <t>source material identifiers</t>
@@ -1976,15 +1970,13 @@
     <t>amount or size of sample collected</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. Units: 
-                    </t>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
   </si>
   <si>
     <t>host dry mass</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Measurement of dry mass Units: 
-                    </t>
+    <t>(Optional) Measurement of dry mass (Units: mg)</t>
   </si>
   <si>
     <t>aerobic</t>
@@ -2014,22 +2006,19 @@
     <t>sample storage duration</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Duration for which sample was stored Units: 
-                    </t>
+    <t>(Optional) Duration for which sample was stored (Units: years)</t>
   </si>
   <si>
     <t>sample storage temperature</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Temperature at which sample was stored, e.g. -80 Units: 
-                    </t>
+    <t>(Optional) Temperature at which sample was stored, e.g. -80 (Units: °C)</t>
   </si>
   <si>
     <t>host wet mass</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Measurement of wet mass Units: 
-                    </t>
+    <t>(Optional) Measurement of wet mass (Units: mg)</t>
   </si>
   <si>
     <t>sample storage location</t>
@@ -2065,8 +2054,7 @@
     <t>host age</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Age of host at the time of sampling; relevant scale depends on species and study, e.g. could be seconds for amoebae or centuries for trees Units: 
-                    </t>
+    <t>(Optional) Age of host at the time of sampling; relevant scale depends on species and study, e.g. could be seconds for amoebae or centuries for trees (Units: years)</t>
   </si>
   <si>
     <t>host taxid</t>
@@ -2084,15 +2072,13 @@
     <t>host height</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The height of subject Units: 
-                    </t>
+    <t>(Optional) The height of subject (Units: mm)</t>
   </si>
   <si>
     <t>host length</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The length of subject Units: 
-                    </t>
+    <t>(Optional) The length of subject (Units: mm)</t>
   </si>
   <si>
     <t>plant body site</t>
@@ -2104,8 +2090,7 @@
     <t>host total mass</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Total mass of the host at collection, the unit depends on host Units: 
-                    </t>
+    <t>(Optional) Total mass of the host at collection, the unit depends on host (Units: kg)</t>
   </si>
   <si>
     <t>host phenotype</t>
@@ -2141,15 +2126,13 @@
     <t>temperature</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Temperature of the sample at time of sampling Units: 
-                    </t>
+    <t>(Optional) Temperature of the sample at time of sampling (Units: ºC)</t>
   </si>
   <si>
     <t>salinity</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The total concentration of all dissolved salts in a liquid or solid sample. while salinity can be measured by a complete chemical analysis, this method is difficult and time consuming. more often, it is instead derived from the conductivity measurement. this is known as practical salinity. these derivations compare the specific conductance of the sample to a salinity standard such as seawater. Units: 
-                    </t>
+    <t>(Optional) The total concentration of all dissolved salts in a liquid or solid sample. while salinity can be measured by a complete chemical analysis, this method is difficult and time consuming. more often, it is instead derived from the conductivity measurement. this is known as practical salinity. these derivations compare the specific conductance of the sample to a salinity standard such as seawater. (Units: psu)</t>
   </si>
   <si>
     <t>host genotype</t>

--- a/templates/ERC000020/metadata_template_ERC000020.xlsx
+++ b/templates/ERC000020/metadata_template_ERC000020.xlsx
@@ -104,7 +104,7 @@
     <t>new_study_type</t>
   </si>
   <si>
-    <t>(Optional) Optional if 'study_type' is not 'other'to propose a new term, select other and enter a new study type.</t>
+    <t>(Optional) Optional if 'study_type' is not 'other'. to propose a new term, select other and enter a new study type.</t>
   </si>
   <si>
     <t>study_abstract</t>

--- a/templates/ERC000020/metadata_template_ERC000020.xlsx
+++ b/templates/ERC000020/metadata_template_ERC000020.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="865">
   <si>
     <t>alias</t>
   </si>
@@ -1352,12 +1352,12 @@
     <t>Cyprus</t>
   </si>
   <si>
+    <t>Czechia</t>
+  </si>
+  <si>
     <t>Czech Republic</t>
   </si>
   <si>
-    <t>Czechia</t>
-  </si>
-  <si>
     <t>Democratic Republic of the Congo</t>
   </si>
   <si>
@@ -2472,12 +2472,6 @@
   </si>
   <si>
     <t>(Optional) Adapters provide priming sequences for both amplification and sequencing of the sample-library fragments. both adapters should be reported; in uppercase letters</t>
-  </si>
-  <si>
-    <t>sequencing method</t>
-  </si>
-  <si>
-    <t>(Optional) Sequencing machine used. where possible the term should be taken from the obi list of dna sequencers (http://purl.obolibrary.org/obo/obi_0400103).</t>
   </si>
   <si>
     <t>plant product</t>
@@ -4153,7 +4147,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DZ2"/>
+  <dimension ref="A1:DY2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4162,7 +4156,7 @@
     <col min="1" max="301" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:130">
+    <row r="1" spans="1:129">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4550,11 +4544,8 @@
       <c r="DY1" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="DZ1" s="1" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="2" spans="1:130" ht="150" customHeight="1">
+    </row>
+    <row r="2" spans="1:129" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>229</v>
       </c>
@@ -4941,9 +4932,6 @@
       </c>
       <c r="DY2" s="2" t="s">
         <v>864</v>
-      </c>
-      <c r="DZ2" s="2" t="s">
-        <v>866</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000020/metadata_template_ERC000020.xlsx
+++ b/templates/ERC000020/metadata_template_ERC000020.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="865">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="866">
   <si>
     <t>alias</t>
   </si>
@@ -819,6 +819,9 @@
   </si>
   <si>
     <t>(Mandatory) The run data file model.</t>
+  </si>
+  <si>
+    <t>(Mandatory) Unique identificator for each sample.</t>
   </si>
   <si>
     <t>(Mandatory) Short text that can be used to call out sample records in search results or in displays.</t>
@@ -4164,774 +4167,774 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="DN1" s="1" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="DO1" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="DP1" s="1" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="DQ1" s="1" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="DR1" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="DS1" s="1" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="DT1" s="1" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="DU1" s="1" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="DV1" s="1" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="DW1" s="1" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="DX1" s="1" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="DY1" s="1" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="2" spans="1:129" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="DJ2" s="2" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="DK2" s="2" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="DL2" s="2" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="DM2" s="2" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="DN2" s="2" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="DO2" s="2" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="DP2" s="2" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="DQ2" s="2" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="DR2" s="2" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="DS2" s="2" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="DT2" s="2" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="DU2" s="2" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="DV2" s="2" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="DW2" s="2" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="DX2" s="2" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="DY2" s="2" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
   </sheetData>
@@ -4978,126 +4981,126 @@
   <sheetData>
     <row r="1" spans="5:44">
       <c r="E1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AA1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AQ1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AR1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="2" spans="5:44">
       <c r="E2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AA2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AQ2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AR2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="3" spans="5:44">
       <c r="E3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AA3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AQ3" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AR3" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="4" spans="5:44">
       <c r="E4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AG4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AQ4" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AR4" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="5" spans="5:44">
       <c r="E5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AG5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AQ5" t="s">
         <v>116</v>
@@ -5105,1507 +5108,1507 @@
     </row>
     <row r="6" spans="5:44">
       <c r="E6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O6" t="s">
         <v>116</v>
       </c>
       <c r="AG6" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AQ6" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="7" spans="5:44">
       <c r="E7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AQ7" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="8" spans="5:44">
       <c r="E8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG8" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="9" spans="5:44">
       <c r="E9" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG9" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="10" spans="5:44">
       <c r="E10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG10" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11" spans="5:44">
       <c r="E11" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG11" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="12" spans="5:44">
       <c r="E12" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG12" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="13" spans="5:44">
       <c r="E13" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG13" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="5:44">
       <c r="E14" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG14" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="15" spans="5:44">
       <c r="E15" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG15" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="16" spans="5:44">
       <c r="E16" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG16" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="17" spans="5:33">
       <c r="E17" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG17" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="18" spans="5:33">
       <c r="E18" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG18" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="19" spans="5:33">
       <c r="E19" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG19" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="20" spans="5:33">
       <c r="E20" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG20" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="21" spans="5:33">
       <c r="E21" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AG21" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="22" spans="5:33">
       <c r="E22" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AG22" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="23" spans="5:33">
       <c r="E23" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG23" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="24" spans="5:33">
       <c r="E24" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG24" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="25" spans="5:33">
       <c r="E25" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG25" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="26" spans="5:33">
       <c r="E26" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG26" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="27" spans="5:33">
       <c r="E27" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AG27" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="28" spans="5:33">
       <c r="E28" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG28" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="29" spans="5:33">
       <c r="E29" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG29" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="30" spans="5:33">
       <c r="E30" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG30" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="31" spans="5:33">
       <c r="AG31" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="32" spans="5:33">
       <c r="AG32" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="33" spans="33:33">
       <c r="AG33" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="34" spans="33:33">
       <c r="AG34" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="35" spans="33:33">
       <c r="AG35" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="36" spans="33:33">
       <c r="AG36" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="37" spans="33:33">
       <c r="AG37" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="38" spans="33:33">
       <c r="AG38" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="39" spans="33:33">
       <c r="AG39" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="40" spans="33:33">
       <c r="AG40" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="41" spans="33:33">
       <c r="AG41" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="42" spans="33:33">
       <c r="AG42" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="43" spans="33:33">
       <c r="AG43" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="44" spans="33:33">
       <c r="AG44" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="45" spans="33:33">
       <c r="AG45" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="46" spans="33:33">
       <c r="AG46" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="47" spans="33:33">
       <c r="AG47" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="48" spans="33:33">
       <c r="AG48" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="49" spans="33:33">
       <c r="AG49" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="50" spans="33:33">
       <c r="AG50" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="51" spans="33:33">
       <c r="AG51" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="52" spans="33:33">
       <c r="AG52" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="53" spans="33:33">
       <c r="AG53" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="54" spans="33:33">
       <c r="AG54" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="55" spans="33:33">
       <c r="AG55" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="56" spans="33:33">
       <c r="AG56" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="57" spans="33:33">
       <c r="AG57" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="58" spans="33:33">
       <c r="AG58" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="59" spans="33:33">
       <c r="AG59" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="60" spans="33:33">
       <c r="AG60" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="61" spans="33:33">
       <c r="AG61" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="62" spans="33:33">
       <c r="AG62" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="63" spans="33:33">
       <c r="AG63" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="64" spans="33:33">
       <c r="AG64" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="65" spans="33:33">
       <c r="AG65" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="66" spans="33:33">
       <c r="AG66" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="67" spans="33:33">
       <c r="AG67" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="68" spans="33:33">
       <c r="AG68" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="69" spans="33:33">
       <c r="AG69" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="70" spans="33:33">
       <c r="AG70" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="71" spans="33:33">
       <c r="AG71" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="72" spans="33:33">
       <c r="AG72" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="73" spans="33:33">
       <c r="AG73" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="74" spans="33:33">
       <c r="AG74" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="75" spans="33:33">
       <c r="AG75" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="76" spans="33:33">
       <c r="AG76" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="77" spans="33:33">
       <c r="AG77" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="78" spans="33:33">
       <c r="AG78" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="79" spans="33:33">
       <c r="AG79" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="80" spans="33:33">
       <c r="AG80" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="81" spans="33:33">
       <c r="AG81" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="82" spans="33:33">
       <c r="AG82" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="83" spans="33:33">
       <c r="AG83" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="84" spans="33:33">
       <c r="AG84" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="85" spans="33:33">
       <c r="AG85" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="86" spans="33:33">
       <c r="AG86" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="87" spans="33:33">
       <c r="AG87" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="88" spans="33:33">
       <c r="AG88" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="89" spans="33:33">
       <c r="AG89" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="90" spans="33:33">
       <c r="AG90" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="91" spans="33:33">
       <c r="AG91" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="92" spans="33:33">
       <c r="AG92" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="93" spans="33:33">
       <c r="AG93" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="94" spans="33:33">
       <c r="AG94" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="95" spans="33:33">
       <c r="AG95" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="96" spans="33:33">
       <c r="AG96" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="97" spans="33:33">
       <c r="AG97" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="98" spans="33:33">
       <c r="AG98" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="99" spans="33:33">
       <c r="AG99" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="100" spans="33:33">
       <c r="AG100" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="101" spans="33:33">
       <c r="AG101" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="102" spans="33:33">
       <c r="AG102" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="103" spans="33:33">
       <c r="AG103" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="104" spans="33:33">
       <c r="AG104" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="105" spans="33:33">
       <c r="AG105" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="106" spans="33:33">
       <c r="AG106" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="107" spans="33:33">
       <c r="AG107" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="108" spans="33:33">
       <c r="AG108" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="109" spans="33:33">
       <c r="AG109" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="110" spans="33:33">
       <c r="AG110" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="111" spans="33:33">
       <c r="AG111" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="112" spans="33:33">
       <c r="AG112" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="113" spans="33:33">
       <c r="AG113" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="114" spans="33:33">
       <c r="AG114" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="115" spans="33:33">
       <c r="AG115" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="116" spans="33:33">
       <c r="AG116" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="117" spans="33:33">
       <c r="AG117" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="118" spans="33:33">
       <c r="AG118" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="119" spans="33:33">
       <c r="AG119" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="120" spans="33:33">
       <c r="AG120" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="121" spans="33:33">
       <c r="AG121" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="122" spans="33:33">
       <c r="AG122" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="123" spans="33:33">
       <c r="AG123" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="124" spans="33:33">
       <c r="AG124" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="125" spans="33:33">
       <c r="AG125" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="126" spans="33:33">
       <c r="AG126" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="127" spans="33:33">
       <c r="AG127" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="128" spans="33:33">
       <c r="AG128" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="129" spans="33:33">
       <c r="AG129" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="130" spans="33:33">
       <c r="AG130" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="131" spans="33:33">
       <c r="AG131" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="132" spans="33:33">
       <c r="AG132" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="133" spans="33:33">
       <c r="AG133" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="134" spans="33:33">
       <c r="AG134" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="135" spans="33:33">
       <c r="AG135" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="136" spans="33:33">
       <c r="AG136" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="137" spans="33:33">
       <c r="AG137" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="138" spans="33:33">
       <c r="AG138" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="139" spans="33:33">
       <c r="AG139" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="140" spans="33:33">
       <c r="AG140" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="141" spans="33:33">
       <c r="AG141" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="142" spans="33:33">
       <c r="AG142" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="143" spans="33:33">
       <c r="AG143" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="144" spans="33:33">
       <c r="AG144" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="145" spans="33:33">
       <c r="AG145" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="146" spans="33:33">
       <c r="AG146" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="147" spans="33:33">
       <c r="AG147" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="148" spans="33:33">
       <c r="AG148" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="149" spans="33:33">
       <c r="AG149" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="150" spans="33:33">
       <c r="AG150" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="151" spans="33:33">
       <c r="AG151" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="152" spans="33:33">
       <c r="AG152" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="153" spans="33:33">
       <c r="AG153" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="154" spans="33:33">
       <c r="AG154" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="155" spans="33:33">
       <c r="AG155" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="156" spans="33:33">
       <c r="AG156" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="157" spans="33:33">
       <c r="AG157" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="158" spans="33:33">
       <c r="AG158" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="159" spans="33:33">
       <c r="AG159" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="160" spans="33:33">
       <c r="AG160" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="161" spans="33:33">
       <c r="AG161" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="162" spans="33:33">
       <c r="AG162" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="163" spans="33:33">
       <c r="AG163" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="164" spans="33:33">
       <c r="AG164" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="165" spans="33:33">
       <c r="AG165" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="166" spans="33:33">
       <c r="AG166" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="167" spans="33:33">
       <c r="AG167" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="168" spans="33:33">
       <c r="AG168" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="169" spans="33:33">
       <c r="AG169" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="170" spans="33:33">
       <c r="AG170" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="171" spans="33:33">
       <c r="AG171" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="172" spans="33:33">
       <c r="AG172" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="173" spans="33:33">
       <c r="AG173" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="174" spans="33:33">
       <c r="AG174" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="175" spans="33:33">
       <c r="AG175" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="176" spans="33:33">
       <c r="AG176" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="177" spans="33:33">
       <c r="AG177" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="178" spans="33:33">
       <c r="AG178" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="179" spans="33:33">
       <c r="AG179" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="180" spans="33:33">
       <c r="AG180" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="181" spans="33:33">
       <c r="AG181" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="182" spans="33:33">
       <c r="AG182" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="183" spans="33:33">
       <c r="AG183" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="184" spans="33:33">
       <c r="AG184" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="185" spans="33:33">
       <c r="AG185" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="186" spans="33:33">
       <c r="AG186" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="187" spans="33:33">
       <c r="AG187" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="188" spans="33:33">
       <c r="AG188" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="189" spans="33:33">
       <c r="AG189" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="190" spans="33:33">
       <c r="AG190" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="191" spans="33:33">
       <c r="AG191" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="192" spans="33:33">
       <c r="AG192" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="193" spans="33:33">
       <c r="AG193" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="194" spans="33:33">
       <c r="AG194" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="195" spans="33:33">
       <c r="AG195" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="196" spans="33:33">
       <c r="AG196" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="197" spans="33:33">
       <c r="AG197" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="198" spans="33:33">
       <c r="AG198" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="199" spans="33:33">
       <c r="AG199" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="200" spans="33:33">
       <c r="AG200" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="201" spans="33:33">
       <c r="AG201" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="202" spans="33:33">
       <c r="AG202" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="203" spans="33:33">
       <c r="AG203" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="204" spans="33:33">
       <c r="AG204" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="205" spans="33:33">
       <c r="AG205" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="206" spans="33:33">
       <c r="AG206" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="207" spans="33:33">
       <c r="AG207" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="208" spans="33:33">
       <c r="AG208" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="209" spans="33:33">
       <c r="AG209" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="210" spans="33:33">
       <c r="AG210" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="211" spans="33:33">
       <c r="AG211" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="212" spans="33:33">
       <c r="AG212" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="213" spans="33:33">
       <c r="AG213" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="214" spans="33:33">
       <c r="AG214" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="215" spans="33:33">
       <c r="AG215" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="216" spans="33:33">
       <c r="AG216" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="217" spans="33:33">
       <c r="AG217" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="218" spans="33:33">
       <c r="AG218" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="219" spans="33:33">
       <c r="AG219" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="220" spans="33:33">
       <c r="AG220" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="221" spans="33:33">
       <c r="AG221" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="222" spans="33:33">
       <c r="AG222" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="223" spans="33:33">
       <c r="AG223" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="224" spans="33:33">
       <c r="AG224" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="225" spans="33:33">
       <c r="AG225" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="226" spans="33:33">
       <c r="AG226" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="227" spans="33:33">
       <c r="AG227" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="228" spans="33:33">
       <c r="AG228" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="229" spans="33:33">
       <c r="AG229" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="230" spans="33:33">
       <c r="AG230" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="231" spans="33:33">
       <c r="AG231" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="232" spans="33:33">
       <c r="AG232" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="233" spans="33:33">
       <c r="AG233" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="234" spans="33:33">
       <c r="AG234" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="235" spans="33:33">
       <c r="AG235" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="236" spans="33:33">
       <c r="AG236" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="237" spans="33:33">
       <c r="AG237" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="238" spans="33:33">
       <c r="AG238" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="239" spans="33:33">
       <c r="AG239" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="240" spans="33:33">
       <c r="AG240" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="241" spans="33:33">
       <c r="AG241" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="242" spans="33:33">
       <c r="AG242" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="243" spans="33:33">
       <c r="AG243" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="244" spans="33:33">
       <c r="AG244" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="245" spans="33:33">
       <c r="AG245" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="246" spans="33:33">
       <c r="AG246" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="247" spans="33:33">
       <c r="AG247" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="248" spans="33:33">
       <c r="AG248" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="249" spans="33:33">
       <c r="AG249" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="250" spans="33:33">
       <c r="AG250" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="251" spans="33:33">
       <c r="AG251" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="252" spans="33:33">
       <c r="AG252" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="253" spans="33:33">
       <c r="AG253" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="254" spans="33:33">
       <c r="AG254" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="255" spans="33:33">
       <c r="AG255" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="256" spans="33:33">
       <c r="AG256" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="257" spans="33:33">
       <c r="AG257" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="258" spans="33:33">
       <c r="AG258" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="259" spans="33:33">
       <c r="AG259" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="260" spans="33:33">
       <c r="AG260" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="261" spans="33:33">
       <c r="AG261" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="262" spans="33:33">
       <c r="AG262" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="263" spans="33:33">
       <c r="AG263" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="264" spans="33:33">
       <c r="AG264" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="265" spans="33:33">
       <c r="AG265" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="266" spans="33:33">
       <c r="AG266" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="267" spans="33:33">
       <c r="AG267" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="268" spans="33:33">
       <c r="AG268" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="269" spans="33:33">
       <c r="AG269" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="270" spans="33:33">
       <c r="AG270" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="271" spans="33:33">
       <c r="AG271" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="272" spans="33:33">
       <c r="AG272" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="273" spans="33:33">
       <c r="AG273" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="274" spans="33:33">
       <c r="AG274" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="275" spans="33:33">
       <c r="AG275" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="276" spans="33:33">
       <c r="AG276" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="277" spans="33:33">
       <c r="AG277" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="278" spans="33:33">
       <c r="AG278" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="279" spans="33:33">
       <c r="AG279" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="280" spans="33:33">
       <c r="AG280" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="281" spans="33:33">
       <c r="AG281" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="282" spans="33:33">
       <c r="AG282" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="283" spans="33:33">
       <c r="AG283" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="284" spans="33:33">
       <c r="AG284" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="285" spans="33:33">
       <c r="AG285" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="286" spans="33:33">
       <c r="AG286" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="287" spans="33:33">
       <c r="AG287" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="288" spans="33:33">
       <c r="AG288" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000020/metadata_template_ERC000020.xlsx
+++ b/templates/ERC000020/metadata_template_ERC000020.xlsx
@@ -119,7 +119,7 @@
     <t>(Mandatory) Unique identificator for each experiment. this is used to link runs to experiments.</t>
   </si>
   <si>
-    <t>(Optional) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
+    <t>(Mandatory) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
   </si>
   <si>
     <t>study_alias</t>
@@ -137,7 +137,7 @@
     <t>design_description</t>
   </si>
   <si>
-    <t>(Optional) Goal and setup of the individual library including library was constructed.</t>
+    <t>(Mandatory) Goal and setup of the individual library including library was constructed.</t>
   </si>
   <si>
     <t>library_name</t>

--- a/templates/ERC000020/metadata_template_ERC000020.xlsx
+++ b/templates/ERC000020/metadata_template_ERC000020.xlsx
@@ -18,9 +18,9 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AG$1:$AG$288</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AU$1:$AU$289</definedName>
     <definedName name="growthfacility">'cv_sample'!$O$1:$O$6</definedName>
-    <definedName name="growthhabit">'cv_sample'!$AR$1:$AR$4</definedName>
+    <definedName name="growthhabit">'cv_sample'!$AQ$1:$AQ$4</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -29,7 +29,7 @@
     <definedName name="oxygenationstatusofsample">'cv_sample'!$Q$1:$Q$2</definedName>
     <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
     <definedName name="relationshiptooxygen">'cv_sample'!$H$1:$H$7</definedName>
-    <definedName name="samplecapturestatus">'cv_sample'!$AQ$1:$AQ$7</definedName>
+    <definedName name="samplecapturestatus">'cv_sample'!$AP$1:$AP$7</definedName>
     <definedName name="sequencequalitycheck">'cv_sample'!$AA$1:$AA$3</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
     <definedName name="trophiclevel">'cv_sample'!$E$1:$E$30</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="867">
   <si>
     <t>alias</t>
   </si>
@@ -1163,6 +1163,120 @@
     <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
   </si>
   <si>
+    <t>geographic location (latitude)</t>
+  </si>
+  <si>
+    <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>geographic location (longitude)</t>
+  </si>
+  <si>
+    <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>geographic location (region and locality)</t>
+  </si>
+  <si>
+    <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
+  </si>
+  <si>
+    <t>broad-scale environmental context</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
+  </si>
+  <si>
+    <t>local environmental context</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
+  </si>
+  <si>
+    <t>environmental medium</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
+  </si>
+  <si>
+    <t>elevation</t>
+  </si>
+  <si>
+    <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
+  </si>
+  <si>
+    <t>amount or size of sample collected</t>
+  </si>
+  <si>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+  </si>
+  <si>
+    <t>organism count</t>
+  </si>
+  <si>
+    <t>(Optional) Total cell count of any organism (or group of organisms) per gram, volume or area of sample, should include name of organism followed by count. the method that was used for the enumeration (e.g. qpcr, atp, mpn, etc.) should also be provided. (example: total prokaryotes; 3.5e7 cells per ml; qpcr)</t>
+  </si>
+  <si>
+    <t>active surveillance in response to outbreak</t>
+  </si>
+  <si>
+    <t>active surveillance not initiated by an outbreak</t>
+  </si>
+  <si>
+    <t>farm sample</t>
+  </si>
+  <si>
+    <t>market sample</t>
+  </si>
+  <si>
+    <t>pet sample</t>
+  </si>
+  <si>
+    <t>zoo sample</t>
+  </si>
+  <si>
+    <t>sample capture status</t>
+  </si>
+  <si>
+    <t>(Optional) Reason for the sample collection.</t>
+  </si>
+  <si>
+    <t>erect</t>
+  </si>
+  <si>
+    <t>prostrate</t>
+  </si>
+  <si>
+    <t>semi-erect</t>
+  </si>
+  <si>
+    <t>spreading</t>
+  </si>
+  <si>
+    <t>growth habit</t>
+  </si>
+  <si>
+    <t>(Optional) Characteristic shape, appearance or growth form of a plant species</t>
+  </si>
+  <si>
+    <t>plant sex</t>
+  </si>
+  <si>
+    <t>(Optional) Sex of the reproductive parts on the whole plant, e.g. pistilate, staminate, monoecieous, hermaphrodite</t>
+  </si>
+  <si>
+    <t>plant structure</t>
+  </si>
+  <si>
+    <t>(Optional) Name of plant structure that the sample was obtained from; for plant ontology (po) terms see http://purl.bioontology.org/ontology/po, e.g. petiole epidermis (po_0000051); if an individual flower is sampled the sex of it can be recorded here</t>
+  </si>
+  <si>
+    <t>sample storage duration</t>
+  </si>
+  <si>
+    <t>(Optional) Duration for which the sample was stored. indicate the duration for which the sample was stored written in iso 8601 format.</t>
+  </si>
+  <si>
     <t>Afghanistan</t>
   </si>
   <si>
@@ -1991,6 +2105,9 @@
     <t>Zimbabwe</t>
   </si>
   <si>
+    <t>missing</t>
+  </si>
+  <si>
     <t>missing: control sample</t>
   </si>
   <si>
@@ -2031,120 +2148,6 @@
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
-  </si>
-  <si>
-    <t>geographic location (latitude)</t>
-  </si>
-  <si>
-    <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>geographic location (longitude)</t>
-  </si>
-  <si>
-    <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>geographic location (region and locality)</t>
-  </si>
-  <si>
-    <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
-  </si>
-  <si>
-    <t>broad-scale environmental context</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
-  </si>
-  <si>
-    <t>local environmental context</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
-  </si>
-  <si>
-    <t>environmental medium</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
-  </si>
-  <si>
-    <t>elevation</t>
-  </si>
-  <si>
-    <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
-  </si>
-  <si>
-    <t>amount or size of sample collected</t>
-  </si>
-  <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
-  </si>
-  <si>
-    <t>organism count</t>
-  </si>
-  <si>
-    <t>(Optional) Total cell count of any organism (or group of organisms) per gram, volume or area of sample, should include name of organism followed by count. the method that was used for the enumeration (e.g. qpcr, atp, mpn, etc.) should also be provided. (example: total prokaryotes; 3.5e7 cells per ml; qpcr)</t>
-  </si>
-  <si>
-    <t>active surveillance in response to outbreak</t>
-  </si>
-  <si>
-    <t>active surveillance not initiated by an outbreak</t>
-  </si>
-  <si>
-    <t>farm sample</t>
-  </si>
-  <si>
-    <t>market sample</t>
-  </si>
-  <si>
-    <t>pet sample</t>
-  </si>
-  <si>
-    <t>zoo sample</t>
-  </si>
-  <si>
-    <t>sample capture status</t>
-  </si>
-  <si>
-    <t>(Optional) Reason for the sample collection.</t>
-  </si>
-  <si>
-    <t>erect</t>
-  </si>
-  <si>
-    <t>prostrate</t>
-  </si>
-  <si>
-    <t>semi-erect</t>
-  </si>
-  <si>
-    <t>spreading</t>
-  </si>
-  <si>
-    <t>growth habit</t>
-  </si>
-  <si>
-    <t>(Optional) Characteristic shape, appearance or growth form of a plant species</t>
-  </si>
-  <si>
-    <t>plant sex</t>
-  </si>
-  <si>
-    <t>(Optional) Sex of the reproductive parts on the whole plant, e.g. pistilate, staminate, monoecieous, hermaphrodite</t>
-  </si>
-  <si>
-    <t>plant structure</t>
-  </si>
-  <si>
-    <t>(Optional) Name of plant structure that the sample was obtained from; for plant ontology (po) terms see http://purl.bioontology.org/ontology/po, e.g. petiole epidermis (po_0000051); if an individual flower is sampled the sex of it can be recorded here</t>
-  </si>
-  <si>
-    <t>sample storage duration</t>
-  </si>
-  <si>
-    <t>(Optional) Duration for which the sample was stored. indicate the duration for which the sample was stored written in iso 8601 format.</t>
   </si>
   <si>
     <t>host disease status</t>
@@ -4257,295 +4260,295 @@
         <v>372</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>662</v>
+        <v>374</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>664</v>
+        <v>376</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>666</v>
+        <v>378</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>668</v>
+        <v>380</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>670</v>
+        <v>382</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>672</v>
+        <v>384</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>674</v>
+        <v>386</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>676</v>
+        <v>388</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>678</v>
+        <v>390</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>680</v>
+        <v>398</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>688</v>
+        <v>404</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>694</v>
+        <v>406</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>696</v>
+        <v>408</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>698</v>
+        <v>410</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="DN1" s="1" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="DO1" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="DP1" s="1" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="DQ1" s="1" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="DR1" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="DS1" s="1" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="DT1" s="1" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="DU1" s="1" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="DV1" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="DW1" s="1" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="DX1" s="1" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="DY1" s="1" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="2" spans="1:129" ht="150" customHeight="1">
@@ -4646,295 +4649,295 @@
         <v>373</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>663</v>
+        <v>375</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>665</v>
+        <v>377</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>667</v>
+        <v>379</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>669</v>
+        <v>381</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>671</v>
+        <v>383</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>673</v>
+        <v>385</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>675</v>
+        <v>387</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>677</v>
+        <v>389</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>679</v>
+        <v>391</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>681</v>
+        <v>399</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>689</v>
+        <v>405</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>695</v>
+        <v>407</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>697</v>
+        <v>409</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>699</v>
+        <v>411</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="DJ2" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="DK2" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="DL2" s="2" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="DM2" s="2" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="DN2" s="2" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="DO2" s="2" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="DP2" s="2" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="DQ2" s="2" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="DR2" s="2" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="DS2" s="2" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="DT2" s="2" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="DU2" s="2" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="DV2" s="2" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="DW2" s="2" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="DX2" s="2" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="DY2" s="2" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
   </sheetData>
@@ -4957,14 +4960,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA3:AA101">
       <formula1>sequencequalitycheck</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG3:AG101">
-      <formula1>geographiclocationcountryandorsea</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP3:AP101">
+      <formula1>samplecapturestatus</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3:AQ101">
-      <formula1>samplecapturestatus</formula1>
+      <formula1>growthhabit</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR3:AR101">
-      <formula1>growthhabit</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU3:AU101">
+      <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4973,13 +4976,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E1:AR288"/>
+  <dimension ref="E1:AU289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="5:44">
+    <row r="1" spans="5:47">
       <c r="E1" t="s">
         <v>266</v>
       </c>
@@ -4998,17 +5001,17 @@
       <c r="AA1" t="s">
         <v>359</v>
       </c>
-      <c r="AG1" t="s">
-        <v>374</v>
+      <c r="AP1" t="s">
+        <v>392</v>
       </c>
       <c r="AQ1" t="s">
-        <v>682</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="2" spans="5:44">
+        <v>400</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="2" spans="5:47">
       <c r="E2" t="s">
         <v>267</v>
       </c>
@@ -5027,17 +5030,17 @@
       <c r="AA2" t="s">
         <v>360</v>
       </c>
-      <c r="AG2" t="s">
-        <v>375</v>
+      <c r="AP2" t="s">
+        <v>393</v>
       </c>
       <c r="AQ2" t="s">
-        <v>683</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="3" spans="5:44">
+        <v>401</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="3" spans="5:47">
       <c r="E3" t="s">
         <v>268</v>
       </c>
@@ -5053,17 +5056,17 @@
       <c r="AA3" t="s">
         <v>361</v>
       </c>
-      <c r="AG3" t="s">
-        <v>376</v>
+      <c r="AP3" t="s">
+        <v>394</v>
       </c>
       <c r="AQ3" t="s">
-        <v>684</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="4" spans="5:44">
+        <v>402</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="4" spans="5:47">
       <c r="E4" t="s">
         <v>269</v>
       </c>
@@ -5076,17 +5079,17 @@
       <c r="O4" t="s">
         <v>331</v>
       </c>
-      <c r="AG4" t="s">
-        <v>377</v>
+      <c r="AP4" t="s">
+        <v>395</v>
       </c>
       <c r="AQ4" t="s">
-        <v>685</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="5" spans="5:44">
+        <v>403</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="5" spans="5:47">
       <c r="E5" t="s">
         <v>270</v>
       </c>
@@ -5099,14 +5102,14 @@
       <c r="O5" t="s">
         <v>332</v>
       </c>
-      <c r="AG5" t="s">
-        <v>378</v>
-      </c>
-      <c r="AQ5" t="s">
+      <c r="AP5" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="6" spans="5:44">
+      <c r="AU5" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="6" spans="5:47">
       <c r="E6" t="s">
         <v>271</v>
       </c>
@@ -5116,1499 +5119,1504 @@
       <c r="O6" t="s">
         <v>116</v>
       </c>
-      <c r="AG6" t="s">
-        <v>379</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="7" spans="5:44">
+      <c r="AP6" t="s">
+        <v>396</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="7" spans="5:47">
       <c r="E7" t="s">
         <v>272</v>
       </c>
       <c r="H7" t="s">
         <v>313</v>
       </c>
-      <c r="AG7" t="s">
-        <v>380</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="8" spans="5:44">
+      <c r="AP7" t="s">
+        <v>397</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="8" spans="5:47">
       <c r="E8" t="s">
         <v>273</v>
       </c>
-      <c r="AG8" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="9" spans="5:44">
+      <c r="AU8" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="9" spans="5:47">
       <c r="E9" t="s">
         <v>274</v>
       </c>
-      <c r="AG9" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="10" spans="5:44">
+      <c r="AU9" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="10" spans="5:47">
       <c r="E10" t="s">
         <v>275</v>
       </c>
-      <c r="AG10" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="11" spans="5:44">
+      <c r="AU10" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="11" spans="5:47">
       <c r="E11" t="s">
         <v>276</v>
       </c>
-      <c r="AG11" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="12" spans="5:44">
+      <c r="AU11" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="12" spans="5:47">
       <c r="E12" t="s">
         <v>277</v>
       </c>
-      <c r="AG12" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="13" spans="5:44">
+      <c r="AU12" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="13" spans="5:47">
       <c r="E13" t="s">
         <v>278</v>
       </c>
-      <c r="AG13" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="14" spans="5:44">
+      <c r="AU13" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="14" spans="5:47">
       <c r="E14" t="s">
         <v>279</v>
       </c>
-      <c r="AG14" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="15" spans="5:44">
+      <c r="AU14" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="15" spans="5:47">
       <c r="E15" t="s">
         <v>280</v>
       </c>
-      <c r="AG15" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="16" spans="5:44">
+      <c r="AU15" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="16" spans="5:47">
       <c r="E16" t="s">
         <v>281</v>
       </c>
-      <c r="AG16" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="17" spans="5:33">
+      <c r="AU16" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="17" spans="5:47">
       <c r="E17" t="s">
         <v>282</v>
       </c>
-      <c r="AG17" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="18" spans="5:33">
+      <c r="AU17" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="18" spans="5:47">
       <c r="E18" t="s">
         <v>283</v>
       </c>
-      <c r="AG18" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="19" spans="5:33">
+      <c r="AU18" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="19" spans="5:47">
       <c r="E19" t="s">
         <v>284</v>
       </c>
-      <c r="AG19" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="20" spans="5:33">
+      <c r="AU19" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="20" spans="5:47">
       <c r="E20" t="s">
         <v>285</v>
       </c>
-      <c r="AG20" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="21" spans="5:33">
+      <c r="AU20" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="21" spans="5:47">
       <c r="E21" t="s">
         <v>286</v>
       </c>
-      <c r="AG21" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="22" spans="5:33">
+      <c r="AU21" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="22" spans="5:47">
       <c r="E22" t="s">
         <v>287</v>
       </c>
-      <c r="AG22" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="23" spans="5:33">
+      <c r="AU22" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="23" spans="5:47">
       <c r="E23" t="s">
         <v>288</v>
       </c>
-      <c r="AG23" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="24" spans="5:33">
+      <c r="AU23" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="24" spans="5:47">
       <c r="E24" t="s">
         <v>289</v>
       </c>
-      <c r="AG24" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="25" spans="5:33">
+      <c r="AU24" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="25" spans="5:47">
       <c r="E25" t="s">
         <v>290</v>
       </c>
-      <c r="AG25" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="26" spans="5:33">
+      <c r="AU25" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="26" spans="5:47">
       <c r="E26" t="s">
         <v>291</v>
       </c>
-      <c r="AG26" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="27" spans="5:33">
+      <c r="AU26" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="27" spans="5:47">
       <c r="E27" t="s">
         <v>292</v>
       </c>
-      <c r="AG27" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="28" spans="5:33">
+      <c r="AU27" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="28" spans="5:47">
       <c r="E28" t="s">
         <v>293</v>
       </c>
-      <c r="AG28" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="29" spans="5:33">
+      <c r="AU28" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="29" spans="5:47">
       <c r="E29" t="s">
         <v>294</v>
       </c>
-      <c r="AG29" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="30" spans="5:33">
+      <c r="AU29" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="30" spans="5:47">
       <c r="E30" t="s">
         <v>295</v>
       </c>
-      <c r="AG30" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="31" spans="5:33">
-      <c r="AG31" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="32" spans="5:33">
-      <c r="AG32" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="33" spans="33:33">
-      <c r="AG33" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="34" spans="33:33">
-      <c r="AG34" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="35" spans="33:33">
-      <c r="AG35" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="36" spans="33:33">
-      <c r="AG36" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="37" spans="33:33">
-      <c r="AG37" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="38" spans="33:33">
-      <c r="AG38" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="39" spans="33:33">
-      <c r="AG39" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="40" spans="33:33">
-      <c r="AG40" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="41" spans="33:33">
-      <c r="AG41" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="42" spans="33:33">
-      <c r="AG42" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="43" spans="33:33">
-      <c r="AG43" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="44" spans="33:33">
-      <c r="AG44" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="45" spans="33:33">
-      <c r="AG45" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="46" spans="33:33">
-      <c r="AG46" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="47" spans="33:33">
-      <c r="AG47" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="48" spans="33:33">
-      <c r="AG48" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="49" spans="33:33">
-      <c r="AG49" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="50" spans="33:33">
-      <c r="AG50" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="51" spans="33:33">
-      <c r="AG51" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="52" spans="33:33">
-      <c r="AG52" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="53" spans="33:33">
-      <c r="AG53" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="54" spans="33:33">
-      <c r="AG54" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="55" spans="33:33">
-      <c r="AG55" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="56" spans="33:33">
-      <c r="AG56" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="57" spans="33:33">
-      <c r="AG57" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="58" spans="33:33">
-      <c r="AG58" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="59" spans="33:33">
-      <c r="AG59" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="60" spans="33:33">
-      <c r="AG60" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="61" spans="33:33">
-      <c r="AG61" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="62" spans="33:33">
-      <c r="AG62" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="63" spans="33:33">
-      <c r="AG63" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="64" spans="33:33">
-      <c r="AG64" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="65" spans="33:33">
-      <c r="AG65" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="66" spans="33:33">
-      <c r="AG66" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="67" spans="33:33">
-      <c r="AG67" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="68" spans="33:33">
-      <c r="AG68" t="s">
+      <c r="AU30" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="69" spans="33:33">
-      <c r="AG69" t="s">
+    <row r="31" spans="5:47">
+      <c r="AU31" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="70" spans="33:33">
-      <c r="AG70" t="s">
+    <row r="32" spans="5:47">
+      <c r="AU32" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="71" spans="33:33">
-      <c r="AG71" t="s">
+    <row r="33" spans="47:47">
+      <c r="AU33" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="72" spans="33:33">
-      <c r="AG72" t="s">
+    <row r="34" spans="47:47">
+      <c r="AU34" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="73" spans="33:33">
-      <c r="AG73" t="s">
+    <row r="35" spans="47:47">
+      <c r="AU35" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="74" spans="33:33">
-      <c r="AG74" t="s">
+    <row r="36" spans="47:47">
+      <c r="AU36" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="75" spans="33:33">
-      <c r="AG75" t="s">
+    <row r="37" spans="47:47">
+      <c r="AU37" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="76" spans="33:33">
-      <c r="AG76" t="s">
+    <row r="38" spans="47:47">
+      <c r="AU38" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="77" spans="33:33">
-      <c r="AG77" t="s">
+    <row r="39" spans="47:47">
+      <c r="AU39" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="78" spans="33:33">
-      <c r="AG78" t="s">
+    <row r="40" spans="47:47">
+      <c r="AU40" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="79" spans="33:33">
-      <c r="AG79" t="s">
+    <row r="41" spans="47:47">
+      <c r="AU41" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="80" spans="33:33">
-      <c r="AG80" t="s">
+    <row r="42" spans="47:47">
+      <c r="AU42" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="81" spans="33:33">
-      <c r="AG81" t="s">
+    <row r="43" spans="47:47">
+      <c r="AU43" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="82" spans="33:33">
-      <c r="AG82" t="s">
+    <row r="44" spans="47:47">
+      <c r="AU44" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="83" spans="33:33">
-      <c r="AG83" t="s">
+    <row r="45" spans="47:47">
+      <c r="AU45" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="84" spans="33:33">
-      <c r="AG84" t="s">
+    <row r="46" spans="47:47">
+      <c r="AU46" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="85" spans="33:33">
-      <c r="AG85" t="s">
+    <row r="47" spans="47:47">
+      <c r="AU47" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="86" spans="33:33">
-      <c r="AG86" t="s">
+    <row r="48" spans="47:47">
+      <c r="AU48" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="87" spans="33:33">
-      <c r="AG87" t="s">
+    <row r="49" spans="47:47">
+      <c r="AU49" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="88" spans="33:33">
-      <c r="AG88" t="s">
+    <row r="50" spans="47:47">
+      <c r="AU50" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="89" spans="33:33">
-      <c r="AG89" t="s">
+    <row r="51" spans="47:47">
+      <c r="AU51" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="90" spans="33:33">
-      <c r="AG90" t="s">
+    <row r="52" spans="47:47">
+      <c r="AU52" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="91" spans="33:33">
-      <c r="AG91" t="s">
+    <row r="53" spans="47:47">
+      <c r="AU53" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="92" spans="33:33">
-      <c r="AG92" t="s">
+    <row r="54" spans="47:47">
+      <c r="AU54" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="93" spans="33:33">
-      <c r="AG93" t="s">
+    <row r="55" spans="47:47">
+      <c r="AU55" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="94" spans="33:33">
-      <c r="AG94" t="s">
+    <row r="56" spans="47:47">
+      <c r="AU56" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="95" spans="33:33">
-      <c r="AG95" t="s">
+    <row r="57" spans="47:47">
+      <c r="AU57" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="96" spans="33:33">
-      <c r="AG96" t="s">
+    <row r="58" spans="47:47">
+      <c r="AU58" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="97" spans="33:33">
-      <c r="AG97" t="s">
+    <row r="59" spans="47:47">
+      <c r="AU59" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="98" spans="33:33">
-      <c r="AG98" t="s">
+    <row r="60" spans="47:47">
+      <c r="AU60" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="99" spans="33:33">
-      <c r="AG99" t="s">
+    <row r="61" spans="47:47">
+      <c r="AU61" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="100" spans="33:33">
-      <c r="AG100" t="s">
+    <row r="62" spans="47:47">
+      <c r="AU62" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="101" spans="33:33">
-      <c r="AG101" t="s">
+    <row r="63" spans="47:47">
+      <c r="AU63" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="102" spans="33:33">
-      <c r="AG102" t="s">
+    <row r="64" spans="47:47">
+      <c r="AU64" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="103" spans="33:33">
-      <c r="AG103" t="s">
+    <row r="65" spans="47:47">
+      <c r="AU65" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="104" spans="33:33">
-      <c r="AG104" t="s">
+    <row r="66" spans="47:47">
+      <c r="AU66" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="105" spans="33:33">
-      <c r="AG105" t="s">
+    <row r="67" spans="47:47">
+      <c r="AU67" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="106" spans="33:33">
-      <c r="AG106" t="s">
+    <row r="68" spans="47:47">
+      <c r="AU68" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="107" spans="33:33">
-      <c r="AG107" t="s">
+    <row r="69" spans="47:47">
+      <c r="AU69" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="108" spans="33:33">
-      <c r="AG108" t="s">
+    <row r="70" spans="47:47">
+      <c r="AU70" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="109" spans="33:33">
-      <c r="AG109" t="s">
+    <row r="71" spans="47:47">
+      <c r="AU71" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="110" spans="33:33">
-      <c r="AG110" t="s">
+    <row r="72" spans="47:47">
+      <c r="AU72" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="111" spans="33:33">
-      <c r="AG111" t="s">
+    <row r="73" spans="47:47">
+      <c r="AU73" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="112" spans="33:33">
-      <c r="AG112" t="s">
+    <row r="74" spans="47:47">
+      <c r="AU74" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="113" spans="33:33">
-      <c r="AG113" t="s">
+    <row r="75" spans="47:47">
+      <c r="AU75" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="114" spans="33:33">
-      <c r="AG114" t="s">
+    <row r="76" spans="47:47">
+      <c r="AU76" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="115" spans="33:33">
-      <c r="AG115" t="s">
+    <row r="77" spans="47:47">
+      <c r="AU77" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="116" spans="33:33">
-      <c r="AG116" t="s">
+    <row r="78" spans="47:47">
+      <c r="AU78" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="117" spans="33:33">
-      <c r="AG117" t="s">
+    <row r="79" spans="47:47">
+      <c r="AU79" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="118" spans="33:33">
-      <c r="AG118" t="s">
+    <row r="80" spans="47:47">
+      <c r="AU80" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="119" spans="33:33">
-      <c r="AG119" t="s">
+    <row r="81" spans="47:47">
+      <c r="AU81" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="120" spans="33:33">
-      <c r="AG120" t="s">
+    <row r="82" spans="47:47">
+      <c r="AU82" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="121" spans="33:33">
-      <c r="AG121" t="s">
+    <row r="83" spans="47:47">
+      <c r="AU83" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="122" spans="33:33">
-      <c r="AG122" t="s">
+    <row r="84" spans="47:47">
+      <c r="AU84" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="123" spans="33:33">
-      <c r="AG123" t="s">
+    <row r="85" spans="47:47">
+      <c r="AU85" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="124" spans="33:33">
-      <c r="AG124" t="s">
+    <row r="86" spans="47:47">
+      <c r="AU86" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="125" spans="33:33">
-      <c r="AG125" t="s">
+    <row r="87" spans="47:47">
+      <c r="AU87" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="126" spans="33:33">
-      <c r="AG126" t="s">
+    <row r="88" spans="47:47">
+      <c r="AU88" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="127" spans="33:33">
-      <c r="AG127" t="s">
+    <row r="89" spans="47:47">
+      <c r="AU89" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="128" spans="33:33">
-      <c r="AG128" t="s">
+    <row r="90" spans="47:47">
+      <c r="AU90" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="129" spans="33:33">
-      <c r="AG129" t="s">
+    <row r="91" spans="47:47">
+      <c r="AU91" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="130" spans="33:33">
-      <c r="AG130" t="s">
+    <row r="92" spans="47:47">
+      <c r="AU92" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="131" spans="33:33">
-      <c r="AG131" t="s">
+    <row r="93" spans="47:47">
+      <c r="AU93" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="132" spans="33:33">
-      <c r="AG132" t="s">
+    <row r="94" spans="47:47">
+      <c r="AU94" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="133" spans="33:33">
-      <c r="AG133" t="s">
+    <row r="95" spans="47:47">
+      <c r="AU95" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="134" spans="33:33">
-      <c r="AG134" t="s">
+    <row r="96" spans="47:47">
+      <c r="AU96" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="135" spans="33:33">
-      <c r="AG135" t="s">
+    <row r="97" spans="47:47">
+      <c r="AU97" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="136" spans="33:33">
-      <c r="AG136" t="s">
+    <row r="98" spans="47:47">
+      <c r="AU98" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="137" spans="33:33">
-      <c r="AG137" t="s">
+    <row r="99" spans="47:47">
+      <c r="AU99" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="138" spans="33:33">
-      <c r="AG138" t="s">
+    <row r="100" spans="47:47">
+      <c r="AU100" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="139" spans="33:33">
-      <c r="AG139" t="s">
+    <row r="101" spans="47:47">
+      <c r="AU101" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="140" spans="33:33">
-      <c r="AG140" t="s">
+    <row r="102" spans="47:47">
+      <c r="AU102" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="141" spans="33:33">
-      <c r="AG141" t="s">
+    <row r="103" spans="47:47">
+      <c r="AU103" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="142" spans="33:33">
-      <c r="AG142" t="s">
+    <row r="104" spans="47:47">
+      <c r="AU104" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="143" spans="33:33">
-      <c r="AG143" t="s">
+    <row r="105" spans="47:47">
+      <c r="AU105" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="144" spans="33:33">
-      <c r="AG144" t="s">
+    <row r="106" spans="47:47">
+      <c r="AU106" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="145" spans="33:33">
-      <c r="AG145" t="s">
+    <row r="107" spans="47:47">
+      <c r="AU107" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="146" spans="33:33">
-      <c r="AG146" t="s">
+    <row r="108" spans="47:47">
+      <c r="AU108" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="147" spans="33:33">
-      <c r="AG147" t="s">
+    <row r="109" spans="47:47">
+      <c r="AU109" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="148" spans="33:33">
-      <c r="AG148" t="s">
+    <row r="110" spans="47:47">
+      <c r="AU110" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="149" spans="33:33">
-      <c r="AG149" t="s">
+    <row r="111" spans="47:47">
+      <c r="AU111" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="150" spans="33:33">
-      <c r="AG150" t="s">
+    <row r="112" spans="47:47">
+      <c r="AU112" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="151" spans="33:33">
-      <c r="AG151" t="s">
+    <row r="113" spans="47:47">
+      <c r="AU113" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="152" spans="33:33">
-      <c r="AG152" t="s">
+    <row r="114" spans="47:47">
+      <c r="AU114" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="153" spans="33:33">
-      <c r="AG153" t="s">
+    <row r="115" spans="47:47">
+      <c r="AU115" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="154" spans="33:33">
-      <c r="AG154" t="s">
+    <row r="116" spans="47:47">
+      <c r="AU116" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="155" spans="33:33">
-      <c r="AG155" t="s">
+    <row r="117" spans="47:47">
+      <c r="AU117" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="156" spans="33:33">
-      <c r="AG156" t="s">
+    <row r="118" spans="47:47">
+      <c r="AU118" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="157" spans="33:33">
-      <c r="AG157" t="s">
+    <row r="119" spans="47:47">
+      <c r="AU119" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="158" spans="33:33">
-      <c r="AG158" t="s">
+    <row r="120" spans="47:47">
+      <c r="AU120" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="159" spans="33:33">
-      <c r="AG159" t="s">
+    <row r="121" spans="47:47">
+      <c r="AU121" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="160" spans="33:33">
-      <c r="AG160" t="s">
+    <row r="122" spans="47:47">
+      <c r="AU122" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="161" spans="33:33">
-      <c r="AG161" t="s">
+    <row r="123" spans="47:47">
+      <c r="AU123" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="162" spans="33:33">
-      <c r="AG162" t="s">
+    <row r="124" spans="47:47">
+      <c r="AU124" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="163" spans="33:33">
-      <c r="AG163" t="s">
+    <row r="125" spans="47:47">
+      <c r="AU125" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="164" spans="33:33">
-      <c r="AG164" t="s">
+    <row r="126" spans="47:47">
+      <c r="AU126" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="165" spans="33:33">
-      <c r="AG165" t="s">
+    <row r="127" spans="47:47">
+      <c r="AU127" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="166" spans="33:33">
-      <c r="AG166" t="s">
+    <row r="128" spans="47:47">
+      <c r="AU128" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="167" spans="33:33">
-      <c r="AG167" t="s">
+    <row r="129" spans="47:47">
+      <c r="AU129" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="168" spans="33:33">
-      <c r="AG168" t="s">
+    <row r="130" spans="47:47">
+      <c r="AU130" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="169" spans="33:33">
-      <c r="AG169" t="s">
+    <row r="131" spans="47:47">
+      <c r="AU131" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="170" spans="33:33">
-      <c r="AG170" t="s">
+    <row r="132" spans="47:47">
+      <c r="AU132" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="171" spans="33:33">
-      <c r="AG171" t="s">
+    <row r="133" spans="47:47">
+      <c r="AU133" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="172" spans="33:33">
-      <c r="AG172" t="s">
+    <row r="134" spans="47:47">
+      <c r="AU134" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="173" spans="33:33">
-      <c r="AG173" t="s">
+    <row r="135" spans="47:47">
+      <c r="AU135" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="174" spans="33:33">
-      <c r="AG174" t="s">
+    <row r="136" spans="47:47">
+      <c r="AU136" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="175" spans="33:33">
-      <c r="AG175" t="s">
+    <row r="137" spans="47:47">
+      <c r="AU137" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="176" spans="33:33">
-      <c r="AG176" t="s">
+    <row r="138" spans="47:47">
+      <c r="AU138" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="177" spans="33:33">
-      <c r="AG177" t="s">
+    <row r="139" spans="47:47">
+      <c r="AU139" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="178" spans="33:33">
-      <c r="AG178" t="s">
+    <row r="140" spans="47:47">
+      <c r="AU140" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="179" spans="33:33">
-      <c r="AG179" t="s">
+    <row r="141" spans="47:47">
+      <c r="AU141" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="180" spans="33:33">
-      <c r="AG180" t="s">
+    <row r="142" spans="47:47">
+      <c r="AU142" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="181" spans="33:33">
-      <c r="AG181" t="s">
+    <row r="143" spans="47:47">
+      <c r="AU143" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="182" spans="33:33">
-      <c r="AG182" t="s">
+    <row r="144" spans="47:47">
+      <c r="AU144" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="183" spans="33:33">
-      <c r="AG183" t="s">
+    <row r="145" spans="47:47">
+      <c r="AU145" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="184" spans="33:33">
-      <c r="AG184" t="s">
+    <row r="146" spans="47:47">
+      <c r="AU146" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="185" spans="33:33">
-      <c r="AG185" t="s">
+    <row r="147" spans="47:47">
+      <c r="AU147" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="186" spans="33:33">
-      <c r="AG186" t="s">
+    <row r="148" spans="47:47">
+      <c r="AU148" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="187" spans="33:33">
-      <c r="AG187" t="s">
+    <row r="149" spans="47:47">
+      <c r="AU149" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="188" spans="33:33">
-      <c r="AG188" t="s">
+    <row r="150" spans="47:47">
+      <c r="AU150" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="189" spans="33:33">
-      <c r="AG189" t="s">
+    <row r="151" spans="47:47">
+      <c r="AU151" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="190" spans="33:33">
-      <c r="AG190" t="s">
+    <row r="152" spans="47:47">
+      <c r="AU152" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="191" spans="33:33">
-      <c r="AG191" t="s">
+    <row r="153" spans="47:47">
+      <c r="AU153" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="192" spans="33:33">
-      <c r="AG192" t="s">
+    <row r="154" spans="47:47">
+      <c r="AU154" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="193" spans="33:33">
-      <c r="AG193" t="s">
+    <row r="155" spans="47:47">
+      <c r="AU155" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="194" spans="33:33">
-      <c r="AG194" t="s">
+    <row r="156" spans="47:47">
+      <c r="AU156" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="195" spans="33:33">
-      <c r="AG195" t="s">
+    <row r="157" spans="47:47">
+      <c r="AU157" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="196" spans="33:33">
-      <c r="AG196" t="s">
+    <row r="158" spans="47:47">
+      <c r="AU158" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="197" spans="33:33">
-      <c r="AG197" t="s">
+    <row r="159" spans="47:47">
+      <c r="AU159" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="198" spans="33:33">
-      <c r="AG198" t="s">
+    <row r="160" spans="47:47">
+      <c r="AU160" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="199" spans="33:33">
-      <c r="AG199" t="s">
+    <row r="161" spans="47:47">
+      <c r="AU161" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="200" spans="33:33">
-      <c r="AG200" t="s">
+    <row r="162" spans="47:47">
+      <c r="AU162" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="201" spans="33:33">
-      <c r="AG201" t="s">
+    <row r="163" spans="47:47">
+      <c r="AU163" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="202" spans="33:33">
-      <c r="AG202" t="s">
+    <row r="164" spans="47:47">
+      <c r="AU164" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="203" spans="33:33">
-      <c r="AG203" t="s">
+    <row r="165" spans="47:47">
+      <c r="AU165" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="204" spans="33:33">
-      <c r="AG204" t="s">
+    <row r="166" spans="47:47">
+      <c r="AU166" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="205" spans="33:33">
-      <c r="AG205" t="s">
+    <row r="167" spans="47:47">
+      <c r="AU167" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="206" spans="33:33">
-      <c r="AG206" t="s">
+    <row r="168" spans="47:47">
+      <c r="AU168" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="207" spans="33:33">
-      <c r="AG207" t="s">
+    <row r="169" spans="47:47">
+      <c r="AU169" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="208" spans="33:33">
-      <c r="AG208" t="s">
+    <row r="170" spans="47:47">
+      <c r="AU170" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="209" spans="33:33">
-      <c r="AG209" t="s">
+    <row r="171" spans="47:47">
+      <c r="AU171" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="210" spans="33:33">
-      <c r="AG210" t="s">
+    <row r="172" spans="47:47">
+      <c r="AU172" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="211" spans="33:33">
-      <c r="AG211" t="s">
+    <row r="173" spans="47:47">
+      <c r="AU173" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="212" spans="33:33">
-      <c r="AG212" t="s">
+    <row r="174" spans="47:47">
+      <c r="AU174" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="213" spans="33:33">
-      <c r="AG213" t="s">
+    <row r="175" spans="47:47">
+      <c r="AU175" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="214" spans="33:33">
-      <c r="AG214" t="s">
+    <row r="176" spans="47:47">
+      <c r="AU176" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="215" spans="33:33">
-      <c r="AG215" t="s">
+    <row r="177" spans="47:47">
+      <c r="AU177" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="216" spans="33:33">
-      <c r="AG216" t="s">
+    <row r="178" spans="47:47">
+      <c r="AU178" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="217" spans="33:33">
-      <c r="AG217" t="s">
+    <row r="179" spans="47:47">
+      <c r="AU179" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="218" spans="33:33">
-      <c r="AG218" t="s">
+    <row r="180" spans="47:47">
+      <c r="AU180" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="219" spans="33:33">
-      <c r="AG219" t="s">
+    <row r="181" spans="47:47">
+      <c r="AU181" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="220" spans="33:33">
-      <c r="AG220" t="s">
+    <row r="182" spans="47:47">
+      <c r="AU182" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="221" spans="33:33">
-      <c r="AG221" t="s">
+    <row r="183" spans="47:47">
+      <c r="AU183" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="222" spans="33:33">
-      <c r="AG222" t="s">
+    <row r="184" spans="47:47">
+      <c r="AU184" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="223" spans="33:33">
-      <c r="AG223" t="s">
+    <row r="185" spans="47:47">
+      <c r="AU185" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="224" spans="33:33">
-      <c r="AG224" t="s">
+    <row r="186" spans="47:47">
+      <c r="AU186" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="225" spans="33:33">
-      <c r="AG225" t="s">
+    <row r="187" spans="47:47">
+      <c r="AU187" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="226" spans="33:33">
-      <c r="AG226" t="s">
+    <row r="188" spans="47:47">
+      <c r="AU188" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="227" spans="33:33">
-      <c r="AG227" t="s">
+    <row r="189" spans="47:47">
+      <c r="AU189" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="228" spans="33:33">
-      <c r="AG228" t="s">
+    <row r="190" spans="47:47">
+      <c r="AU190" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="229" spans="33:33">
-      <c r="AG229" t="s">
+    <row r="191" spans="47:47">
+      <c r="AU191" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="230" spans="33:33">
-      <c r="AG230" t="s">
+    <row r="192" spans="47:47">
+      <c r="AU192" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="231" spans="33:33">
-      <c r="AG231" t="s">
+    <row r="193" spans="47:47">
+      <c r="AU193" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="232" spans="33:33">
-      <c r="AG232" t="s">
+    <row r="194" spans="47:47">
+      <c r="AU194" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="233" spans="33:33">
-      <c r="AG233" t="s">
+    <row r="195" spans="47:47">
+      <c r="AU195" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="234" spans="33:33">
-      <c r="AG234" t="s">
+    <row r="196" spans="47:47">
+      <c r="AU196" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="235" spans="33:33">
-      <c r="AG235" t="s">
+    <row r="197" spans="47:47">
+      <c r="AU197" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="236" spans="33:33">
-      <c r="AG236" t="s">
+    <row r="198" spans="47:47">
+      <c r="AU198" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="237" spans="33:33">
-      <c r="AG237" t="s">
+    <row r="199" spans="47:47">
+      <c r="AU199" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="238" spans="33:33">
-      <c r="AG238" t="s">
+    <row r="200" spans="47:47">
+      <c r="AU200" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="239" spans="33:33">
-      <c r="AG239" t="s">
+    <row r="201" spans="47:47">
+      <c r="AU201" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="240" spans="33:33">
-      <c r="AG240" t="s">
+    <row r="202" spans="47:47">
+      <c r="AU202" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="241" spans="33:33">
-      <c r="AG241" t="s">
+    <row r="203" spans="47:47">
+      <c r="AU203" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="242" spans="33:33">
-      <c r="AG242" t="s">
+    <row r="204" spans="47:47">
+      <c r="AU204" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="243" spans="33:33">
-      <c r="AG243" t="s">
+    <row r="205" spans="47:47">
+      <c r="AU205" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="244" spans="33:33">
-      <c r="AG244" t="s">
+    <row r="206" spans="47:47">
+      <c r="AU206" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="245" spans="33:33">
-      <c r="AG245" t="s">
+    <row r="207" spans="47:47">
+      <c r="AU207" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="246" spans="33:33">
-      <c r="AG246" t="s">
+    <row r="208" spans="47:47">
+      <c r="AU208" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="247" spans="33:33">
-      <c r="AG247" t="s">
+    <row r="209" spans="47:47">
+      <c r="AU209" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="248" spans="33:33">
-      <c r="AG248" t="s">
+    <row r="210" spans="47:47">
+      <c r="AU210" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="249" spans="33:33">
-      <c r="AG249" t="s">
+    <row r="211" spans="47:47">
+      <c r="AU211" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="250" spans="33:33">
-      <c r="AG250" t="s">
+    <row r="212" spans="47:47">
+      <c r="AU212" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="251" spans="33:33">
-      <c r="AG251" t="s">
+    <row r="213" spans="47:47">
+      <c r="AU213" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="252" spans="33:33">
-      <c r="AG252" t="s">
+    <row r="214" spans="47:47">
+      <c r="AU214" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="253" spans="33:33">
-      <c r="AG253" t="s">
+    <row r="215" spans="47:47">
+      <c r="AU215" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="254" spans="33:33">
-      <c r="AG254" t="s">
+    <row r="216" spans="47:47">
+      <c r="AU216" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="255" spans="33:33">
-      <c r="AG255" t="s">
+    <row r="217" spans="47:47">
+      <c r="AU217" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="256" spans="33:33">
-      <c r="AG256" t="s">
+    <row r="218" spans="47:47">
+      <c r="AU218" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="257" spans="33:33">
-      <c r="AG257" t="s">
+    <row r="219" spans="47:47">
+      <c r="AU219" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="258" spans="33:33">
-      <c r="AG258" t="s">
+    <row r="220" spans="47:47">
+      <c r="AU220" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="259" spans="33:33">
-      <c r="AG259" t="s">
+    <row r="221" spans="47:47">
+      <c r="AU221" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="260" spans="33:33">
-      <c r="AG260" t="s">
+    <row r="222" spans="47:47">
+      <c r="AU222" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="261" spans="33:33">
-      <c r="AG261" t="s">
+    <row r="223" spans="47:47">
+      <c r="AU223" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="262" spans="33:33">
-      <c r="AG262" t="s">
+    <row r="224" spans="47:47">
+      <c r="AU224" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="263" spans="33:33">
-      <c r="AG263" t="s">
+    <row r="225" spans="47:47">
+      <c r="AU225" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="264" spans="33:33">
-      <c r="AG264" t="s">
+    <row r="226" spans="47:47">
+      <c r="AU226" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="265" spans="33:33">
-      <c r="AG265" t="s">
+    <row r="227" spans="47:47">
+      <c r="AU227" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="266" spans="33:33">
-      <c r="AG266" t="s">
+    <row r="228" spans="47:47">
+      <c r="AU228" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="267" spans="33:33">
-      <c r="AG267" t="s">
+    <row r="229" spans="47:47">
+      <c r="AU229" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="268" spans="33:33">
-      <c r="AG268" t="s">
+    <row r="230" spans="47:47">
+      <c r="AU230" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="269" spans="33:33">
-      <c r="AG269" t="s">
+    <row r="231" spans="47:47">
+      <c r="AU231" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="270" spans="33:33">
-      <c r="AG270" t="s">
+    <row r="232" spans="47:47">
+      <c r="AU232" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="271" spans="33:33">
-      <c r="AG271" t="s">
+    <row r="233" spans="47:47">
+      <c r="AU233" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="272" spans="33:33">
-      <c r="AG272" t="s">
+    <row r="234" spans="47:47">
+      <c r="AU234" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="273" spans="33:33">
-      <c r="AG273" t="s">
+    <row r="235" spans="47:47">
+      <c r="AU235" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="274" spans="33:33">
-      <c r="AG274" t="s">
+    <row r="236" spans="47:47">
+      <c r="AU236" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="275" spans="33:33">
-      <c r="AG275" t="s">
+    <row r="237" spans="47:47">
+      <c r="AU237" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="276" spans="33:33">
-      <c r="AG276" t="s">
+    <row r="238" spans="47:47">
+      <c r="AU238" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="277" spans="33:33">
-      <c r="AG277" t="s">
+    <row r="239" spans="47:47">
+      <c r="AU239" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="278" spans="33:33">
-      <c r="AG278" t="s">
+    <row r="240" spans="47:47">
+      <c r="AU240" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="279" spans="33:33">
-      <c r="AG279" t="s">
+    <row r="241" spans="47:47">
+      <c r="AU241" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="280" spans="33:33">
-      <c r="AG280" t="s">
+    <row r="242" spans="47:47">
+      <c r="AU242" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="281" spans="33:33">
-      <c r="AG281" t="s">
+    <row r="243" spans="47:47">
+      <c r="AU243" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="282" spans="33:33">
-      <c r="AG282" t="s">
+    <row r="244" spans="47:47">
+      <c r="AU244" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="283" spans="33:33">
-      <c r="AG283" t="s">
+    <row r="245" spans="47:47">
+      <c r="AU245" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="284" spans="33:33">
-      <c r="AG284" t="s">
+    <row r="246" spans="47:47">
+      <c r="AU246" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="285" spans="33:33">
-      <c r="AG285" t="s">
+    <row r="247" spans="47:47">
+      <c r="AU247" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="286" spans="33:33">
-      <c r="AG286" t="s">
+    <row r="248" spans="47:47">
+      <c r="AU248" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="287" spans="33:33">
-      <c r="AG287" t="s">
+    <row r="249" spans="47:47">
+      <c r="AU249" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="288" spans="33:33">
-      <c r="AG288" t="s">
+    <row r="250" spans="47:47">
+      <c r="AU250" t="s">
         <v>661</v>
+      </c>
+    </row>
+    <row r="251" spans="47:47">
+      <c r="AU251" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="252" spans="47:47">
+      <c r="AU252" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="253" spans="47:47">
+      <c r="AU253" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="254" spans="47:47">
+      <c r="AU254" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="255" spans="47:47">
+      <c r="AU255" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="256" spans="47:47">
+      <c r="AU256" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="257" spans="47:47">
+      <c r="AU257" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="258" spans="47:47">
+      <c r="AU258" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="259" spans="47:47">
+      <c r="AU259" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="260" spans="47:47">
+      <c r="AU260" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="261" spans="47:47">
+      <c r="AU261" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="262" spans="47:47">
+      <c r="AU262" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="263" spans="47:47">
+      <c r="AU263" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="264" spans="47:47">
+      <c r="AU264" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="265" spans="47:47">
+      <c r="AU265" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="266" spans="47:47">
+      <c r="AU266" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="267" spans="47:47">
+      <c r="AU267" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="268" spans="47:47">
+      <c r="AU268" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="269" spans="47:47">
+      <c r="AU269" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="270" spans="47:47">
+      <c r="AU270" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="271" spans="47:47">
+      <c r="AU271" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="272" spans="47:47">
+      <c r="AU272" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="273" spans="47:47">
+      <c r="AU273" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="274" spans="47:47">
+      <c r="AU274" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="275" spans="47:47">
+      <c r="AU275" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="276" spans="47:47">
+      <c r="AU276" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="277" spans="47:47">
+      <c r="AU277" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="278" spans="47:47">
+      <c r="AU278" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="279" spans="47:47">
+      <c r="AU279" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="280" spans="47:47">
+      <c r="AU280" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="281" spans="47:47">
+      <c r="AU281" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="282" spans="47:47">
+      <c r="AU282" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="283" spans="47:47">
+      <c r="AU283" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="284" spans="47:47">
+      <c r="AU284" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="285" spans="47:47">
+      <c r="AU285" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="286" spans="47:47">
+      <c r="AU286" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="287" spans="47:47">
+      <c r="AU287" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="288" spans="47:47">
+      <c r="AU288" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="289" spans="47:47">
+      <c r="AU289" t="s">
+        <v>700</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000020/metadata_template_ERC000020.xlsx
+++ b/templates/ERC000020/metadata_template_ERC000020.xlsx
@@ -21,7 +21,7 @@
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AU$1:$AU$289</definedName>
     <definedName name="growthfacility">'cv_sample'!$O$1:$O$6</definedName>
     <definedName name="growthhabit">'cv_sample'!$AQ$1:$AQ$4</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="868">
   <si>
     <t>alias</t>
   </si>
@@ -642,6 +642,9 @@
   </si>
   <si>
     <t>Illumina NovaSeq X</t>
+  </si>
+  <si>
+    <t>Illumina NovaSeq X Plus</t>
   </si>
   <si>
     <t>Illumina iSeq 100</t>
@@ -3178,7 +3181,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -3222,7 +3225,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -3249,7 +3252,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N83"/>
+  <dimension ref="G1:N84"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3961,6 +3964,11 @@
     </row>
     <row r="83" spans="14:14">
       <c r="N83" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="84" spans="14:14">
+      <c r="N84" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3985,27 +3993,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -4028,122 +4036,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -4170,774 +4178,774 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="DN1" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="DO1" s="1" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="DP1" s="1" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="DQ1" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="DR1" s="1" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="DS1" s="1" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="DT1" s="1" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="DU1" s="1" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="DV1" s="1" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="DW1" s="1" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="DX1" s="1" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="DY1" s="1" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="2" spans="1:129" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="DJ2" s="2" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="DK2" s="2" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="DL2" s="2" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="DM2" s="2" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="DN2" s="2" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="DO2" s="2" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="DP2" s="2" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="DQ2" s="2" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="DR2" s="2" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="DS2" s="2" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="DT2" s="2" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="DU2" s="2" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="DV2" s="2" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="DW2" s="2" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="DX2" s="2" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="DY2" s="2" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
   </sheetData>
@@ -4984,1639 +4992,1639 @@
   <sheetData>
     <row r="1" spans="5:47">
       <c r="E1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AA1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AP1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AQ1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AU1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="2" spans="5:47">
       <c r="E2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AA2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AP2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AQ2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AU2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3" spans="5:47">
       <c r="E3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AA3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AP3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AQ3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AU3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="4" spans="5:47">
       <c r="E4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AP4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AQ4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AU4" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="5" spans="5:47">
       <c r="E5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AP5" t="s">
         <v>116</v>
       </c>
       <c r="AU5" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="6" spans="5:47">
       <c r="E6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O6" t="s">
         <v>116</v>
       </c>
       <c r="AP6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AU6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="7" spans="5:47">
       <c r="E7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AP7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AU7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="8" spans="5:47">
       <c r="E8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AU8" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="9" spans="5:47">
       <c r="E9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AU9" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="10" spans="5:47">
       <c r="E10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AU10" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="11" spans="5:47">
       <c r="E11" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AU11" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="12" spans="5:47">
       <c r="E12" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AU12" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="13" spans="5:47">
       <c r="E13" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AU13" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="14" spans="5:47">
       <c r="E14" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AU14" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="15" spans="5:47">
       <c r="E15" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AU15" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="16" spans="5:47">
       <c r="E16" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AU16" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="17" spans="5:47">
       <c r="E17" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AU17" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="18" spans="5:47">
       <c r="E18" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AU18" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="19" spans="5:47">
       <c r="E19" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AU19" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="20" spans="5:47">
       <c r="E20" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AU20" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="21" spans="5:47">
       <c r="E21" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AU21" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="22" spans="5:47">
       <c r="E22" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AU22" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="5:47">
       <c r="E23" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AU23" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="24" spans="5:47">
       <c r="E24" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AU24" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="25" spans="5:47">
       <c r="E25" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AU25" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="26" spans="5:47">
       <c r="E26" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AU26" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="27" spans="5:47">
       <c r="E27" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AU27" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="28" spans="5:47">
       <c r="E28" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AU28" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="29" spans="5:47">
       <c r="E29" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AU29" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="30" spans="5:47">
       <c r="E30" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AU30" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="31" spans="5:47">
       <c r="AU31" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="32" spans="5:47">
       <c r="AU32" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="33" spans="47:47">
       <c r="AU33" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="34" spans="47:47">
       <c r="AU34" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="35" spans="47:47">
       <c r="AU35" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="36" spans="47:47">
       <c r="AU36" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="37" spans="47:47">
       <c r="AU37" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="38" spans="47:47">
       <c r="AU38" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="39" spans="47:47">
       <c r="AU39" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="40" spans="47:47">
       <c r="AU40" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="41" spans="47:47">
       <c r="AU41" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="42" spans="47:47">
       <c r="AU42" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="43" spans="47:47">
       <c r="AU43" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="44" spans="47:47">
       <c r="AU44" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="45" spans="47:47">
       <c r="AU45" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="46" spans="47:47">
       <c r="AU46" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="47" spans="47:47">
       <c r="AU47" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="48" spans="47:47">
       <c r="AU48" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="49" spans="47:47">
       <c r="AU49" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="50" spans="47:47">
       <c r="AU50" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="51" spans="47:47">
       <c r="AU51" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="52" spans="47:47">
       <c r="AU52" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="53" spans="47:47">
       <c r="AU53" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="54" spans="47:47">
       <c r="AU54" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="55" spans="47:47">
       <c r="AU55" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="56" spans="47:47">
       <c r="AU56" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="57" spans="47:47">
       <c r="AU57" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="58" spans="47:47">
       <c r="AU58" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="59" spans="47:47">
       <c r="AU59" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="60" spans="47:47">
       <c r="AU60" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="61" spans="47:47">
       <c r="AU61" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="62" spans="47:47">
       <c r="AU62" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="63" spans="47:47">
       <c r="AU63" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="64" spans="47:47">
       <c r="AU64" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="65" spans="47:47">
       <c r="AU65" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="66" spans="47:47">
       <c r="AU66" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="67" spans="47:47">
       <c r="AU67" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="68" spans="47:47">
       <c r="AU68" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="69" spans="47:47">
       <c r="AU69" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="70" spans="47:47">
       <c r="AU70" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="71" spans="47:47">
       <c r="AU71" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="72" spans="47:47">
       <c r="AU72" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="73" spans="47:47">
       <c r="AU73" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="74" spans="47:47">
       <c r="AU74" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="75" spans="47:47">
       <c r="AU75" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="76" spans="47:47">
       <c r="AU76" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="77" spans="47:47">
       <c r="AU77" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="78" spans="47:47">
       <c r="AU78" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="79" spans="47:47">
       <c r="AU79" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="80" spans="47:47">
       <c r="AU80" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="81" spans="47:47">
       <c r="AU81" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="82" spans="47:47">
       <c r="AU82" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="83" spans="47:47">
       <c r="AU83" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="84" spans="47:47">
       <c r="AU84" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="85" spans="47:47">
       <c r="AU85" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="86" spans="47:47">
       <c r="AU86" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="87" spans="47:47">
       <c r="AU87" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="88" spans="47:47">
       <c r="AU88" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="89" spans="47:47">
       <c r="AU89" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="90" spans="47:47">
       <c r="AU90" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="91" spans="47:47">
       <c r="AU91" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="92" spans="47:47">
       <c r="AU92" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="93" spans="47:47">
       <c r="AU93" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="94" spans="47:47">
       <c r="AU94" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="95" spans="47:47">
       <c r="AU95" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="96" spans="47:47">
       <c r="AU96" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="97" spans="47:47">
       <c r="AU97" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="98" spans="47:47">
       <c r="AU98" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="99" spans="47:47">
       <c r="AU99" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="100" spans="47:47">
       <c r="AU100" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="101" spans="47:47">
       <c r="AU101" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="102" spans="47:47">
       <c r="AU102" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="103" spans="47:47">
       <c r="AU103" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="104" spans="47:47">
       <c r="AU104" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="105" spans="47:47">
       <c r="AU105" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="106" spans="47:47">
       <c r="AU106" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="107" spans="47:47">
       <c r="AU107" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="108" spans="47:47">
       <c r="AU108" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="109" spans="47:47">
       <c r="AU109" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="110" spans="47:47">
       <c r="AU110" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="111" spans="47:47">
       <c r="AU111" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="112" spans="47:47">
       <c r="AU112" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="113" spans="47:47">
       <c r="AU113" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="114" spans="47:47">
       <c r="AU114" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="115" spans="47:47">
       <c r="AU115" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="116" spans="47:47">
       <c r="AU116" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="117" spans="47:47">
       <c r="AU117" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="118" spans="47:47">
       <c r="AU118" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="119" spans="47:47">
       <c r="AU119" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="120" spans="47:47">
       <c r="AU120" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="121" spans="47:47">
       <c r="AU121" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="122" spans="47:47">
       <c r="AU122" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="123" spans="47:47">
       <c r="AU123" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="124" spans="47:47">
       <c r="AU124" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="125" spans="47:47">
       <c r="AU125" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="126" spans="47:47">
       <c r="AU126" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="127" spans="47:47">
       <c r="AU127" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="128" spans="47:47">
       <c r="AU128" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="129" spans="47:47">
       <c r="AU129" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="130" spans="47:47">
       <c r="AU130" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="131" spans="47:47">
       <c r="AU131" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="132" spans="47:47">
       <c r="AU132" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="133" spans="47:47">
       <c r="AU133" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="134" spans="47:47">
       <c r="AU134" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="135" spans="47:47">
       <c r="AU135" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="136" spans="47:47">
       <c r="AU136" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="137" spans="47:47">
       <c r="AU137" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="138" spans="47:47">
       <c r="AU138" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="139" spans="47:47">
       <c r="AU139" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="140" spans="47:47">
       <c r="AU140" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="141" spans="47:47">
       <c r="AU141" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="142" spans="47:47">
       <c r="AU142" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="143" spans="47:47">
       <c r="AU143" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="144" spans="47:47">
       <c r="AU144" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="145" spans="47:47">
       <c r="AU145" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="146" spans="47:47">
       <c r="AU146" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="147" spans="47:47">
       <c r="AU147" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="148" spans="47:47">
       <c r="AU148" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="149" spans="47:47">
       <c r="AU149" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="150" spans="47:47">
       <c r="AU150" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="151" spans="47:47">
       <c r="AU151" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="152" spans="47:47">
       <c r="AU152" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="153" spans="47:47">
       <c r="AU153" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="154" spans="47:47">
       <c r="AU154" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="155" spans="47:47">
       <c r="AU155" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="156" spans="47:47">
       <c r="AU156" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="157" spans="47:47">
       <c r="AU157" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="158" spans="47:47">
       <c r="AU158" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="159" spans="47:47">
       <c r="AU159" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="160" spans="47:47">
       <c r="AU160" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="161" spans="47:47">
       <c r="AU161" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="162" spans="47:47">
       <c r="AU162" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="163" spans="47:47">
       <c r="AU163" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="164" spans="47:47">
       <c r="AU164" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="165" spans="47:47">
       <c r="AU165" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="166" spans="47:47">
       <c r="AU166" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="167" spans="47:47">
       <c r="AU167" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="168" spans="47:47">
       <c r="AU168" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="169" spans="47:47">
       <c r="AU169" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="170" spans="47:47">
       <c r="AU170" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="171" spans="47:47">
       <c r="AU171" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="172" spans="47:47">
       <c r="AU172" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="173" spans="47:47">
       <c r="AU173" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="174" spans="47:47">
       <c r="AU174" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="175" spans="47:47">
       <c r="AU175" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="176" spans="47:47">
       <c r="AU176" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="177" spans="47:47">
       <c r="AU177" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="178" spans="47:47">
       <c r="AU178" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="179" spans="47:47">
       <c r="AU179" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="180" spans="47:47">
       <c r="AU180" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="181" spans="47:47">
       <c r="AU181" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="182" spans="47:47">
       <c r="AU182" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="183" spans="47:47">
       <c r="AU183" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="184" spans="47:47">
       <c r="AU184" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="185" spans="47:47">
       <c r="AU185" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="186" spans="47:47">
       <c r="AU186" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="187" spans="47:47">
       <c r="AU187" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="188" spans="47:47">
       <c r="AU188" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="189" spans="47:47">
       <c r="AU189" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="190" spans="47:47">
       <c r="AU190" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="191" spans="47:47">
       <c r="AU191" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="192" spans="47:47">
       <c r="AU192" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="193" spans="47:47">
       <c r="AU193" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="194" spans="47:47">
       <c r="AU194" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="195" spans="47:47">
       <c r="AU195" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="196" spans="47:47">
       <c r="AU196" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="197" spans="47:47">
       <c r="AU197" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="198" spans="47:47">
       <c r="AU198" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="199" spans="47:47">
       <c r="AU199" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="200" spans="47:47">
       <c r="AU200" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="201" spans="47:47">
       <c r="AU201" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="202" spans="47:47">
       <c r="AU202" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="203" spans="47:47">
       <c r="AU203" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="204" spans="47:47">
       <c r="AU204" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="205" spans="47:47">
       <c r="AU205" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="206" spans="47:47">
       <c r="AU206" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="207" spans="47:47">
       <c r="AU207" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="208" spans="47:47">
       <c r="AU208" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="209" spans="47:47">
       <c r="AU209" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="210" spans="47:47">
       <c r="AU210" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="211" spans="47:47">
       <c r="AU211" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="212" spans="47:47">
       <c r="AU212" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="213" spans="47:47">
       <c r="AU213" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="214" spans="47:47">
       <c r="AU214" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="215" spans="47:47">
       <c r="AU215" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="216" spans="47:47">
       <c r="AU216" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="217" spans="47:47">
       <c r="AU217" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="218" spans="47:47">
       <c r="AU218" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="219" spans="47:47">
       <c r="AU219" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="220" spans="47:47">
       <c r="AU220" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="221" spans="47:47">
       <c r="AU221" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="222" spans="47:47">
       <c r="AU222" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="223" spans="47:47">
       <c r="AU223" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="224" spans="47:47">
       <c r="AU224" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="225" spans="47:47">
       <c r="AU225" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="226" spans="47:47">
       <c r="AU226" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="227" spans="47:47">
       <c r="AU227" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="228" spans="47:47">
       <c r="AU228" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="229" spans="47:47">
       <c r="AU229" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="230" spans="47:47">
       <c r="AU230" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="231" spans="47:47">
       <c r="AU231" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="232" spans="47:47">
       <c r="AU232" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="233" spans="47:47">
       <c r="AU233" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="234" spans="47:47">
       <c r="AU234" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="235" spans="47:47">
       <c r="AU235" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="236" spans="47:47">
       <c r="AU236" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="237" spans="47:47">
       <c r="AU237" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="238" spans="47:47">
       <c r="AU238" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="239" spans="47:47">
       <c r="AU239" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="240" spans="47:47">
       <c r="AU240" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="241" spans="47:47">
       <c r="AU241" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="242" spans="47:47">
       <c r="AU242" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="243" spans="47:47">
       <c r="AU243" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="244" spans="47:47">
       <c r="AU244" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="245" spans="47:47">
       <c r="AU245" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="246" spans="47:47">
       <c r="AU246" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="247" spans="47:47">
       <c r="AU247" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="248" spans="47:47">
       <c r="AU248" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="249" spans="47:47">
       <c r="AU249" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="250" spans="47:47">
       <c r="AU250" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="251" spans="47:47">
       <c r="AU251" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="252" spans="47:47">
       <c r="AU252" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="253" spans="47:47">
       <c r="AU253" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="254" spans="47:47">
       <c r="AU254" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="255" spans="47:47">
       <c r="AU255" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="256" spans="47:47">
       <c r="AU256" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="257" spans="47:47">
       <c r="AU257" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="258" spans="47:47">
       <c r="AU258" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="259" spans="47:47">
       <c r="AU259" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="260" spans="47:47">
       <c r="AU260" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="261" spans="47:47">
       <c r="AU261" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="262" spans="47:47">
       <c r="AU262" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="263" spans="47:47">
       <c r="AU263" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="264" spans="47:47">
       <c r="AU264" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="265" spans="47:47">
       <c r="AU265" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="266" spans="47:47">
       <c r="AU266" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="267" spans="47:47">
       <c r="AU267" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="268" spans="47:47">
       <c r="AU268" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="269" spans="47:47">
       <c r="AU269" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="270" spans="47:47">
       <c r="AU270" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="271" spans="47:47">
       <c r="AU271" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="272" spans="47:47">
       <c r="AU272" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="273" spans="47:47">
       <c r="AU273" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="274" spans="47:47">
       <c r="AU274" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="275" spans="47:47">
       <c r="AU275" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="276" spans="47:47">
       <c r="AU276" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="277" spans="47:47">
       <c r="AU277" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="278" spans="47:47">
       <c r="AU278" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="279" spans="47:47">
       <c r="AU279" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="280" spans="47:47">
       <c r="AU280" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="281" spans="47:47">
       <c r="AU281" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="282" spans="47:47">
       <c r="AU282" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="283" spans="47:47">
       <c r="AU283" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="284" spans="47:47">
       <c r="AU284" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="285" spans="47:47">
       <c r="AU285" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="286" spans="47:47">
       <c r="AU286" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="287" spans="47:47">
       <c r="AU287" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="288" spans="47:47">
       <c r="AU288" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="289" spans="47:47">
       <c r="AU289" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000020/metadata_template_ERC000020.xlsx
+++ b/templates/ERC000020/metadata_template_ERC000020.xlsx
@@ -21,7 +21,7 @@
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AU$1:$AU$289</definedName>
     <definedName name="growthfacility">'cv_sample'!$O$1:$O$6</definedName>
     <definedName name="growthhabit">'cv_sample'!$AQ$1:$AQ$4</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="869">
   <si>
     <t>alias</t>
   </si>
@@ -561,6 +561,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-T10x4RS</t>
   </si>
   <si>
     <t>DNBSEQ-T7</t>
@@ -3181,7 +3184,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -3225,7 +3228,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -3252,7 +3255,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N84"/>
+  <dimension ref="G1:N85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3969,6 +3972,11 @@
     </row>
     <row r="84" spans="14:14">
       <c r="N84" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="85" spans="14:14">
+      <c r="N85" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3993,27 +4001,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -4036,122 +4044,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -4178,774 +4186,774 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="DN1" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="DO1" s="1" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="DP1" s="1" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="DQ1" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="DR1" s="1" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="DS1" s="1" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="DT1" s="1" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="DU1" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="DV1" s="1" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="DW1" s="1" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="DX1" s="1" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="DY1" s="1" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="2" spans="1:129" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="DJ2" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="DK2" s="2" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="DL2" s="2" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="DM2" s="2" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="DN2" s="2" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="DO2" s="2" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="DP2" s="2" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="DQ2" s="2" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="DR2" s="2" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="DS2" s="2" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="DT2" s="2" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="DU2" s="2" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="DV2" s="2" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="DW2" s="2" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="DX2" s="2" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="DY2" s="2" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
   </sheetData>
@@ -4992,1639 +5000,1639 @@
   <sheetData>
     <row r="1" spans="5:47">
       <c r="E1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AA1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AP1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AQ1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AU1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="2" spans="5:47">
       <c r="E2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AA2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AP2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AQ2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AU2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="3" spans="5:47">
       <c r="E3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AA3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AP3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AQ3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AU3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="4" spans="5:47">
       <c r="E4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AP4" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AQ4" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AU4" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="5" spans="5:47">
       <c r="E5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AP5" t="s">
         <v>116</v>
       </c>
       <c r="AU5" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="6" spans="5:47">
       <c r="E6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H6" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O6" t="s">
         <v>116</v>
       </c>
       <c r="AP6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AU6" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="7" spans="5:47">
       <c r="E7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AP7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AU7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="5:47">
       <c r="E8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AU8" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="9" spans="5:47">
       <c r="E9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AU9" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="10" spans="5:47">
       <c r="E10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AU10" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="11" spans="5:47">
       <c r="E11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AU11" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="12" spans="5:47">
       <c r="E12" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AU12" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="13" spans="5:47">
       <c r="E13" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AU13" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="14" spans="5:47">
       <c r="E14" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AU14" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="15" spans="5:47">
       <c r="E15" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AU15" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="16" spans="5:47">
       <c r="E16" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AU16" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="17" spans="5:47">
       <c r="E17" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AU17" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="18" spans="5:47">
       <c r="E18" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AU18" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="19" spans="5:47">
       <c r="E19" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AU19" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="20" spans="5:47">
       <c r="E20" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AU20" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="21" spans="5:47">
       <c r="E21" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AU21" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="22" spans="5:47">
       <c r="E22" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AU22" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="5:47">
       <c r="E23" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AU23" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="24" spans="5:47">
       <c r="E24" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AU24" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="25" spans="5:47">
       <c r="E25" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AU25" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="26" spans="5:47">
       <c r="E26" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AU26" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="27" spans="5:47">
       <c r="E27" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AU27" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="28" spans="5:47">
       <c r="E28" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AU28" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="29" spans="5:47">
       <c r="E29" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AU29" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="30" spans="5:47">
       <c r="E30" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AU30" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="31" spans="5:47">
       <c r="AU31" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="32" spans="5:47">
       <c r="AU32" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="33" spans="47:47">
       <c r="AU33" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="34" spans="47:47">
       <c r="AU34" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="35" spans="47:47">
       <c r="AU35" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="36" spans="47:47">
       <c r="AU36" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="37" spans="47:47">
       <c r="AU37" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="38" spans="47:47">
       <c r="AU38" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="39" spans="47:47">
       <c r="AU39" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="40" spans="47:47">
       <c r="AU40" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="41" spans="47:47">
       <c r="AU41" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="42" spans="47:47">
       <c r="AU42" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="43" spans="47:47">
       <c r="AU43" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="44" spans="47:47">
       <c r="AU44" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="45" spans="47:47">
       <c r="AU45" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="46" spans="47:47">
       <c r="AU46" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="47" spans="47:47">
       <c r="AU47" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="48" spans="47:47">
       <c r="AU48" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="49" spans="47:47">
       <c r="AU49" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="50" spans="47:47">
       <c r="AU50" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="51" spans="47:47">
       <c r="AU51" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="52" spans="47:47">
       <c r="AU52" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="53" spans="47:47">
       <c r="AU53" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="54" spans="47:47">
       <c r="AU54" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="55" spans="47:47">
       <c r="AU55" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="56" spans="47:47">
       <c r="AU56" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="57" spans="47:47">
       <c r="AU57" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="58" spans="47:47">
       <c r="AU58" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="59" spans="47:47">
       <c r="AU59" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="60" spans="47:47">
       <c r="AU60" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="61" spans="47:47">
       <c r="AU61" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="62" spans="47:47">
       <c r="AU62" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="63" spans="47:47">
       <c r="AU63" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="64" spans="47:47">
       <c r="AU64" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="65" spans="47:47">
       <c r="AU65" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="66" spans="47:47">
       <c r="AU66" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="67" spans="47:47">
       <c r="AU67" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="68" spans="47:47">
       <c r="AU68" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="69" spans="47:47">
       <c r="AU69" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="70" spans="47:47">
       <c r="AU70" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="71" spans="47:47">
       <c r="AU71" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="72" spans="47:47">
       <c r="AU72" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="73" spans="47:47">
       <c r="AU73" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="74" spans="47:47">
       <c r="AU74" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="75" spans="47:47">
       <c r="AU75" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="76" spans="47:47">
       <c r="AU76" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="77" spans="47:47">
       <c r="AU77" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="78" spans="47:47">
       <c r="AU78" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="79" spans="47:47">
       <c r="AU79" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="80" spans="47:47">
       <c r="AU80" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="81" spans="47:47">
       <c r="AU81" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="82" spans="47:47">
       <c r="AU82" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="83" spans="47:47">
       <c r="AU83" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="84" spans="47:47">
       <c r="AU84" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="85" spans="47:47">
       <c r="AU85" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="86" spans="47:47">
       <c r="AU86" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="87" spans="47:47">
       <c r="AU87" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="88" spans="47:47">
       <c r="AU88" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="89" spans="47:47">
       <c r="AU89" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="90" spans="47:47">
       <c r="AU90" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="91" spans="47:47">
       <c r="AU91" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="92" spans="47:47">
       <c r="AU92" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="93" spans="47:47">
       <c r="AU93" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="94" spans="47:47">
       <c r="AU94" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="95" spans="47:47">
       <c r="AU95" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="96" spans="47:47">
       <c r="AU96" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="97" spans="47:47">
       <c r="AU97" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="98" spans="47:47">
       <c r="AU98" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="99" spans="47:47">
       <c r="AU99" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="100" spans="47:47">
       <c r="AU100" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="101" spans="47:47">
       <c r="AU101" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="102" spans="47:47">
       <c r="AU102" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="103" spans="47:47">
       <c r="AU103" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="104" spans="47:47">
       <c r="AU104" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="105" spans="47:47">
       <c r="AU105" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="106" spans="47:47">
       <c r="AU106" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="107" spans="47:47">
       <c r="AU107" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="108" spans="47:47">
       <c r="AU108" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="109" spans="47:47">
       <c r="AU109" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="110" spans="47:47">
       <c r="AU110" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="111" spans="47:47">
       <c r="AU111" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="112" spans="47:47">
       <c r="AU112" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="113" spans="47:47">
       <c r="AU113" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="114" spans="47:47">
       <c r="AU114" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="115" spans="47:47">
       <c r="AU115" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="116" spans="47:47">
       <c r="AU116" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="117" spans="47:47">
       <c r="AU117" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="118" spans="47:47">
       <c r="AU118" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="119" spans="47:47">
       <c r="AU119" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="120" spans="47:47">
       <c r="AU120" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="121" spans="47:47">
       <c r="AU121" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="122" spans="47:47">
       <c r="AU122" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="123" spans="47:47">
       <c r="AU123" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="124" spans="47:47">
       <c r="AU124" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="125" spans="47:47">
       <c r="AU125" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="126" spans="47:47">
       <c r="AU126" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="127" spans="47:47">
       <c r="AU127" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="128" spans="47:47">
       <c r="AU128" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="129" spans="47:47">
       <c r="AU129" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="130" spans="47:47">
       <c r="AU130" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="131" spans="47:47">
       <c r="AU131" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="132" spans="47:47">
       <c r="AU132" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="133" spans="47:47">
       <c r="AU133" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="134" spans="47:47">
       <c r="AU134" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="135" spans="47:47">
       <c r="AU135" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="136" spans="47:47">
       <c r="AU136" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="137" spans="47:47">
       <c r="AU137" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="138" spans="47:47">
       <c r="AU138" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="139" spans="47:47">
       <c r="AU139" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="140" spans="47:47">
       <c r="AU140" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="141" spans="47:47">
       <c r="AU141" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="142" spans="47:47">
       <c r="AU142" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="143" spans="47:47">
       <c r="AU143" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="144" spans="47:47">
       <c r="AU144" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="145" spans="47:47">
       <c r="AU145" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="146" spans="47:47">
       <c r="AU146" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="147" spans="47:47">
       <c r="AU147" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="148" spans="47:47">
       <c r="AU148" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="149" spans="47:47">
       <c r="AU149" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="150" spans="47:47">
       <c r="AU150" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="151" spans="47:47">
       <c r="AU151" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="152" spans="47:47">
       <c r="AU152" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="153" spans="47:47">
       <c r="AU153" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="154" spans="47:47">
       <c r="AU154" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="155" spans="47:47">
       <c r="AU155" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="156" spans="47:47">
       <c r="AU156" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="157" spans="47:47">
       <c r="AU157" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="158" spans="47:47">
       <c r="AU158" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="159" spans="47:47">
       <c r="AU159" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="160" spans="47:47">
       <c r="AU160" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="161" spans="47:47">
       <c r="AU161" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="162" spans="47:47">
       <c r="AU162" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="163" spans="47:47">
       <c r="AU163" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="164" spans="47:47">
       <c r="AU164" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="165" spans="47:47">
       <c r="AU165" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="166" spans="47:47">
       <c r="AU166" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="167" spans="47:47">
       <c r="AU167" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="168" spans="47:47">
       <c r="AU168" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="169" spans="47:47">
       <c r="AU169" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="170" spans="47:47">
       <c r="AU170" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="171" spans="47:47">
       <c r="AU171" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="172" spans="47:47">
       <c r="AU172" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="173" spans="47:47">
       <c r="AU173" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="174" spans="47:47">
       <c r="AU174" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="175" spans="47:47">
       <c r="AU175" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="176" spans="47:47">
       <c r="AU176" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="177" spans="47:47">
       <c r="AU177" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="178" spans="47:47">
       <c r="AU178" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="179" spans="47:47">
       <c r="AU179" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="180" spans="47:47">
       <c r="AU180" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="181" spans="47:47">
       <c r="AU181" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="182" spans="47:47">
       <c r="AU182" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="183" spans="47:47">
       <c r="AU183" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="184" spans="47:47">
       <c r="AU184" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="185" spans="47:47">
       <c r="AU185" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="186" spans="47:47">
       <c r="AU186" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="187" spans="47:47">
       <c r="AU187" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="188" spans="47:47">
       <c r="AU188" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="189" spans="47:47">
       <c r="AU189" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="190" spans="47:47">
       <c r="AU190" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="191" spans="47:47">
       <c r="AU191" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="192" spans="47:47">
       <c r="AU192" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="193" spans="47:47">
       <c r="AU193" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="194" spans="47:47">
       <c r="AU194" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="195" spans="47:47">
       <c r="AU195" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="196" spans="47:47">
       <c r="AU196" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="197" spans="47:47">
       <c r="AU197" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="198" spans="47:47">
       <c r="AU198" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="199" spans="47:47">
       <c r="AU199" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="200" spans="47:47">
       <c r="AU200" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="201" spans="47:47">
       <c r="AU201" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="202" spans="47:47">
       <c r="AU202" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="203" spans="47:47">
       <c r="AU203" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="204" spans="47:47">
       <c r="AU204" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="205" spans="47:47">
       <c r="AU205" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="206" spans="47:47">
       <c r="AU206" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="207" spans="47:47">
       <c r="AU207" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="208" spans="47:47">
       <c r="AU208" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="209" spans="47:47">
       <c r="AU209" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="210" spans="47:47">
       <c r="AU210" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="211" spans="47:47">
       <c r="AU211" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="212" spans="47:47">
       <c r="AU212" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="213" spans="47:47">
       <c r="AU213" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="214" spans="47:47">
       <c r="AU214" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="215" spans="47:47">
       <c r="AU215" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="216" spans="47:47">
       <c r="AU216" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="217" spans="47:47">
       <c r="AU217" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="218" spans="47:47">
       <c r="AU218" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="219" spans="47:47">
       <c r="AU219" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="220" spans="47:47">
       <c r="AU220" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="221" spans="47:47">
       <c r="AU221" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="222" spans="47:47">
       <c r="AU222" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="223" spans="47:47">
       <c r="AU223" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="224" spans="47:47">
       <c r="AU224" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="225" spans="47:47">
       <c r="AU225" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="226" spans="47:47">
       <c r="AU226" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="227" spans="47:47">
       <c r="AU227" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="228" spans="47:47">
       <c r="AU228" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="229" spans="47:47">
       <c r="AU229" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="230" spans="47:47">
       <c r="AU230" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="231" spans="47:47">
       <c r="AU231" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="232" spans="47:47">
       <c r="AU232" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="233" spans="47:47">
       <c r="AU233" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="234" spans="47:47">
       <c r="AU234" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="235" spans="47:47">
       <c r="AU235" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="236" spans="47:47">
       <c r="AU236" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="237" spans="47:47">
       <c r="AU237" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="238" spans="47:47">
       <c r="AU238" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="239" spans="47:47">
       <c r="AU239" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="240" spans="47:47">
       <c r="AU240" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="241" spans="47:47">
       <c r="AU241" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="242" spans="47:47">
       <c r="AU242" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="243" spans="47:47">
       <c r="AU243" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="244" spans="47:47">
       <c r="AU244" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="245" spans="47:47">
       <c r="AU245" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="246" spans="47:47">
       <c r="AU246" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="247" spans="47:47">
       <c r="AU247" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="248" spans="47:47">
       <c r="AU248" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="249" spans="47:47">
       <c r="AU249" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="250" spans="47:47">
       <c r="AU250" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="251" spans="47:47">
       <c r="AU251" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="252" spans="47:47">
       <c r="AU252" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="253" spans="47:47">
       <c r="AU253" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="254" spans="47:47">
       <c r="AU254" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="255" spans="47:47">
       <c r="AU255" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="256" spans="47:47">
       <c r="AU256" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="257" spans="47:47">
       <c r="AU257" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="258" spans="47:47">
       <c r="AU258" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="259" spans="47:47">
       <c r="AU259" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="260" spans="47:47">
       <c r="AU260" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="261" spans="47:47">
       <c r="AU261" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="262" spans="47:47">
       <c r="AU262" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="263" spans="47:47">
       <c r="AU263" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="264" spans="47:47">
       <c r="AU264" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="265" spans="47:47">
       <c r="AU265" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="266" spans="47:47">
       <c r="AU266" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="267" spans="47:47">
       <c r="AU267" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="268" spans="47:47">
       <c r="AU268" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="269" spans="47:47">
       <c r="AU269" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="270" spans="47:47">
       <c r="AU270" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="271" spans="47:47">
       <c r="AU271" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="272" spans="47:47">
       <c r="AU272" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="273" spans="47:47">
       <c r="AU273" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="274" spans="47:47">
       <c r="AU274" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="275" spans="47:47">
       <c r="AU275" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="276" spans="47:47">
       <c r="AU276" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="277" spans="47:47">
       <c r="AU277" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="278" spans="47:47">
       <c r="AU278" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="279" spans="47:47">
       <c r="AU279" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="280" spans="47:47">
       <c r="AU280" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="281" spans="47:47">
       <c r="AU281" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="282" spans="47:47">
       <c r="AU282" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="283" spans="47:47">
       <c r="AU283" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="284" spans="47:47">
       <c r="AU284" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="285" spans="47:47">
       <c r="AU285" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="286" spans="47:47">
       <c r="AU286" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="287" spans="47:47">
       <c r="AU287" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="288" spans="47:47">
       <c r="AU288" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="289" spans="47:47">
       <c r="AU289" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000020/metadata_template_ERC000020.xlsx
+++ b/templates/ERC000020/metadata_template_ERC000020.xlsx
@@ -21,7 +21,7 @@
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AU$1:$AU$289</definedName>
     <definedName name="growthfacility">'cv_sample'!$O$1:$O$6</definedName>
     <definedName name="growthhabit">'cv_sample'!$AQ$1:$AQ$4</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="870">
   <si>
     <t>alias</t>
   </si>
@@ -726,6 +726,9 @@
   </si>
   <si>
     <t>UG 100</t>
+  </si>
+  <si>
+    <t>Vega</t>
   </si>
   <si>
     <t>instrument_model</t>
@@ -3184,7 +3187,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -3228,7 +3231,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -3255,7 +3258,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N85"/>
+  <dimension ref="G1:N86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3977,6 +3980,11 @@
     </row>
     <row r="85" spans="14:14">
       <c r="N85" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="86" spans="14:14">
+      <c r="N86" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4001,27 +4009,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -4044,122 +4052,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -4186,774 +4194,774 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="DN1" s="1" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="DO1" s="1" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="DP1" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="DQ1" s="1" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="DR1" s="1" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="DS1" s="1" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="DT1" s="1" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="DU1" s="1" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="DV1" s="1" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="DW1" s="1" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="DX1" s="1" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="DY1" s="1" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="2" spans="1:129" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="DJ2" s="2" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="DK2" s="2" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="DL2" s="2" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="DM2" s="2" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="DN2" s="2" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="DO2" s="2" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="DP2" s="2" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="DQ2" s="2" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="DR2" s="2" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="DS2" s="2" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="DT2" s="2" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="DU2" s="2" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="DV2" s="2" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="DW2" s="2" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="DX2" s="2" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="DY2" s="2" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
   </sheetData>
@@ -5000,1639 +5008,1639 @@
   <sheetData>
     <row r="1" spans="5:47">
       <c r="E1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AA1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AP1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AQ1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AU1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="2" spans="5:47">
       <c r="E2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AA2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AP2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AQ2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AU2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="3" spans="5:47">
       <c r="E3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AA3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AP3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AQ3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AU3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="4" spans="5:47">
       <c r="E4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AP4" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AQ4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AU4" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="5" spans="5:47">
       <c r="E5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O5" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AP5" t="s">
         <v>116</v>
       </c>
       <c r="AU5" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="6" spans="5:47">
       <c r="E6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O6" t="s">
         <v>116</v>
       </c>
       <c r="AP6" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AU6" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7" spans="5:47">
       <c r="E7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AP7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AU7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="8" spans="5:47">
       <c r="E8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AU8" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="9" spans="5:47">
       <c r="E9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AU9" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="10" spans="5:47">
       <c r="E10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AU10" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="11" spans="5:47">
       <c r="E11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AU11" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="12" spans="5:47">
       <c r="E12" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AU12" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="13" spans="5:47">
       <c r="E13" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AU13" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="14" spans="5:47">
       <c r="E14" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AU14" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="15" spans="5:47">
       <c r="E15" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AU15" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="16" spans="5:47">
       <c r="E16" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AU16" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="17" spans="5:47">
       <c r="E17" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AU17" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="18" spans="5:47">
       <c r="E18" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AU18" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="19" spans="5:47">
       <c r="E19" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AU19" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="20" spans="5:47">
       <c r="E20" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AU20" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="21" spans="5:47">
       <c r="E21" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AU21" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="22" spans="5:47">
       <c r="E22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AU22" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="23" spans="5:47">
       <c r="E23" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AU23" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="24" spans="5:47">
       <c r="E24" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AU24" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="25" spans="5:47">
       <c r="E25" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AU25" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="26" spans="5:47">
       <c r="E26" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AU26" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="27" spans="5:47">
       <c r="E27" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AU27" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="28" spans="5:47">
       <c r="E28" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AU28" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="29" spans="5:47">
       <c r="E29" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AU29" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="30" spans="5:47">
       <c r="E30" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AU30" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="31" spans="5:47">
       <c r="AU31" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="32" spans="5:47">
       <c r="AU32" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="33" spans="47:47">
       <c r="AU33" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="34" spans="47:47">
       <c r="AU34" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="35" spans="47:47">
       <c r="AU35" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="36" spans="47:47">
       <c r="AU36" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="37" spans="47:47">
       <c r="AU37" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="38" spans="47:47">
       <c r="AU38" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="39" spans="47:47">
       <c r="AU39" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="40" spans="47:47">
       <c r="AU40" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="41" spans="47:47">
       <c r="AU41" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="42" spans="47:47">
       <c r="AU42" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="43" spans="47:47">
       <c r="AU43" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="44" spans="47:47">
       <c r="AU44" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="45" spans="47:47">
       <c r="AU45" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="46" spans="47:47">
       <c r="AU46" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="47" spans="47:47">
       <c r="AU47" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="48" spans="47:47">
       <c r="AU48" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="49" spans="47:47">
       <c r="AU49" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="50" spans="47:47">
       <c r="AU50" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="51" spans="47:47">
       <c r="AU51" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="52" spans="47:47">
       <c r="AU52" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="53" spans="47:47">
       <c r="AU53" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="54" spans="47:47">
       <c r="AU54" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="55" spans="47:47">
       <c r="AU55" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="56" spans="47:47">
       <c r="AU56" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="57" spans="47:47">
       <c r="AU57" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="58" spans="47:47">
       <c r="AU58" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="59" spans="47:47">
       <c r="AU59" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="60" spans="47:47">
       <c r="AU60" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="61" spans="47:47">
       <c r="AU61" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="62" spans="47:47">
       <c r="AU62" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="63" spans="47:47">
       <c r="AU63" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="64" spans="47:47">
       <c r="AU64" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="65" spans="47:47">
       <c r="AU65" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="66" spans="47:47">
       <c r="AU66" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="67" spans="47:47">
       <c r="AU67" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="68" spans="47:47">
       <c r="AU68" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="69" spans="47:47">
       <c r="AU69" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="70" spans="47:47">
       <c r="AU70" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="71" spans="47:47">
       <c r="AU71" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="72" spans="47:47">
       <c r="AU72" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="73" spans="47:47">
       <c r="AU73" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="74" spans="47:47">
       <c r="AU74" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="75" spans="47:47">
       <c r="AU75" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="76" spans="47:47">
       <c r="AU76" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="77" spans="47:47">
       <c r="AU77" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="78" spans="47:47">
       <c r="AU78" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="79" spans="47:47">
       <c r="AU79" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="80" spans="47:47">
       <c r="AU80" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="81" spans="47:47">
       <c r="AU81" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="82" spans="47:47">
       <c r="AU82" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="83" spans="47:47">
       <c r="AU83" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="84" spans="47:47">
       <c r="AU84" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="85" spans="47:47">
       <c r="AU85" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="86" spans="47:47">
       <c r="AU86" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="87" spans="47:47">
       <c r="AU87" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="88" spans="47:47">
       <c r="AU88" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="89" spans="47:47">
       <c r="AU89" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="90" spans="47:47">
       <c r="AU90" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="91" spans="47:47">
       <c r="AU91" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="92" spans="47:47">
       <c r="AU92" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="93" spans="47:47">
       <c r="AU93" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="94" spans="47:47">
       <c r="AU94" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="95" spans="47:47">
       <c r="AU95" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="96" spans="47:47">
       <c r="AU96" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="97" spans="47:47">
       <c r="AU97" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="98" spans="47:47">
       <c r="AU98" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="99" spans="47:47">
       <c r="AU99" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="100" spans="47:47">
       <c r="AU100" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="101" spans="47:47">
       <c r="AU101" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="102" spans="47:47">
       <c r="AU102" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="103" spans="47:47">
       <c r="AU103" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="104" spans="47:47">
       <c r="AU104" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="105" spans="47:47">
       <c r="AU105" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="106" spans="47:47">
       <c r="AU106" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="107" spans="47:47">
       <c r="AU107" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="108" spans="47:47">
       <c r="AU108" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="109" spans="47:47">
       <c r="AU109" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="110" spans="47:47">
       <c r="AU110" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="111" spans="47:47">
       <c r="AU111" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="112" spans="47:47">
       <c r="AU112" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="113" spans="47:47">
       <c r="AU113" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="114" spans="47:47">
       <c r="AU114" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="115" spans="47:47">
       <c r="AU115" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="116" spans="47:47">
       <c r="AU116" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="117" spans="47:47">
       <c r="AU117" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="118" spans="47:47">
       <c r="AU118" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="119" spans="47:47">
       <c r="AU119" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="120" spans="47:47">
       <c r="AU120" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="121" spans="47:47">
       <c r="AU121" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="122" spans="47:47">
       <c r="AU122" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="123" spans="47:47">
       <c r="AU123" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="124" spans="47:47">
       <c r="AU124" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="125" spans="47:47">
       <c r="AU125" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="126" spans="47:47">
       <c r="AU126" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="127" spans="47:47">
       <c r="AU127" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="128" spans="47:47">
       <c r="AU128" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="129" spans="47:47">
       <c r="AU129" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="130" spans="47:47">
       <c r="AU130" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="131" spans="47:47">
       <c r="AU131" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="132" spans="47:47">
       <c r="AU132" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="133" spans="47:47">
       <c r="AU133" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="134" spans="47:47">
       <c r="AU134" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="135" spans="47:47">
       <c r="AU135" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="136" spans="47:47">
       <c r="AU136" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="137" spans="47:47">
       <c r="AU137" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="138" spans="47:47">
       <c r="AU138" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="139" spans="47:47">
       <c r="AU139" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="140" spans="47:47">
       <c r="AU140" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="141" spans="47:47">
       <c r="AU141" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="142" spans="47:47">
       <c r="AU142" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="143" spans="47:47">
       <c r="AU143" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="144" spans="47:47">
       <c r="AU144" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="145" spans="47:47">
       <c r="AU145" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="146" spans="47:47">
       <c r="AU146" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="147" spans="47:47">
       <c r="AU147" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="148" spans="47:47">
       <c r="AU148" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="149" spans="47:47">
       <c r="AU149" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="150" spans="47:47">
       <c r="AU150" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="151" spans="47:47">
       <c r="AU151" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="152" spans="47:47">
       <c r="AU152" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="153" spans="47:47">
       <c r="AU153" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="154" spans="47:47">
       <c r="AU154" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="155" spans="47:47">
       <c r="AU155" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="156" spans="47:47">
       <c r="AU156" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="157" spans="47:47">
       <c r="AU157" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="158" spans="47:47">
       <c r="AU158" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="159" spans="47:47">
       <c r="AU159" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="160" spans="47:47">
       <c r="AU160" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="161" spans="47:47">
       <c r="AU161" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="162" spans="47:47">
       <c r="AU162" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="163" spans="47:47">
       <c r="AU163" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="164" spans="47:47">
       <c r="AU164" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="165" spans="47:47">
       <c r="AU165" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="166" spans="47:47">
       <c r="AU166" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="167" spans="47:47">
       <c r="AU167" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="168" spans="47:47">
       <c r="AU168" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="169" spans="47:47">
       <c r="AU169" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="170" spans="47:47">
       <c r="AU170" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="171" spans="47:47">
       <c r="AU171" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="172" spans="47:47">
       <c r="AU172" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="173" spans="47:47">
       <c r="AU173" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="174" spans="47:47">
       <c r="AU174" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="175" spans="47:47">
       <c r="AU175" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="176" spans="47:47">
       <c r="AU176" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="177" spans="47:47">
       <c r="AU177" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="178" spans="47:47">
       <c r="AU178" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="179" spans="47:47">
       <c r="AU179" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="180" spans="47:47">
       <c r="AU180" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="181" spans="47:47">
       <c r="AU181" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="182" spans="47:47">
       <c r="AU182" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="183" spans="47:47">
       <c r="AU183" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="184" spans="47:47">
       <c r="AU184" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="185" spans="47:47">
       <c r="AU185" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="186" spans="47:47">
       <c r="AU186" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="187" spans="47:47">
       <c r="AU187" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="188" spans="47:47">
       <c r="AU188" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="189" spans="47:47">
       <c r="AU189" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="190" spans="47:47">
       <c r="AU190" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="191" spans="47:47">
       <c r="AU191" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="192" spans="47:47">
       <c r="AU192" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="193" spans="47:47">
       <c r="AU193" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="194" spans="47:47">
       <c r="AU194" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="195" spans="47:47">
       <c r="AU195" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="196" spans="47:47">
       <c r="AU196" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="197" spans="47:47">
       <c r="AU197" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="198" spans="47:47">
       <c r="AU198" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="199" spans="47:47">
       <c r="AU199" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="200" spans="47:47">
       <c r="AU200" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="201" spans="47:47">
       <c r="AU201" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="202" spans="47:47">
       <c r="AU202" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="203" spans="47:47">
       <c r="AU203" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="204" spans="47:47">
       <c r="AU204" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="205" spans="47:47">
       <c r="AU205" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="206" spans="47:47">
       <c r="AU206" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="207" spans="47:47">
       <c r="AU207" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="208" spans="47:47">
       <c r="AU208" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="209" spans="47:47">
       <c r="AU209" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="210" spans="47:47">
       <c r="AU210" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="211" spans="47:47">
       <c r="AU211" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="212" spans="47:47">
       <c r="AU212" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="213" spans="47:47">
       <c r="AU213" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="214" spans="47:47">
       <c r="AU214" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="215" spans="47:47">
       <c r="AU215" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="216" spans="47:47">
       <c r="AU216" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="217" spans="47:47">
       <c r="AU217" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="218" spans="47:47">
       <c r="AU218" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="219" spans="47:47">
       <c r="AU219" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="220" spans="47:47">
       <c r="AU220" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="221" spans="47:47">
       <c r="AU221" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="222" spans="47:47">
       <c r="AU222" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="223" spans="47:47">
       <c r="AU223" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="224" spans="47:47">
       <c r="AU224" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="225" spans="47:47">
       <c r="AU225" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="226" spans="47:47">
       <c r="AU226" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="227" spans="47:47">
       <c r="AU227" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="228" spans="47:47">
       <c r="AU228" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="229" spans="47:47">
       <c r="AU229" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="230" spans="47:47">
       <c r="AU230" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="231" spans="47:47">
       <c r="AU231" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="232" spans="47:47">
       <c r="AU232" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="233" spans="47:47">
       <c r="AU233" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="234" spans="47:47">
       <c r="AU234" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="235" spans="47:47">
       <c r="AU235" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="236" spans="47:47">
       <c r="AU236" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="237" spans="47:47">
       <c r="AU237" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="238" spans="47:47">
       <c r="AU238" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="239" spans="47:47">
       <c r="AU239" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="240" spans="47:47">
       <c r="AU240" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="241" spans="47:47">
       <c r="AU241" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="242" spans="47:47">
       <c r="AU242" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="243" spans="47:47">
       <c r="AU243" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="244" spans="47:47">
       <c r="AU244" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="245" spans="47:47">
       <c r="AU245" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="246" spans="47:47">
       <c r="AU246" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="247" spans="47:47">
       <c r="AU247" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="248" spans="47:47">
       <c r="AU248" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="249" spans="47:47">
       <c r="AU249" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="250" spans="47:47">
       <c r="AU250" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="251" spans="47:47">
       <c r="AU251" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="252" spans="47:47">
       <c r="AU252" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="253" spans="47:47">
       <c r="AU253" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="254" spans="47:47">
       <c r="AU254" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="255" spans="47:47">
       <c r="AU255" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="256" spans="47:47">
       <c r="AU256" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="257" spans="47:47">
       <c r="AU257" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="258" spans="47:47">
       <c r="AU258" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="259" spans="47:47">
       <c r="AU259" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="260" spans="47:47">
       <c r="AU260" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="261" spans="47:47">
       <c r="AU261" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="262" spans="47:47">
       <c r="AU262" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="263" spans="47:47">
       <c r="AU263" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="264" spans="47:47">
       <c r="AU264" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="265" spans="47:47">
       <c r="AU265" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="266" spans="47:47">
       <c r="AU266" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="267" spans="47:47">
       <c r="AU267" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="268" spans="47:47">
       <c r="AU268" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="269" spans="47:47">
       <c r="AU269" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="270" spans="47:47">
       <c r="AU270" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="271" spans="47:47">
       <c r="AU271" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="272" spans="47:47">
       <c r="AU272" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="273" spans="47:47">
       <c r="AU273" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="274" spans="47:47">
       <c r="AU274" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="275" spans="47:47">
       <c r="AU275" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="276" spans="47:47">
       <c r="AU276" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="277" spans="47:47">
       <c r="AU277" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="278" spans="47:47">
       <c r="AU278" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="279" spans="47:47">
       <c r="AU279" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="280" spans="47:47">
       <c r="AU280" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="281" spans="47:47">
       <c r="AU281" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="282" spans="47:47">
       <c r="AU282" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="283" spans="47:47">
       <c r="AU283" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="284" spans="47:47">
       <c r="AU284" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="285" spans="47:47">
       <c r="AU285" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="286" spans="47:47">
       <c r="AU286" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="287" spans="47:47">
       <c r="AU287" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="288" spans="47:47">
       <c r="AU288" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="289" spans="47:47">
       <c r="AU289" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000020/metadata_template_ERC000020.xlsx
+++ b/templates/ERC000020/metadata_template_ERC000020.xlsx
@@ -21,7 +21,7 @@
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AU$1:$AU$289</definedName>
     <definedName name="growthfacility">'cv_sample'!$O$1:$O$6</definedName>
     <definedName name="growthhabit">'cv_sample'!$AQ$1:$AQ$4</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="871">
   <si>
     <t>alias</t>
   </si>
@@ -561,6 +561,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-G800</t>
   </si>
   <si>
     <t>DNBSEQ-T10x4RS</t>
@@ -3187,7 +3190,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -3231,7 +3234,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -3258,7 +3261,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N86"/>
+  <dimension ref="G1:N87"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3985,6 +3988,11 @@
     </row>
     <row r="86" spans="14:14">
       <c r="N86" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="87" spans="14:14">
+      <c r="N87" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4009,27 +4017,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -4052,122 +4060,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -4194,774 +4202,774 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="DN1" s="1" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="DO1" s="1" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="DP1" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="DQ1" s="1" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="DR1" s="1" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="DS1" s="1" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="DT1" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="DU1" s="1" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="DV1" s="1" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="DW1" s="1" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="DX1" s="1" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="DY1" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="2" spans="1:129" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="DJ2" s="2" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="DK2" s="2" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="DL2" s="2" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="DM2" s="2" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="DN2" s="2" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="DO2" s="2" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="DP2" s="2" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="DQ2" s="2" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="DR2" s="2" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="DS2" s="2" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="DT2" s="2" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="DU2" s="2" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="DV2" s="2" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="DW2" s="2" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="DX2" s="2" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="DY2" s="2" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
   </sheetData>
@@ -5008,1639 +5016,1639 @@
   <sheetData>
     <row r="1" spans="5:47">
       <c r="E1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AA1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AP1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AQ1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AU1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="2" spans="5:47">
       <c r="E2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AP2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AQ2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AU2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="3" spans="5:47">
       <c r="E3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AA3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AP3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AQ3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AU3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4" spans="5:47">
       <c r="E4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AP4" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AQ4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AU4" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="5" spans="5:47">
       <c r="E5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AP5" t="s">
         <v>116</v>
       </c>
       <c r="AU5" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6" spans="5:47">
       <c r="E6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O6" t="s">
         <v>116</v>
       </c>
       <c r="AP6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AU6" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="7" spans="5:47">
       <c r="E7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AP7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AU7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8" spans="5:47">
       <c r="E8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AU8" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="9" spans="5:47">
       <c r="E9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AU9" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="10" spans="5:47">
       <c r="E10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AU10" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="11" spans="5:47">
       <c r="E11" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AU11" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="12" spans="5:47">
       <c r="E12" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AU12" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="13" spans="5:47">
       <c r="E13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AU13" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="14" spans="5:47">
       <c r="E14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AU14" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="15" spans="5:47">
       <c r="E15" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AU15" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="16" spans="5:47">
       <c r="E16" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AU16" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="17" spans="5:47">
       <c r="E17" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AU17" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="18" spans="5:47">
       <c r="E18" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AU18" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="19" spans="5:47">
       <c r="E19" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AU19" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="20" spans="5:47">
       <c r="E20" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AU20" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="21" spans="5:47">
       <c r="E21" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AU21" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="22" spans="5:47">
       <c r="E22" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AU22" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="23" spans="5:47">
       <c r="E23" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AU23" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="24" spans="5:47">
       <c r="E24" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AU24" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="25" spans="5:47">
       <c r="E25" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AU25" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="26" spans="5:47">
       <c r="E26" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AU26" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="27" spans="5:47">
       <c r="E27" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AU27" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="28" spans="5:47">
       <c r="E28" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AU28" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="29" spans="5:47">
       <c r="E29" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AU29" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="30" spans="5:47">
       <c r="E30" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AU30" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="31" spans="5:47">
       <c r="AU31" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="32" spans="5:47">
       <c r="AU32" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="33" spans="47:47">
       <c r="AU33" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="34" spans="47:47">
       <c r="AU34" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="35" spans="47:47">
       <c r="AU35" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="36" spans="47:47">
       <c r="AU36" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="37" spans="47:47">
       <c r="AU37" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="38" spans="47:47">
       <c r="AU38" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="39" spans="47:47">
       <c r="AU39" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="40" spans="47:47">
       <c r="AU40" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="41" spans="47:47">
       <c r="AU41" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="42" spans="47:47">
       <c r="AU42" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="43" spans="47:47">
       <c r="AU43" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="44" spans="47:47">
       <c r="AU44" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="45" spans="47:47">
       <c r="AU45" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="46" spans="47:47">
       <c r="AU46" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="47" spans="47:47">
       <c r="AU47" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="48" spans="47:47">
       <c r="AU48" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="49" spans="47:47">
       <c r="AU49" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="50" spans="47:47">
       <c r="AU50" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="51" spans="47:47">
       <c r="AU51" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="52" spans="47:47">
       <c r="AU52" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="53" spans="47:47">
       <c r="AU53" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="54" spans="47:47">
       <c r="AU54" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="55" spans="47:47">
       <c r="AU55" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="56" spans="47:47">
       <c r="AU56" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="57" spans="47:47">
       <c r="AU57" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="58" spans="47:47">
       <c r="AU58" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="59" spans="47:47">
       <c r="AU59" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="60" spans="47:47">
       <c r="AU60" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="61" spans="47:47">
       <c r="AU61" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="62" spans="47:47">
       <c r="AU62" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="63" spans="47:47">
       <c r="AU63" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="64" spans="47:47">
       <c r="AU64" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="65" spans="47:47">
       <c r="AU65" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="66" spans="47:47">
       <c r="AU66" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="67" spans="47:47">
       <c r="AU67" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="68" spans="47:47">
       <c r="AU68" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="69" spans="47:47">
       <c r="AU69" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="70" spans="47:47">
       <c r="AU70" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="71" spans="47:47">
       <c r="AU71" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="72" spans="47:47">
       <c r="AU72" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="73" spans="47:47">
       <c r="AU73" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="74" spans="47:47">
       <c r="AU74" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="75" spans="47:47">
       <c r="AU75" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="76" spans="47:47">
       <c r="AU76" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="77" spans="47:47">
       <c r="AU77" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="78" spans="47:47">
       <c r="AU78" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="79" spans="47:47">
       <c r="AU79" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="80" spans="47:47">
       <c r="AU80" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="81" spans="47:47">
       <c r="AU81" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="82" spans="47:47">
       <c r="AU82" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="83" spans="47:47">
       <c r="AU83" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="84" spans="47:47">
       <c r="AU84" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="85" spans="47:47">
       <c r="AU85" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="86" spans="47:47">
       <c r="AU86" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="87" spans="47:47">
       <c r="AU87" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="88" spans="47:47">
       <c r="AU88" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="89" spans="47:47">
       <c r="AU89" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="90" spans="47:47">
       <c r="AU90" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="91" spans="47:47">
       <c r="AU91" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="92" spans="47:47">
       <c r="AU92" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="93" spans="47:47">
       <c r="AU93" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="94" spans="47:47">
       <c r="AU94" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="95" spans="47:47">
       <c r="AU95" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="96" spans="47:47">
       <c r="AU96" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="97" spans="47:47">
       <c r="AU97" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="98" spans="47:47">
       <c r="AU98" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="99" spans="47:47">
       <c r="AU99" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="100" spans="47:47">
       <c r="AU100" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="101" spans="47:47">
       <c r="AU101" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="102" spans="47:47">
       <c r="AU102" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="103" spans="47:47">
       <c r="AU103" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="104" spans="47:47">
       <c r="AU104" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="105" spans="47:47">
       <c r="AU105" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="106" spans="47:47">
       <c r="AU106" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="107" spans="47:47">
       <c r="AU107" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="108" spans="47:47">
       <c r="AU108" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="109" spans="47:47">
       <c r="AU109" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="110" spans="47:47">
       <c r="AU110" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="111" spans="47:47">
       <c r="AU111" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="112" spans="47:47">
       <c r="AU112" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="113" spans="47:47">
       <c r="AU113" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="114" spans="47:47">
       <c r="AU114" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="115" spans="47:47">
       <c r="AU115" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="116" spans="47:47">
       <c r="AU116" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="117" spans="47:47">
       <c r="AU117" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="118" spans="47:47">
       <c r="AU118" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="119" spans="47:47">
       <c r="AU119" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="120" spans="47:47">
       <c r="AU120" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="121" spans="47:47">
       <c r="AU121" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="122" spans="47:47">
       <c r="AU122" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="123" spans="47:47">
       <c r="AU123" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="124" spans="47:47">
       <c r="AU124" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="125" spans="47:47">
       <c r="AU125" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="126" spans="47:47">
       <c r="AU126" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="127" spans="47:47">
       <c r="AU127" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="128" spans="47:47">
       <c r="AU128" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="129" spans="47:47">
       <c r="AU129" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="130" spans="47:47">
       <c r="AU130" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="131" spans="47:47">
       <c r="AU131" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="132" spans="47:47">
       <c r="AU132" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="133" spans="47:47">
       <c r="AU133" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="134" spans="47:47">
       <c r="AU134" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="135" spans="47:47">
       <c r="AU135" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="136" spans="47:47">
       <c r="AU136" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="137" spans="47:47">
       <c r="AU137" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="138" spans="47:47">
       <c r="AU138" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="139" spans="47:47">
       <c r="AU139" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="140" spans="47:47">
       <c r="AU140" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="141" spans="47:47">
       <c r="AU141" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="142" spans="47:47">
       <c r="AU142" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="143" spans="47:47">
       <c r="AU143" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="144" spans="47:47">
       <c r="AU144" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="145" spans="47:47">
       <c r="AU145" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="146" spans="47:47">
       <c r="AU146" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="147" spans="47:47">
       <c r="AU147" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="148" spans="47:47">
       <c r="AU148" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="149" spans="47:47">
       <c r="AU149" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="150" spans="47:47">
       <c r="AU150" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="151" spans="47:47">
       <c r="AU151" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="152" spans="47:47">
       <c r="AU152" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="153" spans="47:47">
       <c r="AU153" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="154" spans="47:47">
       <c r="AU154" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="155" spans="47:47">
       <c r="AU155" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="156" spans="47:47">
       <c r="AU156" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="157" spans="47:47">
       <c r="AU157" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="158" spans="47:47">
       <c r="AU158" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="159" spans="47:47">
       <c r="AU159" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="160" spans="47:47">
       <c r="AU160" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="161" spans="47:47">
       <c r="AU161" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="162" spans="47:47">
       <c r="AU162" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="163" spans="47:47">
       <c r="AU163" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="164" spans="47:47">
       <c r="AU164" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="165" spans="47:47">
       <c r="AU165" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="166" spans="47:47">
       <c r="AU166" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="167" spans="47:47">
       <c r="AU167" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="168" spans="47:47">
       <c r="AU168" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="169" spans="47:47">
       <c r="AU169" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="170" spans="47:47">
       <c r="AU170" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="171" spans="47:47">
       <c r="AU171" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="172" spans="47:47">
       <c r="AU172" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="173" spans="47:47">
       <c r="AU173" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="174" spans="47:47">
       <c r="AU174" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="175" spans="47:47">
       <c r="AU175" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="176" spans="47:47">
       <c r="AU176" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="177" spans="47:47">
       <c r="AU177" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="178" spans="47:47">
       <c r="AU178" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="179" spans="47:47">
       <c r="AU179" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="180" spans="47:47">
       <c r="AU180" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="181" spans="47:47">
       <c r="AU181" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="182" spans="47:47">
       <c r="AU182" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="183" spans="47:47">
       <c r="AU183" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="184" spans="47:47">
       <c r="AU184" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="185" spans="47:47">
       <c r="AU185" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="186" spans="47:47">
       <c r="AU186" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="187" spans="47:47">
       <c r="AU187" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="188" spans="47:47">
       <c r="AU188" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="189" spans="47:47">
       <c r="AU189" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="190" spans="47:47">
       <c r="AU190" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="191" spans="47:47">
       <c r="AU191" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="192" spans="47:47">
       <c r="AU192" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="193" spans="47:47">
       <c r="AU193" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="194" spans="47:47">
       <c r="AU194" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="195" spans="47:47">
       <c r="AU195" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="196" spans="47:47">
       <c r="AU196" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="197" spans="47:47">
       <c r="AU197" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="198" spans="47:47">
       <c r="AU198" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="199" spans="47:47">
       <c r="AU199" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="200" spans="47:47">
       <c r="AU200" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="201" spans="47:47">
       <c r="AU201" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="202" spans="47:47">
       <c r="AU202" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="203" spans="47:47">
       <c r="AU203" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="204" spans="47:47">
       <c r="AU204" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="205" spans="47:47">
       <c r="AU205" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="206" spans="47:47">
       <c r="AU206" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="207" spans="47:47">
       <c r="AU207" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="208" spans="47:47">
       <c r="AU208" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="209" spans="47:47">
       <c r="AU209" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="210" spans="47:47">
       <c r="AU210" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="211" spans="47:47">
       <c r="AU211" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="212" spans="47:47">
       <c r="AU212" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="213" spans="47:47">
       <c r="AU213" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="214" spans="47:47">
       <c r="AU214" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="215" spans="47:47">
       <c r="AU215" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="216" spans="47:47">
       <c r="AU216" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="217" spans="47:47">
       <c r="AU217" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="218" spans="47:47">
       <c r="AU218" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="219" spans="47:47">
       <c r="AU219" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="220" spans="47:47">
       <c r="AU220" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="221" spans="47:47">
       <c r="AU221" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="222" spans="47:47">
       <c r="AU222" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="223" spans="47:47">
       <c r="AU223" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="224" spans="47:47">
       <c r="AU224" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="225" spans="47:47">
       <c r="AU225" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="226" spans="47:47">
       <c r="AU226" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="227" spans="47:47">
       <c r="AU227" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="228" spans="47:47">
       <c r="AU228" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="229" spans="47:47">
       <c r="AU229" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="230" spans="47:47">
       <c r="AU230" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="231" spans="47:47">
       <c r="AU231" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="232" spans="47:47">
       <c r="AU232" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="233" spans="47:47">
       <c r="AU233" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="234" spans="47:47">
       <c r="AU234" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="235" spans="47:47">
       <c r="AU235" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="236" spans="47:47">
       <c r="AU236" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="237" spans="47:47">
       <c r="AU237" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="238" spans="47:47">
       <c r="AU238" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="239" spans="47:47">
       <c r="AU239" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="240" spans="47:47">
       <c r="AU240" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="241" spans="47:47">
       <c r="AU241" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="242" spans="47:47">
       <c r="AU242" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="243" spans="47:47">
       <c r="AU243" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="244" spans="47:47">
       <c r="AU244" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="245" spans="47:47">
       <c r="AU245" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="246" spans="47:47">
       <c r="AU246" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="247" spans="47:47">
       <c r="AU247" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="248" spans="47:47">
       <c r="AU248" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="249" spans="47:47">
       <c r="AU249" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="250" spans="47:47">
       <c r="AU250" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="251" spans="47:47">
       <c r="AU251" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="252" spans="47:47">
       <c r="AU252" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="253" spans="47:47">
       <c r="AU253" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="254" spans="47:47">
       <c r="AU254" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="255" spans="47:47">
       <c r="AU255" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="256" spans="47:47">
       <c r="AU256" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="257" spans="47:47">
       <c r="AU257" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="258" spans="47:47">
       <c r="AU258" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="259" spans="47:47">
       <c r="AU259" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="260" spans="47:47">
       <c r="AU260" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="261" spans="47:47">
       <c r="AU261" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="262" spans="47:47">
       <c r="AU262" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="263" spans="47:47">
       <c r="AU263" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="264" spans="47:47">
       <c r="AU264" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="265" spans="47:47">
       <c r="AU265" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="266" spans="47:47">
       <c r="AU266" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="267" spans="47:47">
       <c r="AU267" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="268" spans="47:47">
       <c r="AU268" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="269" spans="47:47">
       <c r="AU269" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="270" spans="47:47">
       <c r="AU270" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="271" spans="47:47">
       <c r="AU271" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="272" spans="47:47">
       <c r="AU272" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="273" spans="47:47">
       <c r="AU273" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="274" spans="47:47">
       <c r="AU274" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="275" spans="47:47">
       <c r="AU275" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="276" spans="47:47">
       <c r="AU276" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="277" spans="47:47">
       <c r="AU277" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="278" spans="47:47">
       <c r="AU278" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="279" spans="47:47">
       <c r="AU279" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="280" spans="47:47">
       <c r="AU280" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="281" spans="47:47">
       <c r="AU281" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="282" spans="47:47">
       <c r="AU282" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="283" spans="47:47">
       <c r="AU283" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="284" spans="47:47">
       <c r="AU284" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="285" spans="47:47">
       <c r="AU285" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="286" spans="47:47">
       <c r="AU286" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="287" spans="47:47">
       <c r="AU287" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="288" spans="47:47">
       <c r="AU288" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="289" spans="47:47">
       <c r="AU289" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000020/metadata_template_ERC000020.xlsx
+++ b/templates/ERC000020/metadata_template_ERC000020.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AU$1:$AU$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AU$1:$AU$294</definedName>
     <definedName name="growthfacility">'cv_sample'!$O$1:$O$6</definedName>
     <definedName name="growthhabit">'cv_sample'!$AQ$1:$AQ$4</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="876">
   <si>
     <t>alias</t>
   </si>
@@ -941,7 +941,7 @@
     <t>phototroph</t>
   </si>
   <si>
-    <t>trophic level</t>
+    <t>trophic_level</t>
   </si>
   <si>
     <t>(Optional) Trophic levels are the feeding position in a food chain. microbes can be a range of producers (e.g. chemolithotroph)</t>
@@ -962,13 +962,13 @@
     <t>symbiont</t>
   </si>
   <si>
-    <t>observed biotic relationship</t>
+    <t>observed_biotic_relationship</t>
   </si>
   <si>
     <t>(Optional) Description of relationship(s) between the subject organism and other organism(s) it is associated with. e.g., parasite on species x; mutualist with species y. the target organism is the subject of the relationship, and the other organism(s) is the object.</t>
   </si>
   <si>
-    <t>known pathogenicity</t>
+    <t>known_pathogenicity</t>
   </si>
   <si>
     <t>(Optional) To what is the entity pathogenic, for instance plant, fungi, bacteria</t>
@@ -995,7 +995,7 @@
     <t>obligate anaerobe</t>
   </si>
   <si>
-    <t>relationship to oxygen</t>
+    <t>relationship_to_oxygen</t>
   </si>
   <si>
     <t>(Optional) Is this organism an aerobe, anaerobe? please note that aerobic and anaerobic are valid descriptors for microbial environments</t>
@@ -1007,31 +1007,31 @@
     <t>(Optional) The type of reproduction from the parent stock. values for this field is specific to different taxa. for phage or virus: lytic/lysogenic/temperate/obligately lytic. for plasmids: incompatibility group. for eukaryotes: sexual/asexual. mandatory for migs of eukayotes, plasmids and viruses.</t>
   </si>
   <si>
-    <t>observed host symbionts</t>
+    <t>observed_host_symbionts</t>
   </si>
   <si>
     <t>(Optional) The taxonomic name of the organism(s) found living in mutualistic, commensalistic, or parasitic symbiosis with the specific host.</t>
   </si>
   <si>
-    <t>sample collection device</t>
+    <t>sample_collection_device</t>
   </si>
   <si>
     <t>(Optional) The device used to collect an environmental sample. it is recommended to use terms listed under environmental sampling device (http://purl.obolibrary.org/obo/envo) and/or terms listed under specimen collection device (http://purl.obolibrary.org/obo/genepio_0002094).</t>
   </si>
   <si>
-    <t>sample collection method</t>
+    <t>sample_collection_method</t>
   </si>
   <si>
     <t>(Optional) The method employed for collecting the sample. can be provided in the form of a pmid, doi, url or text.</t>
   </si>
   <si>
-    <t>sample storage temperature</t>
+    <t>sample_storage_temperature</t>
   </si>
   <si>
     <t>(Optional) Temperature at which sample was stored, e.g. -80 (Units: °C)</t>
   </si>
   <si>
-    <t>sample storage location</t>
+    <t>sample_storage_location</t>
   </si>
   <si>
     <t>(Optional) Location at which sample was stored, usually name of a specific freezer/room. indicate the location name.</t>
@@ -1052,13 +1052,13 @@
     <t>open top chamber</t>
   </si>
   <si>
-    <t>growth facility</t>
+    <t>growth_facility</t>
   </si>
   <si>
     <t>(Optional) Type of facility where the sampled plant was grown</t>
   </si>
   <si>
-    <t>sample disease stage</t>
+    <t>sample_disease_stage</t>
   </si>
   <si>
     <t>(Optional) Stage of the disease at the time of sample collection, e.g. inoculation, penetration, infection, growth and reproduction, dissemination of pathogen</t>
@@ -1070,19 +1070,19 @@
     <t>anaerobic</t>
   </si>
   <si>
-    <t>oxygenation status of sample</t>
+    <t>oxygenation_status_of_sample</t>
   </si>
   <si>
     <t>(Optional) Oxygenation status of sample</t>
   </si>
   <si>
-    <t>sample disease status</t>
+    <t>sample_disease_status</t>
   </si>
   <si>
     <t>(Optional) List of diseases with which the subject has been diagnosed at the time of sample collection; can include multiple diagnoses; the value of the field depends on subject; e.g. charcoal rot (macrophomina phaseolina), late wilt (cephalosporium maydis)</t>
   </si>
   <si>
-    <t>project name</t>
+    <t>project_name</t>
   </si>
   <si>
     <t>(Mandatory) Name of the project within which the sequencing was organized</t>
@@ -1094,37 +1094,37 @@
     <t>(Optional) The ploidy level of the genome (e.g. allopolyploid, haploid, diploid, triploid, tetraploid). it has implications for the downstream study of duplicated gene and regions of the genomes (and perhaps for difficulties in assembly). for terms, please select terms listed under class ploidy (pato:001374) of phenotypic quality ontology (pato), and for a browser of pato (v 2018-03-27) please refer to http://purl.bioontology.org/ontology/pato</t>
   </si>
   <si>
-    <t>number of replicons</t>
+    <t>number_of_replicons</t>
   </si>
   <si>
     <t>(Optional) Reports the number of replicons in a nuclear genome of eukaryotes, in the genome of a bacterium or archaea or the number of segments in a segmented virus. always applied to the haploid chromosome count of a eukaryote. mandatory for migs of eukaryotes, bacteria, archaea and segmented virus.</t>
   </si>
   <si>
-    <t>extrachromosomal elements</t>
+    <t>extrachromosomal_elements</t>
   </si>
   <si>
     <t>(Optional) Do plasmids exist of significant phenotypic consequence (e.g. ones that determine virulence or antibiotic resistance). megaplasmids? other plasmids (borrelia has 15+ plasmids).</t>
   </si>
   <si>
-    <t>estimated size</t>
+    <t>estimated_size</t>
   </si>
   <si>
     <t>(Optional) The estimated size of the genome (in bp) prior to sequencing. of particular importance in the sequencing of (eukaryotic) genome which could remain in draft form for a long or unspecified period. mandatory for migs of eukaryotes.</t>
   </si>
   <si>
-    <t>target gene</t>
+    <t>target_gene</t>
   </si>
   <si>
     <t>(Optional) Targeted gene or locus name for marker gene studies</t>
   </si>
   <si>
-    <t>target subfragment</t>
+    <t>target_subfragment</t>
   </si>
   <si>
     <t>(Optional) Name of subfragment of a gene or locus. important to e.g. identify special regions on marker genes like v6 on 16s rrna</t>
   </si>
   <si>
-    <t>multiplex identifiers</t>
+    <t>multiplex_identifiers</t>
   </si>
   <si>
     <t>(Optional) Molecular barcodes, called multiplex identifiers (mids), that are used to specifically tag unique samples in a sequencing run. sequence should be reported in uppercase letters</t>
@@ -1139,31 +1139,31 @@
     <t>software</t>
   </si>
   <si>
-    <t>sequence quality check</t>
+    <t>sequence_quality_check</t>
   </si>
   <si>
     <t>(Optional) Indicate if the sequence has been called by automatic systems (none) or undergone a manual editing procedure (e.g. by inspecting the raw data or chromatograms). applied only for sequences that are not submitted to sra or dra</t>
   </si>
   <si>
-    <t>chimera check software</t>
+    <t>chimera_check_software</t>
   </si>
   <si>
     <t>(Optional) Tool(s) used for chimera checking, including version number and parameters, to discover and remove chimeric sequences. a chimeric sequence is comprised of two or more phylogenetically distinct parent sequences.</t>
   </si>
   <si>
-    <t>relevant electronic resources</t>
+    <t>relevant_electronic_resources</t>
   </si>
   <si>
     <t>(Optional) A related resource that is referenced, cited, or otherwise associated to the sequence in the format of a pmid, doi or url</t>
   </si>
   <si>
-    <t>relevant standard operating procedures</t>
+    <t>relevant_standard_operating_procedures</t>
   </si>
   <si>
     <t>(Optional) Standard operating procedures used in assembly and/or annotation of genomes, metagenomes or environmental sequences in the format of a pmid, doi or url</t>
   </si>
   <si>
-    <t>collection date</t>
+    <t>collection_date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
@@ -1175,37 +1175,37 @@
     <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
   </si>
   <si>
-    <t>geographic location (latitude)</t>
+    <t>geographic_location_latitude</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic location (longitude)</t>
+    <t>geographic_location_longitude</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic location (region and locality)</t>
+    <t>geographic_location_region_and_locality</t>
   </si>
   <si>
     <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
   </si>
   <si>
-    <t>broad-scale environmental context</t>
+    <t>broadscale_environmental_context</t>
   </si>
   <si>
     <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>local environmental context</t>
+    <t>local_environmental_context</t>
   </si>
   <si>
     <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>environmental medium</t>
+    <t>environmental_medium</t>
   </si>
   <si>
     <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
@@ -1217,13 +1217,13 @@
     <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
   </si>
   <si>
-    <t>amount or size of sample collected</t>
-  </si>
-  <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
-  </si>
-  <si>
-    <t>organism count</t>
+    <t>amount_or_size_of_sample_collected</t>
+  </si>
+  <si>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: kg)</t>
+  </si>
+  <si>
+    <t>organism_count</t>
   </si>
   <si>
     <t>(Optional) Total cell count of any organism (or group of organisms) per gram, volume or area of sample, should include name of organism followed by count. the method that was used for the enumeration (e.g. qpcr, atp, mpn, etc.) should also be provided. (example: total prokaryotes; 3.5e7 cells per ml; qpcr)</t>
@@ -1247,7 +1247,7 @@
     <t>zoo sample</t>
   </si>
   <si>
-    <t>sample capture status</t>
+    <t>sample_capture_status</t>
   </si>
   <si>
     <t>(Optional) Reason for the sample collection.</t>
@@ -1265,25 +1265,25 @@
     <t>spreading</t>
   </si>
   <si>
-    <t>growth habit</t>
+    <t>growth_habit</t>
   </si>
   <si>
     <t>(Optional) Characteristic shape, appearance or growth form of a plant species</t>
   </si>
   <si>
-    <t>plant sex</t>
+    <t>plant_sex</t>
   </si>
   <si>
     <t>(Optional) Sex of the reproductive parts on the whole plant, e.g. pistilate, staminate, monoecieous, hermaphrodite</t>
   </si>
   <si>
-    <t>plant structure</t>
+    <t>plant_structure</t>
   </si>
   <si>
     <t>(Optional) Name of plant structure that the sample was obtained from; for plant ontology (po) terms see http://purl.bioontology.org/ontology/po, e.g. petiole epidermis (po_0000051); if an individual flower is sampled the sex of it can be recorded here</t>
   </si>
   <si>
-    <t>sample storage duration</t>
+    <t>sample_storage_duration</t>
   </si>
   <si>
     <t>(Optional) Duration for which the sample was stored. indicate the duration for which the sample was stored written in iso 8601 format.</t>
@@ -1502,9 +1502,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1523,6 +1520,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1724,6 +1724,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1733,9 +1736,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1775,7 +1775,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1844,6 +1844,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1919,6 +1922,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1940,6 +1946,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1985,6 +1994,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1997,6 +2009,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -2006,9 +2021,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -2033,6 +2045,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -2093,12 +2108,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -2156,97 +2171,97 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic location (country and/or sea)</t>
+    <t>geographic_location_country_andor_sea</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
   </si>
   <si>
-    <t>host disease status</t>
+    <t>host_disease_status</t>
   </si>
   <si>
     <t>(Optional) List of diseases with which the host has been diagnosed; can include multiple diagnoses. the value of the field depends on host; for humans the terms should be chosen from do (disease ontology) at http://www.disease-ontology.org, other hosts are free text</t>
   </si>
   <si>
-    <t>host common name</t>
+    <t>host_common_name</t>
   </si>
   <si>
     <t>(Optional) Common name of the host, e.g. human</t>
   </si>
   <si>
-    <t>host age</t>
+    <t>host_age</t>
   </si>
   <si>
     <t>(Optional) Age of host at the time of sampling; relevant scale depends on species and study, e.g. could be seconds for amoebae or centuries for trees (Units: years)</t>
   </si>
   <si>
-    <t>host taxid</t>
+    <t>host_taxid</t>
   </si>
   <si>
     <t>(Optional) Ncbi taxon id of the host, e.g. 9606</t>
   </si>
   <si>
-    <t>host life stage</t>
+    <t>host_life_stage</t>
   </si>
   <si>
     <t>(Optional) Description of life stage of host</t>
   </si>
   <si>
-    <t>host height</t>
-  </si>
-  <si>
-    <t>(Optional) The height of subject (Units: mm)</t>
-  </si>
-  <si>
-    <t>host length</t>
-  </si>
-  <si>
-    <t>(Optional) The length of subject (Units: mm)</t>
-  </si>
-  <si>
-    <t>plant body site</t>
+    <t>host_height</t>
+  </si>
+  <si>
+    <t>(Optional) The height of subject (Units: m)</t>
+  </si>
+  <si>
+    <t>host_length</t>
+  </si>
+  <si>
+    <t>(Optional) The length of subject (Units: m)</t>
+  </si>
+  <si>
+    <t>plant_body_site</t>
   </si>
   <si>
     <t>(Optional) Name of body site that the sample was obtained from. for plant ontology (po) (v 20) terms, see http://purl.bioontology.org/ontology/po</t>
   </si>
   <si>
-    <t>host total mass</t>
+    <t>host_total_mass</t>
   </si>
   <si>
     <t>(Optional) Total mass of the host at collection, the unit depends on host (Units: kg)</t>
   </si>
   <si>
-    <t>host phenotype</t>
+    <t>host_phenotype</t>
   </si>
   <si>
     <t>(Optional) Phenotype of host. for phenotypic quality ontology (pato) (v 2013-10-28) terms, please see http://purl.bioontology.org/ontology/pato</t>
   </si>
   <si>
-    <t>host scientific name</t>
+    <t>host_scientific_name</t>
   </si>
   <si>
     <t>(Optional) Scientific name of the natural (as opposed to laboratory) host to the organism from which sample was obtained.</t>
   </si>
   <si>
-    <t>host subspecific genetic lineage</t>
+    <t>host_subspecific_genetic_lineage</t>
   </si>
   <si>
     <t>(Optional) Information about the genetic distinctness of the host organism below the subspecies level e.g., serovar, serotype, biotype, ecotype, variety, cultivar, or any relevant genetic typing schemes like group i plasmid. subspecies should not be recorded in this term, but in the ncbi taxonomy. supply both the lineage name and the lineage rank separated by a colon, e.g., biovar:abc123.</t>
   </si>
   <si>
-    <t>climate environment</t>
+    <t>climate_environment</t>
   </si>
   <si>
     <t>(Optional) Treatment involving an exposure to a particular climate; can include multiple climates</t>
   </si>
   <si>
-    <t>gaseous environment</t>
+    <t>gaseous_environment</t>
   </si>
   <si>
     <t>(Optional) Use of conditions with differing gaseous environments; should include the name of gaseous compound, amount administered, treatment duration, interval and total experimental duration; can include multiple gaseous environment regimens</t>
   </si>
   <si>
-    <t>seasonal environment</t>
+    <t>seasonal_environment</t>
   </si>
   <si>
     <t>(Optional) Treatment involving an exposure to a particular season (e.g. winter, summer, rabi, rainy etc.)</t>
@@ -2264,28 +2279,28 @@
     <t>(Optional) The total concentration of all dissolved salts in a liquid or solid sample. while salinity can be measured by a complete chemical analysis, this method is difficult and time consuming. more often, it is instead derived from the conductivity measurement. this is known as practical salinity. these derivations compare the specific conductance of the sample to a salinity standard such as seawater. (Units: psu)</t>
   </si>
   <si>
-    <t>source material identifiers</t>
+    <t>source_material_identifiers</t>
   </si>
   <si>
     <t>(Optional) A unique identifier assigned to a material sample (as defined by http://rs.tdwg.org/dwc/terms/materialsampleid, and as opposed to a particular digital record of a material sample) used for extracting nucleic acids, and subsequent sequencing. the identifier can refer either to the original material collected or to any derived sub-samples. the insdc qualifiers /specimen_voucher, /bio_material, or /culture_collection may or may not share the same value as the source_mat_id field. for instance, the /specimen_voucher qualifier and source_mat_id may both contain 'uam:herps:14' , referring to both the specimen voucher and sampled tissue with the same identifier. however, the /culture_collection qualifier may refer to a value from an initial culture (e.g. atcc:11775) while source_mat_id would refer to an identifier from some derived culture from which the nucleic acids were extracted (e.g. xatc123 or ark:/2154/r2).</t>
   </si>
   <si>
-    <t>host genotype</t>
+    <t>host_genotype</t>
   </si>
   <si>
     <t>(Optional) Observed genotype</t>
   </si>
   <si>
-    <t>host dry mass</t>
-  </si>
-  <si>
-    <t>(Optional) Measurement of dry mass (Units: mg)</t>
-  </si>
-  <si>
-    <t>host wet mass</t>
-  </si>
-  <si>
-    <t>(Optional) Measurement of wet mass (Units: mg)</t>
+    <t>host_dry_mass</t>
+  </si>
+  <si>
+    <t>(Optional) Measurement of dry mass (Units: kg)</t>
+  </si>
+  <si>
+    <t>host_wet_mass</t>
+  </si>
+  <si>
+    <t>(Optional) Measurement of wet mass (Units: kg)</t>
   </si>
   <si>
     <t>perturbation</t>
@@ -2294,193 +2309,193 @@
     <t>(Optional) Type of perturbation, e.g. chemical administration, physical disturbance, etc., coupled with time that perturbation occurred; can include multiple perturbation types</t>
   </si>
   <si>
-    <t>negative control type</t>
+    <t>negative_control_type</t>
   </si>
   <si>
     <t>(Optional) The substance or equipment used as a negative control in an investigation</t>
   </si>
   <si>
-    <t>positive control type</t>
+    <t>positive_control_type</t>
   </si>
   <si>
     <t>(Optional) The substance, mixture, product, or apparatus used to verify that a process which is part of an investigation delivers a true positive.</t>
   </si>
   <si>
-    <t>experimental factor</t>
+    <t>experimental_factor</t>
   </si>
   <si>
     <t>(Optional) Experimental factors are essentially the variable aspects of an experiment design which can be used to describe an experiment, or set of experiments, in an increasingly detailed manner. this field accepts ontology terms from experimental factor ontology (efo) and/or ontology for biomedical investigations (obi). for a browser of efo (v 2.95) terms, please see http://purl.bioontology.org/ontology/efo; for a browser of obi (v 2018-02-12) terms please see http://purl.bioontology.org/ontology/obi. e.g. time series design [efo:efo_0001779]</t>
   </si>
   <si>
-    <t>encoded traits</t>
+    <t>encoded_traits</t>
   </si>
   <si>
     <t>(Optional) Should include key traits like antibiotic resistance or xenobiotic degradation phenotypes for plasmids, converting genes for phage</t>
   </si>
   <si>
-    <t>genetic modification</t>
+    <t>genetic_modification</t>
   </si>
   <si>
     <t>(Optional) A genetic modification of the genome of an organism which may occur naturally by spontaneous mutation, or be introduced by some experimental means. examples of genetic modification include specification of a transgene or the gene knocked-out or details of transient transfection.</t>
   </si>
   <si>
-    <t>subspecific genetic lineage</t>
+    <t>subspecific_genetic_lineage</t>
   </si>
   <si>
     <t>(Optional) Information about the genetic distinctness of the sequenced organism below the subspecies level, e.g., serovar, serotype, biotype, ecotype, or any relevant genetic typing schemes like group i plasmid. subspecies should not be recorded in this term, but in the ncbi taxonomy. supply both the lineage name and the lineage rank separated by a colon, e.g., biovar:abc123.</t>
   </si>
   <si>
-    <t>ancestral data</t>
+    <t>ancestral_data</t>
   </si>
   <si>
     <t>(Optional) Information about either pedigree or other description of ancestral information (e.g. parental variety in case of mutant or selection), e.g. a/3*b (meaning [(a x b) x b] x b)</t>
   </si>
   <si>
-    <t>taxonomic classification</t>
+    <t>taxonomic_classification</t>
   </si>
   <si>
     <t>(Optional) Method used for taxonomic classification, along with reference database used, classification rank, and thresholds used to classify new genomes. expected values are: classification method, database name, and other parameters e.g. vcontact vcontact2 (references from ncbi refseq v83, genus rank classification, default parameters)</t>
   </si>
   <si>
-    <t>plant growth medium</t>
+    <t>plant_growth_medium</t>
   </si>
   <si>
     <t>(Optional) Specification of the media for growing the plants or tissue cultured samples, e.g. soil, aeroponic, hydroponic, in vitro solid culture medium, in vitro liquid culture medium. recommended value is a specific value from eo:plant growth medium (follow this link for terms http://purl.obolibrary.org/obo/eo_0007147).</t>
   </si>
   <si>
-    <t>rooting conditions</t>
+    <t>rooting_conditions</t>
   </si>
   <si>
     <t>(Optional) Relevant rooting conditions, such as field plot size, sowing density, container dimensions, number of plants per container</t>
   </si>
   <si>
-    <t>culture rooting medium</t>
+    <t>culture_rooting_medium</t>
   </si>
   <si>
     <t>(Optional) Name or reference for the hydroponic or in vitro culture rooting medium, can be a name of a commonly used medium or reference to a specific medium; e.g. murashige and skoog medium, if the medium has not been formally published, use the rooting medium descriptors</t>
   </si>
   <si>
-    <t>rooting medium macronutrients</t>
+    <t>rooting_medium_macronutrients</t>
   </si>
   <si>
     <t>(Optional) Measurement of the culture rooting medium macronutrients (n,p, k, ca, mg, s); e.g. kh2po4 (170mg/l)</t>
   </si>
   <si>
-    <t>rooting medium micronutrients</t>
+    <t>rooting_medium_micronutrients</t>
   </si>
   <si>
     <t>(Optional) Measurement of the culture rooting medium micronutrients (fe, mn, zn, b, cu, mo); e.g. h3bo3 (6.2mg/l)</t>
   </si>
   <si>
-    <t>rooting medium organic supplements</t>
+    <t>rooting_medium_organic_supplements</t>
   </si>
   <si>
     <t>(Optional) Organic supplements of the culture rooting medium, such as vitaimins, amino acids, organic acids, antibiotics activated charcoal; e.g. nicotinic acid (0.5mg/l)</t>
   </si>
   <si>
-    <t>rooting medium carbon</t>
+    <t>rooting_medium_carbon</t>
   </si>
   <si>
     <t>(Optional) Source of organic carbon in the culture rooting medium; e.g. sucrose</t>
   </si>
   <si>
-    <t>rooting medium regulators</t>
+    <t>rooting_medium_regulators</t>
   </si>
   <si>
     <t>(Optional) Growth regulators in the culture rooting medium, such as cytokinins, auxins, gybberellins, abscisic acid; e.g. 0.5mg/l naa</t>
   </si>
   <si>
-    <t>rooting medium solidifier</t>
+    <t>rooting_medium_solidifier</t>
   </si>
   <si>
     <t>(Optional) Specification of the solidifying agent in the culture rooting medium; e.g. agar</t>
   </si>
   <si>
-    <t>rooting medium pH</t>
+    <t>rooting_medium_ph</t>
   </si>
   <si>
     <t>(Optional) Ph measurement of the culture rooting medium; e.g. 5.5</t>
   </si>
   <si>
-    <t>isolation and growth condition</t>
+    <t>isolation_and_growth_condition</t>
   </si>
   <si>
     <t>(Optional) Publication reference in the form of pubmed id (pmid), digital object identifier (doi) or url for isolation and growth condition specifications of the organism/material. mandatory for migs and mimarks specimen.</t>
   </si>
   <si>
-    <t>annotation source</t>
+    <t>annotation_source</t>
   </si>
   <si>
     <t>(Optional) For cases where annotation was provided by a community jamboree or model organism database rather than by a specific submitter</t>
   </si>
   <si>
-    <t>reference for biomaterial</t>
+    <t>reference_for_biomaterial</t>
   </si>
   <si>
     <t>(Optional) Primary publication if isolated before genome publication; otherwise, primary genome report. mandatory for migs of bacteria and archaea.</t>
   </si>
   <si>
-    <t>sample material processing</t>
+    <t>sample_material_processing</t>
   </si>
   <si>
     <t>(Optional) A brief description of any processing applied to the sample during or after retrieving the sample from environment, or a link to the relevant protocol(s) performed.</t>
   </si>
   <si>
-    <t>sample volume or weight for DNA extraction</t>
-  </si>
-  <si>
-    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: ng)</t>
-  </si>
-  <si>
-    <t>nucleic acid extraction</t>
+    <t>sample_volume_or_weight_for_dna_extraction</t>
+  </si>
+  <si>
+    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: mL)</t>
+  </si>
+  <si>
+    <t>nucleic_acid_extraction</t>
   </si>
   <si>
     <t>(Optional) A link to a literature reference, electronic resource or a standard operating procedure (sop), that describes the material separation to recover the nucleic acid fraction from a sample</t>
   </si>
   <si>
-    <t>nucleic acid amplification</t>
+    <t>nucleic_acid_amplification</t>
   </si>
   <si>
     <t>(Optional) A link to a literature reference, electronic resource or a standard operating procedure (sop), that describes the enzymatic amplification (pcr, tma, nasba) of specific nucleic acids</t>
   </si>
   <si>
-    <t>library size</t>
+    <t>library_size</t>
   </si>
   <si>
     <t>(Optional) Total number of clones in the library prepared for the project</t>
   </si>
   <si>
-    <t>library reads sequenced</t>
+    <t>library_reads_sequenced</t>
   </si>
   <si>
     <t>(Optional) Total number of clones sequenced from the library</t>
   </si>
   <si>
-    <t>library construction method</t>
+    <t>library_construction_method</t>
   </si>
   <si>
     <t>(Optional) Library construction method used for clone libraries</t>
   </si>
   <si>
-    <t>library vector</t>
+    <t>library_vector</t>
   </si>
   <si>
     <t>(Optional) Cloning vector type(s) used in construction of libraries</t>
   </si>
   <si>
-    <t>library screening strategy</t>
+    <t>library_screening_strategy</t>
   </si>
   <si>
     <t>(Optional) Specific enrichment or screening methods applied before and/or after creating clone libraries in order to select a specific group of sequences</t>
   </si>
   <si>
-    <t>pcr conditions</t>
+    <t>pcr_conditions</t>
   </si>
   <si>
     <t>(Optional) Description of reaction conditions and components for pcr in the form of 'initial denaturation:94degc_1.5min; annealing=...'</t>
   </si>
   <si>
-    <t>pcr primers</t>
+    <t>pcr_primers</t>
   </si>
   <si>
     <t>(Optional) Pcr primers that were used to amplify the sequence of the targeted gene, locus or subfragment. this field should contain all the primers used for a single pcr reaction if multiple forward or reverse primers are present in a single pcr reaction. the primer sequence should be reported in uppercase letters</t>
@@ -2492,7 +2507,7 @@
     <t>(Optional) Adapters provide priming sequences for both amplification and sequencing of the sample-library fragments. both adapters should be reported; in uppercase letters</t>
   </si>
   <si>
-    <t>plant product</t>
+    <t>plant_product</t>
   </si>
   <si>
     <t>(Optional) Substance produced by the plant, where the sample was obtained from</t>
@@ -2501,34 +2516,34 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
-  </si>
-  <si>
-    <t>air temperature regimen</t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
+  </si>
+  <si>
+    <t>air_temperature_regimen</t>
   </si>
   <si>
     <t>(Optional) Information about treatment involving an exposure to varying temperatures; should include the temperature, treatment duration, interval and total experimental duration; can include different temperature regimens</t>
   </si>
   <si>
-    <t>antibiotic regimen</t>
+    <t>antibiotic_regimen</t>
   </si>
   <si>
     <t>(Optional) Information about treatment involving antibiotic administration; should include the name of antibiotic, amount administered, treatment duration, interval and total experimental duration; can include multiple antibiotic regimens</t>
   </si>
   <si>
-    <t>chemical mutagen</t>
+    <t>chemical_mutagen</t>
   </si>
   <si>
     <t>(Optional) Treatment involving use of mutagens; should include the name of mutagen, amount administered, treatment duration, interval and total experimental duration; can include multiple mutagen regimens</t>
   </si>
   <si>
-    <t>fertilizer administration</t>
+    <t>fertilizer_administration</t>
   </si>
   <si>
     <t>(Optional) Type of fertilizer or amendment added to the soil or water for the purpose of improving substrate health and quality for plant growth. this field accepts terms listed under agronomic fertilizer (http://purl.obolibrary.org/obo/agro_00002062). multiple terms may apply and can be separated by pipes, listing in reverse chronological order. n.b. old ena definition as "fertilizer regimen": information about treatment involving the use of fertilizers; should include the name fertilizer, amount administered, treatment duration, interval and total experimental duration; can include multiple fertilizer regimens</t>
   </si>
   <si>
-    <t>fungicide regimen</t>
+    <t>fungicide_regimen</t>
   </si>
   <si>
     <t>(Optional) Information about treatment involving use of fungicides; should include the name of fungicide, amount administered, treatment duration, interval and total experimental duration; can include multiple fungicide regimens</t>
@@ -2540,115 +2555,115 @@
     <t>(Optional) Information about treatment involving use of gravity factor to study various types of responses in presence, absence or modified levels of gravity; can include multiple treatments</t>
   </si>
   <si>
-    <t>growth hormone regimen</t>
+    <t>growth_hormone_regimen</t>
   </si>
   <si>
     <t>(Optional) Information about treatment involving use of growth hormones; should include the name of growth hormone, amount administered, treatment duration, interval and total experimental duration; can include multiple growth hormone regimens</t>
   </si>
   <si>
-    <t>growth media</t>
+    <t>growth_media</t>
   </si>
   <si>
     <t>(Optional) Information about growth media for growing the plants or tissue cultured samples</t>
   </si>
   <si>
-    <t>herbicide regimen</t>
+    <t>herbicide_regimen</t>
   </si>
   <si>
     <t>(Optional) Information about treatment involving use of herbicides; information about treatment involving use of growth hormones; should include the name of herbicide, amount administered, treatment duration, interval and total experimental duration; can include multiple regimens</t>
   </si>
   <si>
-    <t>humidity regimen</t>
+    <t>humidity_regimen</t>
   </si>
   <si>
     <t>(Optional) Information about treatment involving an exposure to varying degree of humidity; information about treatment involving use of growth hormones; should include amount of humidity administered, treatment duration, interval and total experimental duration; can include multiple regimens</t>
   </si>
   <si>
-    <t>mineral nutrient regimen</t>
+    <t>mineral_nutrient_regimen</t>
   </si>
   <si>
     <t>(Optional) Information about treatment involving the use of mineral supplements; should include the name of mineral nutrient, amount administered, treatment duration, interval and total experimental duration; can include multiple mineral nutrient regimens</t>
   </si>
   <si>
-    <t>non-mineral nutrient regimen</t>
+    <t>nonmineral_nutrient_regimen</t>
   </si>
   <si>
     <t>(Optional) Information about treatment involving the exposure of plant to non-mineral nutrient such as oxygen, hydrogen or carbon; should include the name of non-mineral nutrient, amount administered, treatment duration, interval and total experimental duration; can include multiple non-mineral nutrient regimens</t>
   </si>
   <si>
-    <t>pesticide regimen</t>
+    <t>pesticide_regimen</t>
   </si>
   <si>
     <t>(Optional) Information about treatment involving use of insecticides; should include the name of pesticide, amount administered, treatment duration, interval and total experimental duration; can include multiple pesticide regimens</t>
   </si>
   <si>
-    <t>pH regimen</t>
+    <t>ph_regimen</t>
   </si>
   <si>
     <t>(Optional) Information about treatment involving exposure of plants to varying levels of ph of the growth media; can include multiple regimen</t>
   </si>
   <si>
-    <t>radiation regimen</t>
+    <t>radiation_regimen</t>
   </si>
   <si>
     <t>(Optional) Information about treatment involving exposure of plant or a plant part to a particular radiation regimen; should include the radiation type, amount or intensity administered, treatment duration, interval and total experimental duration; can include multiple radiation regimens</t>
   </si>
   <si>
-    <t>rainfall regimen</t>
+    <t>rainfall_regimen</t>
   </si>
   <si>
     <t>(Optional) Information about treatment involving an exposure to a given amount of rainfall; can include multiple regimens</t>
   </si>
   <si>
-    <t>salt regimen</t>
+    <t>salt_regimen</t>
   </si>
   <si>
     <t>(Optional) Information about treatment involving use of salts as supplement to liquid and soil growth media; should include the name of salt, amount administered, treatment duration, interval and total experimental duration; can include multiple salt regimens</t>
   </si>
   <si>
-    <t>standing water regimen</t>
+    <t>standing_water_regimen</t>
   </si>
   <si>
     <t>(Optional) Treatment involving an exposure to standing water during a plant's life span, types can be flood water or standing water; can include multiple regimens</t>
   </si>
   <si>
-    <t>tissue culture growth media</t>
+    <t>tissue_culture_growth_media</t>
   </si>
   <si>
     <t>(Optional) Description of plant tissue culture growth media used</t>
   </si>
   <si>
-    <t>watering regimen</t>
+    <t>watering_regimen</t>
   </si>
   <si>
     <t>(Optional) Information about treatment involving an exposure to watering frequencies; can include multiple regimens</t>
   </si>
   <si>
-    <t>water temperature regimen</t>
+    <t>water_temperature_regimen</t>
   </si>
   <si>
     <t>(Optional) Information about treatment involving an exposure to water with varying degree of temperature; can include multiple regimens</t>
   </si>
   <si>
-    <t>light regimen</t>
+    <t>light_regimen</t>
   </si>
   <si>
     <t>(Optional) Information about treatment involving an exposure to light, this includes both light intensity and quality</t>
   </si>
   <si>
-    <t>biotic regimen</t>
+    <t>biotic_regimen</t>
   </si>
   <si>
     <t>(Optional) Information about treatment involving use of biotic factors, such as bacteria, viruses or fungi</t>
   </si>
   <si>
-    <t>mechanical damage</t>
+    <t>mechanical_damage</t>
   </si>
   <si>
     <t>(Optional) Information about any mechanical damage exerted on the plant; can include multiple damages and sites</t>
   </si>
   <si>
-    <t>chemical administration</t>
+    <t>chemical_administration</t>
   </si>
   <si>
     <t>(Optional) List of chemical compounds administered to the host or site where sampling occurred, and when (e.g. antibiotics, n fertilizer, air filter); can include multiple compounds. for chemical entities of biological interest ontology (chebi) (v111), please see http://purl.bioontology.org/ontology/chebi</t>
@@ -4334,253 +4349,253 @@
         <v>414</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="DN1" s="1" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="DO1" s="1" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="DP1" s="1" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="DQ1" s="1" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="DR1" s="1" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="DS1" s="1" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="DT1" s="1" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
       <c r="DU1" s="1" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="DV1" s="1" t="s">
-        <v>863</v>
+        <v>868</v>
       </c>
       <c r="DW1" s="1" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
       <c r="DX1" s="1" t="s">
-        <v>867</v>
+        <v>872</v>
       </c>
       <c r="DY1" s="1" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
     </row>
     <row r="2" spans="1:129" ht="150" customHeight="1">
@@ -4723,253 +4738,253 @@
         <v>415</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="DJ2" s="2" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="DK2" s="2" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="DL2" s="2" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="DM2" s="2" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="DN2" s="2" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="DO2" s="2" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="DP2" s="2" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
       <c r="DQ2" s="2" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="DR2" s="2" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="DS2" s="2" t="s">
-        <v>858</v>
+        <v>863</v>
       </c>
       <c r="DT2" s="2" t="s">
-        <v>860</v>
+        <v>865</v>
       </c>
       <c r="DU2" s="2" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="DV2" s="2" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
       <c r="DW2" s="2" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
       <c r="DX2" s="2" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="DY2" s="2" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
     </row>
   </sheetData>
@@ -5008,7 +5023,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E1:AU289"/>
+  <dimension ref="E1:AU294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6651,6 +6666,31 @@
         <v>704</v>
       </c>
     </row>
+    <row r="290" spans="47:47">
+      <c r="AU290" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="291" spans="47:47">
+      <c r="AU291" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="292" spans="47:47">
+      <c r="AU292" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="293" spans="47:47">
+      <c r="AU293" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="294" spans="47:47">
+      <c r="AU294" t="s">
+        <v>709</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/ERC000020/metadata_template_ERC000020.xlsx
+++ b/templates/ERC000020/metadata_template_ERC000020.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AU$1:$AU$294</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AU$1:$AU$289</definedName>
     <definedName name="growthfacility">'cv_sample'!$O$1:$O$6</definedName>
     <definedName name="growthhabit">'cv_sample'!$AQ$1:$AQ$4</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="871">
   <si>
     <t>alias</t>
   </si>
@@ -941,7 +941,7 @@
     <t>phototroph</t>
   </si>
   <si>
-    <t>trophic_level</t>
+    <t>trophic level</t>
   </si>
   <si>
     <t>(Optional) Trophic levels are the feeding position in a food chain. microbes can be a range of producers (e.g. chemolithotroph)</t>
@@ -962,13 +962,13 @@
     <t>symbiont</t>
   </si>
   <si>
-    <t>observed_biotic_relationship</t>
+    <t>observed biotic relationship</t>
   </si>
   <si>
     <t>(Optional) Description of relationship(s) between the subject organism and other organism(s) it is associated with. e.g., parasite on species x; mutualist with species y. the target organism is the subject of the relationship, and the other organism(s) is the object.</t>
   </si>
   <si>
-    <t>known_pathogenicity</t>
+    <t>known pathogenicity</t>
   </si>
   <si>
     <t>(Optional) To what is the entity pathogenic, for instance plant, fungi, bacteria</t>
@@ -995,7 +995,7 @@
     <t>obligate anaerobe</t>
   </si>
   <si>
-    <t>relationship_to_oxygen</t>
+    <t>relationship to oxygen</t>
   </si>
   <si>
     <t>(Optional) Is this organism an aerobe, anaerobe? please note that aerobic and anaerobic are valid descriptors for microbial environments</t>
@@ -1007,31 +1007,31 @@
     <t>(Optional) The type of reproduction from the parent stock. values for this field is specific to different taxa. for phage or virus: lytic/lysogenic/temperate/obligately lytic. for plasmids: incompatibility group. for eukaryotes: sexual/asexual. mandatory for migs of eukayotes, plasmids and viruses.</t>
   </si>
   <si>
-    <t>observed_host_symbionts</t>
+    <t>observed host symbionts</t>
   </si>
   <si>
     <t>(Optional) The taxonomic name of the organism(s) found living in mutualistic, commensalistic, or parasitic symbiosis with the specific host.</t>
   </si>
   <si>
-    <t>sample_collection_device</t>
+    <t>sample collection device</t>
   </si>
   <si>
     <t>(Optional) The device used to collect an environmental sample. it is recommended to use terms listed under environmental sampling device (http://purl.obolibrary.org/obo/envo) and/or terms listed under specimen collection device (http://purl.obolibrary.org/obo/genepio_0002094).</t>
   </si>
   <si>
-    <t>sample_collection_method</t>
+    <t>sample collection method</t>
   </si>
   <si>
     <t>(Optional) The method employed for collecting the sample. can be provided in the form of a pmid, doi, url or text.</t>
   </si>
   <si>
-    <t>sample_storage_temperature</t>
+    <t>sample storage temperature</t>
   </si>
   <si>
     <t>(Optional) Temperature at which sample was stored, e.g. -80 (Units: °C)</t>
   </si>
   <si>
-    <t>sample_storage_location</t>
+    <t>sample storage location</t>
   </si>
   <si>
     <t>(Optional) Location at which sample was stored, usually name of a specific freezer/room. indicate the location name.</t>
@@ -1052,13 +1052,13 @@
     <t>open top chamber</t>
   </si>
   <si>
-    <t>growth_facility</t>
+    <t>growth facility</t>
   </si>
   <si>
     <t>(Optional) Type of facility where the sampled plant was grown</t>
   </si>
   <si>
-    <t>sample_disease_stage</t>
+    <t>sample disease stage</t>
   </si>
   <si>
     <t>(Optional) Stage of the disease at the time of sample collection, e.g. inoculation, penetration, infection, growth and reproduction, dissemination of pathogen</t>
@@ -1070,19 +1070,19 @@
     <t>anaerobic</t>
   </si>
   <si>
-    <t>oxygenation_status_of_sample</t>
+    <t>oxygenation status of sample</t>
   </si>
   <si>
     <t>(Optional) Oxygenation status of sample</t>
   </si>
   <si>
-    <t>sample_disease_status</t>
+    <t>sample disease status</t>
   </si>
   <si>
     <t>(Optional) List of diseases with which the subject has been diagnosed at the time of sample collection; can include multiple diagnoses; the value of the field depends on subject; e.g. charcoal rot (macrophomina phaseolina), late wilt (cephalosporium maydis)</t>
   </si>
   <si>
-    <t>project_name</t>
+    <t>project name</t>
   </si>
   <si>
     <t>(Mandatory) Name of the project within which the sequencing was organized</t>
@@ -1094,37 +1094,37 @@
     <t>(Optional) The ploidy level of the genome (e.g. allopolyploid, haploid, diploid, triploid, tetraploid). it has implications for the downstream study of duplicated gene and regions of the genomes (and perhaps for difficulties in assembly). for terms, please select terms listed under class ploidy (pato:001374) of phenotypic quality ontology (pato), and for a browser of pato (v 2018-03-27) please refer to http://purl.bioontology.org/ontology/pato</t>
   </si>
   <si>
-    <t>number_of_replicons</t>
+    <t>number of replicons</t>
   </si>
   <si>
     <t>(Optional) Reports the number of replicons in a nuclear genome of eukaryotes, in the genome of a bacterium or archaea or the number of segments in a segmented virus. always applied to the haploid chromosome count of a eukaryote. mandatory for migs of eukaryotes, bacteria, archaea and segmented virus.</t>
   </si>
   <si>
-    <t>extrachromosomal_elements</t>
+    <t>extrachromosomal elements</t>
   </si>
   <si>
     <t>(Optional) Do plasmids exist of significant phenotypic consequence (e.g. ones that determine virulence or antibiotic resistance). megaplasmids? other plasmids (borrelia has 15+ plasmids).</t>
   </si>
   <si>
-    <t>estimated_size</t>
+    <t>estimated size</t>
   </si>
   <si>
     <t>(Optional) The estimated size of the genome (in bp) prior to sequencing. of particular importance in the sequencing of (eukaryotic) genome which could remain in draft form for a long or unspecified period. mandatory for migs of eukaryotes.</t>
   </si>
   <si>
-    <t>target_gene</t>
+    <t>target gene</t>
   </si>
   <si>
     <t>(Optional) Targeted gene or locus name for marker gene studies</t>
   </si>
   <si>
-    <t>target_subfragment</t>
+    <t>target subfragment</t>
   </si>
   <si>
     <t>(Optional) Name of subfragment of a gene or locus. important to e.g. identify special regions on marker genes like v6 on 16s rrna</t>
   </si>
   <si>
-    <t>multiplex_identifiers</t>
+    <t>multiplex identifiers</t>
   </si>
   <si>
     <t>(Optional) Molecular barcodes, called multiplex identifiers (mids), that are used to specifically tag unique samples in a sequencing run. sequence should be reported in uppercase letters</t>
@@ -1139,31 +1139,31 @@
     <t>software</t>
   </si>
   <si>
-    <t>sequence_quality_check</t>
+    <t>sequence quality check</t>
   </si>
   <si>
     <t>(Optional) Indicate if the sequence has been called by automatic systems (none) or undergone a manual editing procedure (e.g. by inspecting the raw data or chromatograms). applied only for sequences that are not submitted to sra or dra</t>
   </si>
   <si>
-    <t>chimera_check_software</t>
+    <t>chimera check software</t>
   </si>
   <si>
     <t>(Optional) Tool(s) used for chimera checking, including version number and parameters, to discover and remove chimeric sequences. a chimeric sequence is comprised of two or more phylogenetically distinct parent sequences.</t>
   </si>
   <si>
-    <t>relevant_electronic_resources</t>
+    <t>relevant electronic resources</t>
   </si>
   <si>
     <t>(Optional) A related resource that is referenced, cited, or otherwise associated to the sequence in the format of a pmid, doi or url</t>
   </si>
   <si>
-    <t>relevant_standard_operating_procedures</t>
+    <t>relevant standard operating procedures</t>
   </si>
   <si>
     <t>(Optional) Standard operating procedures used in assembly and/or annotation of genomes, metagenomes or environmental sequences in the format of a pmid, doi or url</t>
   </si>
   <si>
-    <t>collection_date</t>
+    <t>collection date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
@@ -1175,37 +1175,37 @@
     <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
   </si>
   <si>
-    <t>geographic_location_latitude</t>
+    <t>geographic location (latitude)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic_location_longitude</t>
+    <t>geographic location (longitude)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic_location_region_and_locality</t>
+    <t>geographic location (region and locality)</t>
   </si>
   <si>
     <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
   </si>
   <si>
-    <t>broadscale_environmental_context</t>
+    <t>broad-scale environmental context</t>
   </si>
   <si>
     <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>local_environmental_context</t>
+    <t>local environmental context</t>
   </si>
   <si>
     <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>environmental_medium</t>
+    <t>environmental medium</t>
   </si>
   <si>
     <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
@@ -1217,13 +1217,13 @@
     <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
   </si>
   <si>
-    <t>amount_or_size_of_sample_collected</t>
-  </si>
-  <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: kg)</t>
-  </si>
-  <si>
-    <t>organism_count</t>
+    <t>amount or size of sample collected</t>
+  </si>
+  <si>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+  </si>
+  <si>
+    <t>organism count</t>
   </si>
   <si>
     <t>(Optional) Total cell count of any organism (or group of organisms) per gram, volume or area of sample, should include name of organism followed by count. the method that was used for the enumeration (e.g. qpcr, atp, mpn, etc.) should also be provided. (example: total prokaryotes; 3.5e7 cells per ml; qpcr)</t>
@@ -1247,7 +1247,7 @@
     <t>zoo sample</t>
   </si>
   <si>
-    <t>sample_capture_status</t>
+    <t>sample capture status</t>
   </si>
   <si>
     <t>(Optional) Reason for the sample collection.</t>
@@ -1265,25 +1265,25 @@
     <t>spreading</t>
   </si>
   <si>
-    <t>growth_habit</t>
+    <t>growth habit</t>
   </si>
   <si>
     <t>(Optional) Characteristic shape, appearance or growth form of a plant species</t>
   </si>
   <si>
-    <t>plant_sex</t>
+    <t>plant sex</t>
   </si>
   <si>
     <t>(Optional) Sex of the reproductive parts on the whole plant, e.g. pistilate, staminate, monoecieous, hermaphrodite</t>
   </si>
   <si>
-    <t>plant_structure</t>
+    <t>plant structure</t>
   </si>
   <si>
     <t>(Optional) Name of plant structure that the sample was obtained from; for plant ontology (po) terms see http://purl.bioontology.org/ontology/po, e.g. petiole epidermis (po_0000051); if an individual flower is sampled the sex of it can be recorded here</t>
   </si>
   <si>
-    <t>sample_storage_duration</t>
+    <t>sample storage duration</t>
   </si>
   <si>
     <t>(Optional) Duration for which the sample was stored. indicate the duration for which the sample was stored written in iso 8601 format.</t>
@@ -1502,6 +1502,9 @@
     <t>Dominican Republic</t>
   </si>
   <si>
+    <t>East Timor</t>
+  </si>
+  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1520,9 +1523,6 @@
     <t>Estonia</t>
   </si>
   <si>
-    <t>Eswatini</t>
-  </si>
-  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1724,9 +1724,6 @@
     <t>Liechtenstein</t>
   </si>
   <si>
-    <t>Line Islands</t>
-  </si>
-  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1736,6 +1733,9 @@
     <t>Macau</t>
   </si>
   <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1775,7 +1775,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia, Federated States of</t>
+    <t>Micronesia</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1844,9 +1844,6 @@
     <t>North Korea</t>
   </si>
   <si>
-    <t>North Macedonia</t>
-  </si>
-  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1922,9 +1919,6 @@
     <t>Rwanda</t>
   </si>
   <si>
-    <t>Saint Barthelemy</t>
-  </si>
-  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1946,9 +1940,6 @@
     <t>San Marino</t>
   </si>
   <si>
-    <t>Saint Martin</t>
-  </si>
-  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1994,9 +1985,6 @@
     <t>South Korea</t>
   </si>
   <si>
-    <t>South Sudan</t>
-  </si>
-  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -2009,9 +1997,6 @@
     <t>Sri Lanka</t>
   </si>
   <si>
-    <t>State of Palestine</t>
-  </si>
-  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -2021,6 +2006,9 @@
     <t>Svalbard</t>
   </si>
   <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -2045,9 +2033,6 @@
     <t>Thailand</t>
   </si>
   <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -2108,12 +2093,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Virgin Islands</t>
+  </si>
+  <si>
     <t>Wake Island</t>
   </si>
   <si>
-    <t>Virgin Islands</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -2171,97 +2156,97 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic_location_country_andor_sea</t>
+    <t>geographic location (country and/or sea)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
   </si>
   <si>
-    <t>host_disease_status</t>
+    <t>host disease status</t>
   </si>
   <si>
     <t>(Optional) List of diseases with which the host has been diagnosed; can include multiple diagnoses. the value of the field depends on host; for humans the terms should be chosen from do (disease ontology) at http://www.disease-ontology.org, other hosts are free text</t>
   </si>
   <si>
-    <t>host_common_name</t>
+    <t>host common name</t>
   </si>
   <si>
     <t>(Optional) Common name of the host, e.g. human</t>
   </si>
   <si>
-    <t>host_age</t>
+    <t>host age</t>
   </si>
   <si>
     <t>(Optional) Age of host at the time of sampling; relevant scale depends on species and study, e.g. could be seconds for amoebae or centuries for trees (Units: years)</t>
   </si>
   <si>
-    <t>host_taxid</t>
+    <t>host taxid</t>
   </si>
   <si>
     <t>(Optional) Ncbi taxon id of the host, e.g. 9606</t>
   </si>
   <si>
-    <t>host_life_stage</t>
+    <t>host life stage</t>
   </si>
   <si>
     <t>(Optional) Description of life stage of host</t>
   </si>
   <si>
-    <t>host_height</t>
-  </si>
-  <si>
-    <t>(Optional) The height of subject (Units: m)</t>
-  </si>
-  <si>
-    <t>host_length</t>
-  </si>
-  <si>
-    <t>(Optional) The length of subject (Units: m)</t>
-  </si>
-  <si>
-    <t>plant_body_site</t>
+    <t>host height</t>
+  </si>
+  <si>
+    <t>(Optional) The height of subject (Units: mm)</t>
+  </si>
+  <si>
+    <t>host length</t>
+  </si>
+  <si>
+    <t>(Optional) The length of subject (Units: mm)</t>
+  </si>
+  <si>
+    <t>plant body site</t>
   </si>
   <si>
     <t>(Optional) Name of body site that the sample was obtained from. for plant ontology (po) (v 20) terms, see http://purl.bioontology.org/ontology/po</t>
   </si>
   <si>
-    <t>host_total_mass</t>
+    <t>host total mass</t>
   </si>
   <si>
     <t>(Optional) Total mass of the host at collection, the unit depends on host (Units: kg)</t>
   </si>
   <si>
-    <t>host_phenotype</t>
+    <t>host phenotype</t>
   </si>
   <si>
     <t>(Optional) Phenotype of host. for phenotypic quality ontology (pato) (v 2013-10-28) terms, please see http://purl.bioontology.org/ontology/pato</t>
   </si>
   <si>
-    <t>host_scientific_name</t>
+    <t>host scientific name</t>
   </si>
   <si>
     <t>(Optional) Scientific name of the natural (as opposed to laboratory) host to the organism from which sample was obtained.</t>
   </si>
   <si>
-    <t>host_subspecific_genetic_lineage</t>
+    <t>host subspecific genetic lineage</t>
   </si>
   <si>
     <t>(Optional) Information about the genetic distinctness of the host organism below the subspecies level e.g., serovar, serotype, biotype, ecotype, variety, cultivar, or any relevant genetic typing schemes like group i plasmid. subspecies should not be recorded in this term, but in the ncbi taxonomy. supply both the lineage name and the lineage rank separated by a colon, e.g., biovar:abc123.</t>
   </si>
   <si>
-    <t>climate_environment</t>
+    <t>climate environment</t>
   </si>
   <si>
     <t>(Optional) Treatment involving an exposure to a particular climate; can include multiple climates</t>
   </si>
   <si>
-    <t>gaseous_environment</t>
+    <t>gaseous environment</t>
   </si>
   <si>
     <t>(Optional) Use of conditions with differing gaseous environments; should include the name of gaseous compound, amount administered, treatment duration, interval and total experimental duration; can include multiple gaseous environment regimens</t>
   </si>
   <si>
-    <t>seasonal_environment</t>
+    <t>seasonal environment</t>
   </si>
   <si>
     <t>(Optional) Treatment involving an exposure to a particular season (e.g. winter, summer, rabi, rainy etc.)</t>
@@ -2279,28 +2264,28 @@
     <t>(Optional) The total concentration of all dissolved salts in a liquid or solid sample. while salinity can be measured by a complete chemical analysis, this method is difficult and time consuming. more often, it is instead derived from the conductivity measurement. this is known as practical salinity. these derivations compare the specific conductance of the sample to a salinity standard such as seawater. (Units: psu)</t>
   </si>
   <si>
-    <t>source_material_identifiers</t>
+    <t>source material identifiers</t>
   </si>
   <si>
     <t>(Optional) A unique identifier assigned to a material sample (as defined by http://rs.tdwg.org/dwc/terms/materialsampleid, and as opposed to a particular digital record of a material sample) used for extracting nucleic acids, and subsequent sequencing. the identifier can refer either to the original material collected or to any derived sub-samples. the insdc qualifiers /specimen_voucher, /bio_material, or /culture_collection may or may not share the same value as the source_mat_id field. for instance, the /specimen_voucher qualifier and source_mat_id may both contain 'uam:herps:14' , referring to both the specimen voucher and sampled tissue with the same identifier. however, the /culture_collection qualifier may refer to a value from an initial culture (e.g. atcc:11775) while source_mat_id would refer to an identifier from some derived culture from which the nucleic acids were extracted (e.g. xatc123 or ark:/2154/r2).</t>
   </si>
   <si>
-    <t>host_genotype</t>
+    <t>host genotype</t>
   </si>
   <si>
     <t>(Optional) Observed genotype</t>
   </si>
   <si>
-    <t>host_dry_mass</t>
-  </si>
-  <si>
-    <t>(Optional) Measurement of dry mass (Units: kg)</t>
-  </si>
-  <si>
-    <t>host_wet_mass</t>
-  </si>
-  <si>
-    <t>(Optional) Measurement of wet mass (Units: kg)</t>
+    <t>host dry mass</t>
+  </si>
+  <si>
+    <t>(Optional) Measurement of dry mass (Units: mg)</t>
+  </si>
+  <si>
+    <t>host wet mass</t>
+  </si>
+  <si>
+    <t>(Optional) Measurement of wet mass (Units: mg)</t>
   </si>
   <si>
     <t>perturbation</t>
@@ -2309,193 +2294,193 @@
     <t>(Optional) Type of perturbation, e.g. chemical administration, physical disturbance, etc., coupled with time that perturbation occurred; can include multiple perturbation types</t>
   </si>
   <si>
-    <t>negative_control_type</t>
+    <t>negative control type</t>
   </si>
   <si>
     <t>(Optional) The substance or equipment used as a negative control in an investigation</t>
   </si>
   <si>
-    <t>positive_control_type</t>
+    <t>positive control type</t>
   </si>
   <si>
     <t>(Optional) The substance, mixture, product, or apparatus used to verify that a process which is part of an investigation delivers a true positive.</t>
   </si>
   <si>
-    <t>experimental_factor</t>
+    <t>experimental factor</t>
   </si>
   <si>
     <t>(Optional) Experimental factors are essentially the variable aspects of an experiment design which can be used to describe an experiment, or set of experiments, in an increasingly detailed manner. this field accepts ontology terms from experimental factor ontology (efo) and/or ontology for biomedical investigations (obi). for a browser of efo (v 2.95) terms, please see http://purl.bioontology.org/ontology/efo; for a browser of obi (v 2018-02-12) terms please see http://purl.bioontology.org/ontology/obi. e.g. time series design [efo:efo_0001779]</t>
   </si>
   <si>
-    <t>encoded_traits</t>
+    <t>encoded traits</t>
   </si>
   <si>
     <t>(Optional) Should include key traits like antibiotic resistance or xenobiotic degradation phenotypes for plasmids, converting genes for phage</t>
   </si>
   <si>
-    <t>genetic_modification</t>
+    <t>genetic modification</t>
   </si>
   <si>
     <t>(Optional) A genetic modification of the genome of an organism which may occur naturally by spontaneous mutation, or be introduced by some experimental means. examples of genetic modification include specification of a transgene or the gene knocked-out or details of transient transfection.</t>
   </si>
   <si>
-    <t>subspecific_genetic_lineage</t>
+    <t>subspecific genetic lineage</t>
   </si>
   <si>
     <t>(Optional) Information about the genetic distinctness of the sequenced organism below the subspecies level, e.g., serovar, serotype, biotype, ecotype, or any relevant genetic typing schemes like group i plasmid. subspecies should not be recorded in this term, but in the ncbi taxonomy. supply both the lineage name and the lineage rank separated by a colon, e.g., biovar:abc123.</t>
   </si>
   <si>
-    <t>ancestral_data</t>
+    <t>ancestral data</t>
   </si>
   <si>
     <t>(Optional) Information about either pedigree or other description of ancestral information (e.g. parental variety in case of mutant or selection), e.g. a/3*b (meaning [(a x b) x b] x b)</t>
   </si>
   <si>
-    <t>taxonomic_classification</t>
+    <t>taxonomic classification</t>
   </si>
   <si>
     <t>(Optional) Method used for taxonomic classification, along with reference database used, classification rank, and thresholds used to classify new genomes. expected values are: classification method, database name, and other parameters e.g. vcontact vcontact2 (references from ncbi refseq v83, genus rank classification, default parameters)</t>
   </si>
   <si>
-    <t>plant_growth_medium</t>
+    <t>plant growth medium</t>
   </si>
   <si>
     <t>(Optional) Specification of the media for growing the plants or tissue cultured samples, e.g. soil, aeroponic, hydroponic, in vitro solid culture medium, in vitro liquid culture medium. recommended value is a specific value from eo:plant growth medium (follow this link for terms http://purl.obolibrary.org/obo/eo_0007147).</t>
   </si>
   <si>
-    <t>rooting_conditions</t>
+    <t>rooting conditions</t>
   </si>
   <si>
     <t>(Optional) Relevant rooting conditions, such as field plot size, sowing density, container dimensions, number of plants per container</t>
   </si>
   <si>
-    <t>culture_rooting_medium</t>
+    <t>culture rooting medium</t>
   </si>
   <si>
     <t>(Optional) Name or reference for the hydroponic or in vitro culture rooting medium, can be a name of a commonly used medium or reference to a specific medium; e.g. murashige and skoog medium, if the medium has not been formally published, use the rooting medium descriptors</t>
   </si>
   <si>
-    <t>rooting_medium_macronutrients</t>
+    <t>rooting medium macronutrients</t>
   </si>
   <si>
     <t>(Optional) Measurement of the culture rooting medium macronutrients (n,p, k, ca, mg, s); e.g. kh2po4 (170mg/l)</t>
   </si>
   <si>
-    <t>rooting_medium_micronutrients</t>
+    <t>rooting medium micronutrients</t>
   </si>
   <si>
     <t>(Optional) Measurement of the culture rooting medium micronutrients (fe, mn, zn, b, cu, mo); e.g. h3bo3 (6.2mg/l)</t>
   </si>
   <si>
-    <t>rooting_medium_organic_supplements</t>
+    <t>rooting medium organic supplements</t>
   </si>
   <si>
     <t>(Optional) Organic supplements of the culture rooting medium, such as vitaimins, amino acids, organic acids, antibiotics activated charcoal; e.g. nicotinic acid (0.5mg/l)</t>
   </si>
   <si>
-    <t>rooting_medium_carbon</t>
+    <t>rooting medium carbon</t>
   </si>
   <si>
     <t>(Optional) Source of organic carbon in the culture rooting medium; e.g. sucrose</t>
   </si>
   <si>
-    <t>rooting_medium_regulators</t>
+    <t>rooting medium regulators</t>
   </si>
   <si>
     <t>(Optional) Growth regulators in the culture rooting medium, such as cytokinins, auxins, gybberellins, abscisic acid; e.g. 0.5mg/l naa</t>
   </si>
   <si>
-    <t>rooting_medium_solidifier</t>
+    <t>rooting medium solidifier</t>
   </si>
   <si>
     <t>(Optional) Specification of the solidifying agent in the culture rooting medium; e.g. agar</t>
   </si>
   <si>
-    <t>rooting_medium_ph</t>
+    <t>rooting medium pH</t>
   </si>
   <si>
     <t>(Optional) Ph measurement of the culture rooting medium; e.g. 5.5</t>
   </si>
   <si>
-    <t>isolation_and_growth_condition</t>
+    <t>isolation and growth condition</t>
   </si>
   <si>
     <t>(Optional) Publication reference in the form of pubmed id (pmid), digital object identifier (doi) or url for isolation and growth condition specifications of the organism/material. mandatory for migs and mimarks specimen.</t>
   </si>
   <si>
-    <t>annotation_source</t>
+    <t>annotation source</t>
   </si>
   <si>
     <t>(Optional) For cases where annotation was provided by a community jamboree or model organism database rather than by a specific submitter</t>
   </si>
   <si>
-    <t>reference_for_biomaterial</t>
+    <t>reference for biomaterial</t>
   </si>
   <si>
     <t>(Optional) Primary publication if isolated before genome publication; otherwise, primary genome report. mandatory for migs of bacteria and archaea.</t>
   </si>
   <si>
-    <t>sample_material_processing</t>
+    <t>sample material processing</t>
   </si>
   <si>
     <t>(Optional) A brief description of any processing applied to the sample during or after retrieving the sample from environment, or a link to the relevant protocol(s) performed.</t>
   </si>
   <si>
-    <t>sample_volume_or_weight_for_dna_extraction</t>
-  </si>
-  <si>
-    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: mL)</t>
-  </si>
-  <si>
-    <t>nucleic_acid_extraction</t>
+    <t>sample volume or weight for DNA extraction</t>
+  </si>
+  <si>
+    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: ng)</t>
+  </si>
+  <si>
+    <t>nucleic acid extraction</t>
   </si>
   <si>
     <t>(Optional) A link to a literature reference, electronic resource or a standard operating procedure (sop), that describes the material separation to recover the nucleic acid fraction from a sample</t>
   </si>
   <si>
-    <t>nucleic_acid_amplification</t>
+    <t>nucleic acid amplification</t>
   </si>
   <si>
     <t>(Optional) A link to a literature reference, electronic resource or a standard operating procedure (sop), that describes the enzymatic amplification (pcr, tma, nasba) of specific nucleic acids</t>
   </si>
   <si>
-    <t>library_size</t>
+    <t>library size</t>
   </si>
   <si>
     <t>(Optional) Total number of clones in the library prepared for the project</t>
   </si>
   <si>
-    <t>library_reads_sequenced</t>
+    <t>library reads sequenced</t>
   </si>
   <si>
     <t>(Optional) Total number of clones sequenced from the library</t>
   </si>
   <si>
-    <t>library_construction_method</t>
+    <t>library construction method</t>
   </si>
   <si>
     <t>(Optional) Library construction method used for clone libraries</t>
   </si>
   <si>
-    <t>library_vector</t>
+    <t>library vector</t>
   </si>
   <si>
     <t>(Optional) Cloning vector type(s) used in construction of libraries</t>
   </si>
   <si>
-    <t>library_screening_strategy</t>
+    <t>library screening strategy</t>
   </si>
   <si>
     <t>(Optional) Specific enrichment or screening methods applied before and/or after creating clone libraries in order to select a specific group of sequences</t>
   </si>
   <si>
-    <t>pcr_conditions</t>
+    <t>pcr conditions</t>
   </si>
   <si>
     <t>(Optional) Description of reaction conditions and components for pcr in the form of 'initial denaturation:94degc_1.5min; annealing=...'</t>
   </si>
   <si>
-    <t>pcr_primers</t>
+    <t>pcr primers</t>
   </si>
   <si>
     <t>(Optional) Pcr primers that were used to amplify the sequence of the targeted gene, locus or subfragment. this field should contain all the primers used for a single pcr reaction if multiple forward or reverse primers are present in a single pcr reaction. the primer sequence should be reported in uppercase letters</t>
@@ -2507,7 +2492,7 @@
     <t>(Optional) Adapters provide priming sequences for both amplification and sequencing of the sample-library fragments. both adapters should be reported; in uppercase letters</t>
   </si>
   <si>
-    <t>plant_product</t>
+    <t>plant product</t>
   </si>
   <si>
     <t>(Optional) Substance produced by the plant, where the sample was obtained from</t>
@@ -2516,34 +2501,34 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
-  </si>
-  <si>
-    <t>air_temperature_regimen</t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
+  </si>
+  <si>
+    <t>air temperature regimen</t>
   </si>
   <si>
     <t>(Optional) Information about treatment involving an exposure to varying temperatures; should include the temperature, treatment duration, interval and total experimental duration; can include different temperature regimens</t>
   </si>
   <si>
-    <t>antibiotic_regimen</t>
+    <t>antibiotic regimen</t>
   </si>
   <si>
     <t>(Optional) Information about treatment involving antibiotic administration; should include the name of antibiotic, amount administered, treatment duration, interval and total experimental duration; can include multiple antibiotic regimens</t>
   </si>
   <si>
-    <t>chemical_mutagen</t>
+    <t>chemical mutagen</t>
   </si>
   <si>
     <t>(Optional) Treatment involving use of mutagens; should include the name of mutagen, amount administered, treatment duration, interval and total experimental duration; can include multiple mutagen regimens</t>
   </si>
   <si>
-    <t>fertilizer_administration</t>
+    <t>fertilizer administration</t>
   </si>
   <si>
     <t>(Optional) Type of fertilizer or amendment added to the soil or water for the purpose of improving substrate health and quality for plant growth. this field accepts terms listed under agronomic fertilizer (http://purl.obolibrary.org/obo/agro_00002062). multiple terms may apply and can be separated by pipes, listing in reverse chronological order. n.b. old ena definition as "fertilizer regimen": information about treatment involving the use of fertilizers; should include the name fertilizer, amount administered, treatment duration, interval and total experimental duration; can include multiple fertilizer regimens</t>
   </si>
   <si>
-    <t>fungicide_regimen</t>
+    <t>fungicide regimen</t>
   </si>
   <si>
     <t>(Optional) Information about treatment involving use of fungicides; should include the name of fungicide, amount administered, treatment duration, interval and total experimental duration; can include multiple fungicide regimens</t>
@@ -2555,115 +2540,115 @@
     <t>(Optional) Information about treatment involving use of gravity factor to study various types of responses in presence, absence or modified levels of gravity; can include multiple treatments</t>
   </si>
   <si>
-    <t>growth_hormone_regimen</t>
+    <t>growth hormone regimen</t>
   </si>
   <si>
     <t>(Optional) Information about treatment involving use of growth hormones; should include the name of growth hormone, amount administered, treatment duration, interval and total experimental duration; can include multiple growth hormone regimens</t>
   </si>
   <si>
-    <t>growth_media</t>
+    <t>growth media</t>
   </si>
   <si>
     <t>(Optional) Information about growth media for growing the plants or tissue cultured samples</t>
   </si>
   <si>
-    <t>herbicide_regimen</t>
+    <t>herbicide regimen</t>
   </si>
   <si>
     <t>(Optional) Information about treatment involving use of herbicides; information about treatment involving use of growth hormones; should include the name of herbicide, amount administered, treatment duration, interval and total experimental duration; can include multiple regimens</t>
   </si>
   <si>
-    <t>humidity_regimen</t>
+    <t>humidity regimen</t>
   </si>
   <si>
     <t>(Optional) Information about treatment involving an exposure to varying degree of humidity; information about treatment involving use of growth hormones; should include amount of humidity administered, treatment duration, interval and total experimental duration; can include multiple regimens</t>
   </si>
   <si>
-    <t>mineral_nutrient_regimen</t>
+    <t>mineral nutrient regimen</t>
   </si>
   <si>
     <t>(Optional) Information about treatment involving the use of mineral supplements; should include the name of mineral nutrient, amount administered, treatment duration, interval and total experimental duration; can include multiple mineral nutrient regimens</t>
   </si>
   <si>
-    <t>nonmineral_nutrient_regimen</t>
+    <t>non-mineral nutrient regimen</t>
   </si>
   <si>
     <t>(Optional) Information about treatment involving the exposure of plant to non-mineral nutrient such as oxygen, hydrogen or carbon; should include the name of non-mineral nutrient, amount administered, treatment duration, interval and total experimental duration; can include multiple non-mineral nutrient regimens</t>
   </si>
   <si>
-    <t>pesticide_regimen</t>
+    <t>pesticide regimen</t>
   </si>
   <si>
     <t>(Optional) Information about treatment involving use of insecticides; should include the name of pesticide, amount administered, treatment duration, interval and total experimental duration; can include multiple pesticide regimens</t>
   </si>
   <si>
-    <t>ph_regimen</t>
+    <t>pH regimen</t>
   </si>
   <si>
     <t>(Optional) Information about treatment involving exposure of plants to varying levels of ph of the growth media; can include multiple regimen</t>
   </si>
   <si>
-    <t>radiation_regimen</t>
+    <t>radiation regimen</t>
   </si>
   <si>
     <t>(Optional) Information about treatment involving exposure of plant or a plant part to a particular radiation regimen; should include the radiation type, amount or intensity administered, treatment duration, interval and total experimental duration; can include multiple radiation regimens</t>
   </si>
   <si>
-    <t>rainfall_regimen</t>
+    <t>rainfall regimen</t>
   </si>
   <si>
     <t>(Optional) Information about treatment involving an exposure to a given amount of rainfall; can include multiple regimens</t>
   </si>
   <si>
-    <t>salt_regimen</t>
+    <t>salt regimen</t>
   </si>
   <si>
     <t>(Optional) Information about treatment involving use of salts as supplement to liquid and soil growth media; should include the name of salt, amount administered, treatment duration, interval and total experimental duration; can include multiple salt regimens</t>
   </si>
   <si>
-    <t>standing_water_regimen</t>
+    <t>standing water regimen</t>
   </si>
   <si>
     <t>(Optional) Treatment involving an exposure to standing water during a plant's life span, types can be flood water or standing water; can include multiple regimens</t>
   </si>
   <si>
-    <t>tissue_culture_growth_media</t>
+    <t>tissue culture growth media</t>
   </si>
   <si>
     <t>(Optional) Description of plant tissue culture growth media used</t>
   </si>
   <si>
-    <t>watering_regimen</t>
+    <t>watering regimen</t>
   </si>
   <si>
     <t>(Optional) Information about treatment involving an exposure to watering frequencies; can include multiple regimens</t>
   </si>
   <si>
-    <t>water_temperature_regimen</t>
+    <t>water temperature regimen</t>
   </si>
   <si>
     <t>(Optional) Information about treatment involving an exposure to water with varying degree of temperature; can include multiple regimens</t>
   </si>
   <si>
-    <t>light_regimen</t>
+    <t>light regimen</t>
   </si>
   <si>
     <t>(Optional) Information about treatment involving an exposure to light, this includes both light intensity and quality</t>
   </si>
   <si>
-    <t>biotic_regimen</t>
+    <t>biotic regimen</t>
   </si>
   <si>
     <t>(Optional) Information about treatment involving use of biotic factors, such as bacteria, viruses or fungi</t>
   </si>
   <si>
-    <t>mechanical_damage</t>
+    <t>mechanical damage</t>
   </si>
   <si>
     <t>(Optional) Information about any mechanical damage exerted on the plant; can include multiple damages and sites</t>
   </si>
   <si>
-    <t>chemical_administration</t>
+    <t>chemical administration</t>
   </si>
   <si>
     <t>(Optional) List of chemical compounds administered to the host or site where sampling occurred, and when (e.g. antibiotics, n fertilizer, air filter); can include multiple compounds. for chemical entities of biological interest ontology (chebi) (v111), please see http://purl.bioontology.org/ontology/chebi</t>
@@ -4349,253 +4334,253 @@
         <v>414</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="DN1" s="1" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="DO1" s="1" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="DP1" s="1" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="DQ1" s="1" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="DR1" s="1" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="DS1" s="1" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="DT1" s="1" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="DU1" s="1" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="DV1" s="1" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="DW1" s="1" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="DX1" s="1" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="DY1" s="1" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
     </row>
     <row r="2" spans="1:129" ht="150" customHeight="1">
@@ -4738,253 +4723,253 @@
         <v>415</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="DJ2" s="2" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="DK2" s="2" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="DL2" s="2" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="DM2" s="2" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="DN2" s="2" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="DO2" s="2" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="DP2" s="2" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="DQ2" s="2" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="DR2" s="2" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="DS2" s="2" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="DT2" s="2" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="DU2" s="2" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="DV2" s="2" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="DW2" s="2" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="DX2" s="2" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="DY2" s="2" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
     </row>
   </sheetData>
@@ -5023,7 +5008,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E1:AU294"/>
+  <dimension ref="E1:AU289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6666,31 +6651,6 @@
         <v>704</v>
       </c>
     </row>
-    <row r="290" spans="47:47">
-      <c r="AU290" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="291" spans="47:47">
-      <c r="AU291" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="292" spans="47:47">
-      <c r="AU292" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="293" spans="47:47">
-      <c r="AU293" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="294" spans="47:47">
-      <c r="AU294" t="s">
-        <v>709</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/ERC000020/metadata_template_ERC000020.xlsx
+++ b/templates/ERC000020/metadata_template_ERC000020.xlsx
@@ -18,28 +18,28 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AU$1:$AU$289</definedName>
-    <definedName name="growthfacility">'cv_sample'!$O$1:$O$6</definedName>
-    <definedName name="growthhabit">'cv_sample'!$AQ$1:$AQ$4</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AW$1:$AW$289</definedName>
+    <definedName name="growthfacility">'cv_sample'!$Q$1:$Q$6</definedName>
+    <definedName name="growthhabit">'cv_sample'!$AS$1:$AS$4</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
-    <definedName name="observedbioticrelationship">'cv_sample'!$F$1:$F$5</definedName>
-    <definedName name="oxygenationstatusofsample">'cv_sample'!$Q$1:$Q$2</definedName>
+    <definedName name="observedbioticrelationship">'cv_sample'!$H$1:$H$5</definedName>
+    <definedName name="oxygenationstatusofsample">'cv_sample'!$S$1:$S$2</definedName>
     <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
-    <definedName name="relationshiptooxygen">'cv_sample'!$H$1:$H$7</definedName>
-    <definedName name="samplecapturestatus">'cv_sample'!$AP$1:$AP$7</definedName>
-    <definedName name="sequencequalitycheck">'cv_sample'!$AA$1:$AA$3</definedName>
+    <definedName name="relationshiptooxygen">'cv_sample'!$J$1:$J$7</definedName>
+    <definedName name="samplecapturestatus">'cv_sample'!$AR$1:$AR$7</definedName>
+    <definedName name="sequencequalitycheck">'cv_sample'!$AC$1:$AC$3</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
-    <definedName name="trophiclevel">'cv_sample'!$E$1:$E$30</definedName>
+    <definedName name="trophiclevel">'cv_sample'!$G$1:$G$30</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="875">
   <si>
     <t>alias</t>
   </si>
@@ -843,6 +843,18 @@
   </si>
   <si>
     <t>(Mandatory) Ncbi taxonomy identifier.  this is appropriate for individual organisms and some environmental samples.</t>
+  </si>
+  <si>
+    <t>scientific_name</t>
+  </si>
+  <si>
+    <t>(Optional) Scientific name of sample that distinguishes its taxonomy.  please use a name or synonym that is tracked in the insdc taxonomy database. also, this field can be used to confirm the taxon_id setting.</t>
+  </si>
+  <si>
+    <t>common_name</t>
+  </si>
+  <si>
+    <t>(Optional) Genbank common name of the organism.  examples: human, mouse.</t>
   </si>
   <si>
     <t>sample_description</t>
@@ -4185,7 +4197,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DY2"/>
+  <dimension ref="A1:EA2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4194,7 +4206,7 @@
     <col min="1" max="301" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:129">
+    <row r="1" spans="1:131">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4208,19 +4220,19 @@
         <v>268</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>322</v>
@@ -4238,16 +4250,16 @@
         <v>330</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>345</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>347</v>
@@ -4274,10 +4286,10 @@
         <v>361</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>370</v>
@@ -4319,13 +4331,13 @@
         <v>394</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="AS1" s="1" t="s">
         <v>412</v>
@@ -4334,10 +4346,10 @@
         <v>414</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>705</v>
+        <v>416</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>707</v>
+        <v>418</v>
       </c>
       <c r="AW1" s="1" t="s">
         <v>709</v>
@@ -4582,8 +4594,14 @@
       <c r="DY1" s="1" t="s">
         <v>869</v>
       </c>
-    </row>
-    <row r="2" spans="1:129" ht="150" customHeight="1">
+      <c r="DZ1" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="EA1" s="1" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="2" spans="1:131" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>264</v>
       </c>
@@ -4597,19 +4615,19 @@
         <v>269</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>323</v>
@@ -4627,16 +4645,16 @@
         <v>331</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="Q2" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>344</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>346</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>348</v>
@@ -4663,10 +4681,10 @@
         <v>362</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="AC2" s="2" t="s">
         <v>371</v>
@@ -4708,13 +4726,13 @@
         <v>395</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="AS2" s="2" t="s">
         <v>413</v>
@@ -4723,10 +4741,10 @@
         <v>415</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>706</v>
+        <v>417</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>708</v>
+        <v>419</v>
       </c>
       <c r="AW2" s="2" t="s">
         <v>710</v>
@@ -4971,34 +4989,40 @@
       <c r="DY2" s="2" t="s">
         <v>870</v>
       </c>
+      <c r="DZ2" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="EA2" s="2" t="s">
+        <v>874</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G101">
       <formula1>trophiclevel</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H101">
       <formula1>observedbioticrelationship</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J101">
       <formula1>relationshiptooxygen</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q101">
       <formula1>growthfacility</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S101">
       <formula1>oxygenationstatusofsample</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA3:AA101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC3:AC101">
       <formula1>sequencequalitycheck</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP3:AP101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR3:AR101">
       <formula1>samplecapturestatus</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3:AQ101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS3:AS101">
       <formula1>growthhabit</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU3:AU101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW3:AW101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
   </dataValidations>
@@ -5008,1647 +5032,1647 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E1:AU289"/>
+  <dimension ref="G1:AW289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="5:47">
-      <c r="E1" t="s">
-        <v>270</v>
-      </c>
-      <c r="F1" t="s">
+    <row r="1" spans="7:49">
+      <c r="G1" t="s">
+        <v>274</v>
+      </c>
+      <c r="H1" t="s">
+        <v>306</v>
+      </c>
+      <c r="J1" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>336</v>
+      </c>
+      <c r="S1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>367</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>400</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>408</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="2" spans="7:49">
+      <c r="G2" t="s">
+        <v>275</v>
+      </c>
+      <c r="H2" t="s">
+        <v>307</v>
+      </c>
+      <c r="J2" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>337</v>
+      </c>
+      <c r="S2" t="s">
+        <v>346</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>368</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>401</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>409</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="3" spans="7:49">
+      <c r="G3" t="s">
+        <v>276</v>
+      </c>
+      <c r="H3" t="s">
+        <v>308</v>
+      </c>
+      <c r="J3" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>338</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>369</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>402</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>410</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="4" spans="7:49">
+      <c r="G4" t="s">
+        <v>277</v>
+      </c>
+      <c r="H4" t="s">
+        <v>309</v>
+      </c>
+      <c r="J4" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>339</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>403</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>411</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="5" spans="7:49">
+      <c r="G5" t="s">
+        <v>278</v>
+      </c>
+      <c r="H5" t="s">
+        <v>310</v>
+      </c>
+      <c r="J5" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>340</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="6" spans="7:49">
+      <c r="G6" t="s">
+        <v>279</v>
+      </c>
+      <c r="J6" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>404</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="7" spans="7:49">
+      <c r="G7" t="s">
+        <v>280</v>
+      </c>
+      <c r="J7" t="s">
+        <v>321</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>405</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="8" spans="7:49">
+      <c r="G8" t="s">
+        <v>281</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="9" spans="7:49">
+      <c r="G9" t="s">
+        <v>282</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="10" spans="7:49">
+      <c r="G10" t="s">
+        <v>283</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="11" spans="7:49">
+      <c r="G11" t="s">
+        <v>284</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="12" spans="7:49">
+      <c r="G12" t="s">
+        <v>285</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="13" spans="7:49">
+      <c r="G13" t="s">
+        <v>286</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="14" spans="7:49">
+      <c r="G14" t="s">
+        <v>287</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="15" spans="7:49">
+      <c r="G15" t="s">
+        <v>288</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="16" spans="7:49">
+      <c r="G16" t="s">
+        <v>289</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="17" spans="7:49">
+      <c r="G17" t="s">
+        <v>290</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="18" spans="7:49">
+      <c r="G18" t="s">
+        <v>291</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="19" spans="7:49">
+      <c r="G19" t="s">
+        <v>292</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="20" spans="7:49">
+      <c r="G20" t="s">
+        <v>293</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="21" spans="7:49">
+      <c r="G21" t="s">
+        <v>294</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="22" spans="7:49">
+      <c r="G22" t="s">
+        <v>295</v>
+      </c>
+      <c r="AW22" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="23" spans="7:49">
+      <c r="G23" t="s">
+        <v>296</v>
+      </c>
+      <c r="AW23" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="24" spans="7:49">
+      <c r="G24" t="s">
+        <v>297</v>
+      </c>
+      <c r="AW24" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="25" spans="7:49">
+      <c r="G25" t="s">
+        <v>298</v>
+      </c>
+      <c r="AW25" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="26" spans="7:49">
+      <c r="G26" t="s">
+        <v>299</v>
+      </c>
+      <c r="AW26" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="27" spans="7:49">
+      <c r="G27" t="s">
+        <v>300</v>
+      </c>
+      <c r="AW27" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="28" spans="7:49">
+      <c r="G28" t="s">
+        <v>301</v>
+      </c>
+      <c r="AW28" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="29" spans="7:49">
+      <c r="G29" t="s">
         <v>302</v>
       </c>
-      <c r="H1" t="s">
-        <v>311</v>
-      </c>
-      <c r="O1" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>341</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>363</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>396</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>404</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="2" spans="5:47">
-      <c r="E2" t="s">
-        <v>271</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="AW29" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="30" spans="7:49">
+      <c r="G30" t="s">
         <v>303</v>
       </c>
-      <c r="H2" t="s">
-        <v>312</v>
-      </c>
-      <c r="O2" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>342</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>364</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>397</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>405</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="3" spans="5:47">
-      <c r="E3" t="s">
-        <v>272</v>
-      </c>
-      <c r="F3" t="s">
-        <v>304</v>
-      </c>
-      <c r="H3" t="s">
-        <v>313</v>
-      </c>
-      <c r="O3" t="s">
-        <v>334</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>365</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>398</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>406</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="4" spans="5:47">
-      <c r="E4" t="s">
-        <v>273</v>
-      </c>
-      <c r="F4" t="s">
-        <v>305</v>
-      </c>
-      <c r="H4" t="s">
-        <v>314</v>
-      </c>
-      <c r="O4" t="s">
-        <v>335</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>399</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>407</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="5" spans="5:47">
-      <c r="E5" t="s">
-        <v>274</v>
-      </c>
-      <c r="F5" t="s">
-        <v>306</v>
-      </c>
-      <c r="H5" t="s">
-        <v>315</v>
-      </c>
-      <c r="O5" t="s">
-        <v>336</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>116</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="6" spans="5:47">
-      <c r="E6" t="s">
-        <v>275</v>
-      </c>
-      <c r="H6" t="s">
-        <v>316</v>
-      </c>
-      <c r="O6" t="s">
-        <v>116</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>400</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="7" spans="5:47">
-      <c r="E7" t="s">
-        <v>276</v>
-      </c>
-      <c r="H7" t="s">
-        <v>317</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>401</v>
-      </c>
-      <c r="AU7" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="8" spans="5:47">
-      <c r="E8" t="s">
-        <v>277</v>
-      </c>
-      <c r="AU8" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="9" spans="5:47">
-      <c r="E9" t="s">
-        <v>278</v>
-      </c>
-      <c r="AU9" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="10" spans="5:47">
-      <c r="E10" t="s">
-        <v>279</v>
-      </c>
-      <c r="AU10" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="11" spans="5:47">
-      <c r="E11" t="s">
-        <v>280</v>
-      </c>
-      <c r="AU11" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="12" spans="5:47">
-      <c r="E12" t="s">
-        <v>281</v>
-      </c>
-      <c r="AU12" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="13" spans="5:47">
-      <c r="E13" t="s">
-        <v>282</v>
-      </c>
-      <c r="AU13" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="14" spans="5:47">
-      <c r="E14" t="s">
-        <v>283</v>
-      </c>
-      <c r="AU14" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="15" spans="5:47">
-      <c r="E15" t="s">
-        <v>284</v>
-      </c>
-      <c r="AU15" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="16" spans="5:47">
-      <c r="E16" t="s">
-        <v>285</v>
-      </c>
-      <c r="AU16" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="17" spans="5:47">
-      <c r="E17" t="s">
-        <v>286</v>
-      </c>
-      <c r="AU17" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="18" spans="5:47">
-      <c r="E18" t="s">
-        <v>287</v>
-      </c>
-      <c r="AU18" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="19" spans="5:47">
-      <c r="E19" t="s">
-        <v>288</v>
-      </c>
-      <c r="AU19" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="20" spans="5:47">
-      <c r="E20" t="s">
-        <v>289</v>
-      </c>
-      <c r="AU20" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="21" spans="5:47">
-      <c r="E21" t="s">
-        <v>290</v>
-      </c>
-      <c r="AU21" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="22" spans="5:47">
-      <c r="E22" t="s">
-        <v>291</v>
-      </c>
-      <c r="AU22" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="23" spans="5:47">
-      <c r="E23" t="s">
-        <v>292</v>
-      </c>
-      <c r="AU23" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="24" spans="5:47">
-      <c r="E24" t="s">
-        <v>293</v>
-      </c>
-      <c r="AU24" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="25" spans="5:47">
-      <c r="E25" t="s">
-        <v>294</v>
-      </c>
-      <c r="AU25" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="26" spans="5:47">
-      <c r="E26" t="s">
-        <v>295</v>
-      </c>
-      <c r="AU26" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="27" spans="5:47">
-      <c r="E27" t="s">
-        <v>296</v>
-      </c>
-      <c r="AU27" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="28" spans="5:47">
-      <c r="E28" t="s">
-        <v>297</v>
-      </c>
-      <c r="AU28" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="29" spans="5:47">
-      <c r="E29" t="s">
-        <v>298</v>
-      </c>
-      <c r="AU29" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="30" spans="5:47">
-      <c r="E30" t="s">
-        <v>299</v>
-      </c>
-      <c r="AU30" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="31" spans="5:47">
-      <c r="AU31" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="32" spans="5:47">
-      <c r="AU32" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="33" spans="47:47">
-      <c r="AU33" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="34" spans="47:47">
-      <c r="AU34" t="s">
+      <c r="AW30" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="35" spans="47:47">
-      <c r="AU35" t="s">
+    <row r="31" spans="7:49">
+      <c r="AW31" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="36" spans="47:47">
-      <c r="AU36" t="s">
+    <row r="32" spans="7:49">
+      <c r="AW32" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="37" spans="47:47">
-      <c r="AU37" t="s">
+    <row r="33" spans="49:49">
+      <c r="AW33" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="38" spans="47:47">
-      <c r="AU38" t="s">
+    <row r="34" spans="49:49">
+      <c r="AW34" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="39" spans="47:47">
-      <c r="AU39" t="s">
+    <row r="35" spans="49:49">
+      <c r="AW35" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="40" spans="47:47">
-      <c r="AU40" t="s">
+    <row r="36" spans="49:49">
+      <c r="AW36" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="41" spans="47:47">
-      <c r="AU41" t="s">
+    <row r="37" spans="49:49">
+      <c r="AW37" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="42" spans="47:47">
-      <c r="AU42" t="s">
+    <row r="38" spans="49:49">
+      <c r="AW38" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="43" spans="47:47">
-      <c r="AU43" t="s">
+    <row r="39" spans="49:49">
+      <c r="AW39" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="44" spans="47:47">
-      <c r="AU44" t="s">
+    <row r="40" spans="49:49">
+      <c r="AW40" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="45" spans="47:47">
-      <c r="AU45" t="s">
+    <row r="41" spans="49:49">
+      <c r="AW41" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="46" spans="47:47">
-      <c r="AU46" t="s">
+    <row r="42" spans="49:49">
+      <c r="AW42" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="47" spans="47:47">
-      <c r="AU47" t="s">
+    <row r="43" spans="49:49">
+      <c r="AW43" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="48" spans="47:47">
-      <c r="AU48" t="s">
+    <row r="44" spans="49:49">
+      <c r="AW44" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="49" spans="47:47">
-      <c r="AU49" t="s">
+    <row r="45" spans="49:49">
+      <c r="AW45" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="50" spans="47:47">
-      <c r="AU50" t="s">
+    <row r="46" spans="49:49">
+      <c r="AW46" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="51" spans="47:47">
-      <c r="AU51" t="s">
+    <row r="47" spans="49:49">
+      <c r="AW47" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="52" spans="47:47">
-      <c r="AU52" t="s">
+    <row r="48" spans="49:49">
+      <c r="AW48" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="53" spans="47:47">
-      <c r="AU53" t="s">
+    <row r="49" spans="49:49">
+      <c r="AW49" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="54" spans="47:47">
-      <c r="AU54" t="s">
+    <row r="50" spans="49:49">
+      <c r="AW50" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="55" spans="47:47">
-      <c r="AU55" t="s">
+    <row r="51" spans="49:49">
+      <c r="AW51" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="56" spans="47:47">
-      <c r="AU56" t="s">
+    <row r="52" spans="49:49">
+      <c r="AW52" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="57" spans="47:47">
-      <c r="AU57" t="s">
+    <row r="53" spans="49:49">
+      <c r="AW53" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="58" spans="47:47">
-      <c r="AU58" t="s">
+    <row r="54" spans="49:49">
+      <c r="AW54" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="59" spans="47:47">
-      <c r="AU59" t="s">
+    <row r="55" spans="49:49">
+      <c r="AW55" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="60" spans="47:47">
-      <c r="AU60" t="s">
+    <row r="56" spans="49:49">
+      <c r="AW56" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="61" spans="47:47">
-      <c r="AU61" t="s">
+    <row r="57" spans="49:49">
+      <c r="AW57" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="62" spans="47:47">
-      <c r="AU62" t="s">
+    <row r="58" spans="49:49">
+      <c r="AW58" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="63" spans="47:47">
-      <c r="AU63" t="s">
+    <row r="59" spans="49:49">
+      <c r="AW59" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="64" spans="47:47">
-      <c r="AU64" t="s">
+    <row r="60" spans="49:49">
+      <c r="AW60" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="65" spans="47:47">
-      <c r="AU65" t="s">
+    <row r="61" spans="49:49">
+      <c r="AW61" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="66" spans="47:47">
-      <c r="AU66" t="s">
+    <row r="62" spans="49:49">
+      <c r="AW62" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="67" spans="47:47">
-      <c r="AU67" t="s">
+    <row r="63" spans="49:49">
+      <c r="AW63" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="68" spans="47:47">
-      <c r="AU68" t="s">
+    <row r="64" spans="49:49">
+      <c r="AW64" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="69" spans="47:47">
-      <c r="AU69" t="s">
+    <row r="65" spans="49:49">
+      <c r="AW65" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="70" spans="47:47">
-      <c r="AU70" t="s">
+    <row r="66" spans="49:49">
+      <c r="AW66" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="71" spans="47:47">
-      <c r="AU71" t="s">
+    <row r="67" spans="49:49">
+      <c r="AW67" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="72" spans="47:47">
-      <c r="AU72" t="s">
+    <row r="68" spans="49:49">
+      <c r="AW68" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="73" spans="47:47">
-      <c r="AU73" t="s">
+    <row r="69" spans="49:49">
+      <c r="AW69" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="74" spans="47:47">
-      <c r="AU74" t="s">
+    <row r="70" spans="49:49">
+      <c r="AW70" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="75" spans="47:47">
-      <c r="AU75" t="s">
+    <row r="71" spans="49:49">
+      <c r="AW71" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="76" spans="47:47">
-      <c r="AU76" t="s">
+    <row r="72" spans="49:49">
+      <c r="AW72" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="77" spans="47:47">
-      <c r="AU77" t="s">
+    <row r="73" spans="49:49">
+      <c r="AW73" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="78" spans="47:47">
-      <c r="AU78" t="s">
+    <row r="74" spans="49:49">
+      <c r="AW74" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="79" spans="47:47">
-      <c r="AU79" t="s">
+    <row r="75" spans="49:49">
+      <c r="AW75" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="80" spans="47:47">
-      <c r="AU80" t="s">
+    <row r="76" spans="49:49">
+      <c r="AW76" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="81" spans="47:47">
-      <c r="AU81" t="s">
+    <row r="77" spans="49:49">
+      <c r="AW77" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="82" spans="47:47">
-      <c r="AU82" t="s">
+    <row r="78" spans="49:49">
+      <c r="AW78" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="83" spans="47:47">
-      <c r="AU83" t="s">
+    <row r="79" spans="49:49">
+      <c r="AW79" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="84" spans="47:47">
-      <c r="AU84" t="s">
+    <row r="80" spans="49:49">
+      <c r="AW80" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="85" spans="47:47">
-      <c r="AU85" t="s">
+    <row r="81" spans="49:49">
+      <c r="AW81" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="86" spans="47:47">
-      <c r="AU86" t="s">
+    <row r="82" spans="49:49">
+      <c r="AW82" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="87" spans="47:47">
-      <c r="AU87" t="s">
+    <row r="83" spans="49:49">
+      <c r="AW83" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="88" spans="47:47">
-      <c r="AU88" t="s">
+    <row r="84" spans="49:49">
+      <c r="AW84" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="89" spans="47:47">
-      <c r="AU89" t="s">
+    <row r="85" spans="49:49">
+      <c r="AW85" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="90" spans="47:47">
-      <c r="AU90" t="s">
+    <row r="86" spans="49:49">
+      <c r="AW86" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="91" spans="47:47">
-      <c r="AU91" t="s">
+    <row r="87" spans="49:49">
+      <c r="AW87" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="92" spans="47:47">
-      <c r="AU92" t="s">
+    <row r="88" spans="49:49">
+      <c r="AW88" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="93" spans="47:47">
-      <c r="AU93" t="s">
+    <row r="89" spans="49:49">
+      <c r="AW89" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="94" spans="47:47">
-      <c r="AU94" t="s">
+    <row r="90" spans="49:49">
+      <c r="AW90" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="95" spans="47:47">
-      <c r="AU95" t="s">
+    <row r="91" spans="49:49">
+      <c r="AW91" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="96" spans="47:47">
-      <c r="AU96" t="s">
+    <row r="92" spans="49:49">
+      <c r="AW92" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="97" spans="47:47">
-      <c r="AU97" t="s">
+    <row r="93" spans="49:49">
+      <c r="AW93" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="98" spans="47:47">
-      <c r="AU98" t="s">
+    <row r="94" spans="49:49">
+      <c r="AW94" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="99" spans="47:47">
-      <c r="AU99" t="s">
+    <row r="95" spans="49:49">
+      <c r="AW95" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="100" spans="47:47">
-      <c r="AU100" t="s">
+    <row r="96" spans="49:49">
+      <c r="AW96" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="101" spans="47:47">
-      <c r="AU101" t="s">
+    <row r="97" spans="49:49">
+      <c r="AW97" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="102" spans="47:47">
-      <c r="AU102" t="s">
+    <row r="98" spans="49:49">
+      <c r="AW98" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="103" spans="47:47">
-      <c r="AU103" t="s">
+    <row r="99" spans="49:49">
+      <c r="AW99" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="104" spans="47:47">
-      <c r="AU104" t="s">
+    <row r="100" spans="49:49">
+      <c r="AW100" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="105" spans="47:47">
-      <c r="AU105" t="s">
+    <row r="101" spans="49:49">
+      <c r="AW101" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="106" spans="47:47">
-      <c r="AU106" t="s">
+    <row r="102" spans="49:49">
+      <c r="AW102" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="107" spans="47:47">
-      <c r="AU107" t="s">
+    <row r="103" spans="49:49">
+      <c r="AW103" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="108" spans="47:47">
-      <c r="AU108" t="s">
+    <row r="104" spans="49:49">
+      <c r="AW104" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="109" spans="47:47">
-      <c r="AU109" t="s">
+    <row r="105" spans="49:49">
+      <c r="AW105" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="110" spans="47:47">
-      <c r="AU110" t="s">
+    <row r="106" spans="49:49">
+      <c r="AW106" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="111" spans="47:47">
-      <c r="AU111" t="s">
+    <row r="107" spans="49:49">
+      <c r="AW107" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="112" spans="47:47">
-      <c r="AU112" t="s">
+    <row r="108" spans="49:49">
+      <c r="AW108" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="113" spans="47:47">
-      <c r="AU113" t="s">
+    <row r="109" spans="49:49">
+      <c r="AW109" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="114" spans="47:47">
-      <c r="AU114" t="s">
+    <row r="110" spans="49:49">
+      <c r="AW110" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="115" spans="47:47">
-      <c r="AU115" t="s">
+    <row r="111" spans="49:49">
+      <c r="AW111" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="116" spans="47:47">
-      <c r="AU116" t="s">
+    <row r="112" spans="49:49">
+      <c r="AW112" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="117" spans="47:47">
-      <c r="AU117" t="s">
+    <row r="113" spans="49:49">
+      <c r="AW113" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="118" spans="47:47">
-      <c r="AU118" t="s">
+    <row r="114" spans="49:49">
+      <c r="AW114" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="119" spans="47:47">
-      <c r="AU119" t="s">
+    <row r="115" spans="49:49">
+      <c r="AW115" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="120" spans="47:47">
-      <c r="AU120" t="s">
+    <row r="116" spans="49:49">
+      <c r="AW116" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="121" spans="47:47">
-      <c r="AU121" t="s">
+    <row r="117" spans="49:49">
+      <c r="AW117" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="122" spans="47:47">
-      <c r="AU122" t="s">
+    <row r="118" spans="49:49">
+      <c r="AW118" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="123" spans="47:47">
-      <c r="AU123" t="s">
+    <row r="119" spans="49:49">
+      <c r="AW119" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="124" spans="47:47">
-      <c r="AU124" t="s">
+    <row r="120" spans="49:49">
+      <c r="AW120" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="125" spans="47:47">
-      <c r="AU125" t="s">
+    <row r="121" spans="49:49">
+      <c r="AW121" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="126" spans="47:47">
-      <c r="AU126" t="s">
+    <row r="122" spans="49:49">
+      <c r="AW122" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="127" spans="47:47">
-      <c r="AU127" t="s">
+    <row r="123" spans="49:49">
+      <c r="AW123" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="128" spans="47:47">
-      <c r="AU128" t="s">
+    <row r="124" spans="49:49">
+      <c r="AW124" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="129" spans="47:47">
-      <c r="AU129" t="s">
+    <row r="125" spans="49:49">
+      <c r="AW125" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="130" spans="47:47">
-      <c r="AU130" t="s">
+    <row r="126" spans="49:49">
+      <c r="AW126" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="131" spans="47:47">
-      <c r="AU131" t="s">
+    <row r="127" spans="49:49">
+      <c r="AW127" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="132" spans="47:47">
-      <c r="AU132" t="s">
+    <row r="128" spans="49:49">
+      <c r="AW128" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="133" spans="47:47">
-      <c r="AU133" t="s">
+    <row r="129" spans="49:49">
+      <c r="AW129" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="134" spans="47:47">
-      <c r="AU134" t="s">
+    <row r="130" spans="49:49">
+      <c r="AW130" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="135" spans="47:47">
-      <c r="AU135" t="s">
+    <row r="131" spans="49:49">
+      <c r="AW131" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="136" spans="47:47">
-      <c r="AU136" t="s">
+    <row r="132" spans="49:49">
+      <c r="AW132" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="137" spans="47:47">
-      <c r="AU137" t="s">
+    <row r="133" spans="49:49">
+      <c r="AW133" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="138" spans="47:47">
-      <c r="AU138" t="s">
+    <row r="134" spans="49:49">
+      <c r="AW134" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="139" spans="47:47">
-      <c r="AU139" t="s">
+    <row r="135" spans="49:49">
+      <c r="AW135" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="140" spans="47:47">
-      <c r="AU140" t="s">
+    <row r="136" spans="49:49">
+      <c r="AW136" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="141" spans="47:47">
-      <c r="AU141" t="s">
+    <row r="137" spans="49:49">
+      <c r="AW137" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="142" spans="47:47">
-      <c r="AU142" t="s">
+    <row r="138" spans="49:49">
+      <c r="AW138" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="143" spans="47:47">
-      <c r="AU143" t="s">
+    <row r="139" spans="49:49">
+      <c r="AW139" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="144" spans="47:47">
-      <c r="AU144" t="s">
+    <row r="140" spans="49:49">
+      <c r="AW140" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="145" spans="47:47">
-      <c r="AU145" t="s">
+    <row r="141" spans="49:49">
+      <c r="AW141" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="146" spans="47:47">
-      <c r="AU146" t="s">
+    <row r="142" spans="49:49">
+      <c r="AW142" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="147" spans="47:47">
-      <c r="AU147" t="s">
+    <row r="143" spans="49:49">
+      <c r="AW143" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="148" spans="47:47">
-      <c r="AU148" t="s">
+    <row r="144" spans="49:49">
+      <c r="AW144" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="149" spans="47:47">
-      <c r="AU149" t="s">
+    <row r="145" spans="49:49">
+      <c r="AW145" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="150" spans="47:47">
-      <c r="AU150" t="s">
+    <row r="146" spans="49:49">
+      <c r="AW146" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="151" spans="47:47">
-      <c r="AU151" t="s">
+    <row r="147" spans="49:49">
+      <c r="AW147" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="152" spans="47:47">
-      <c r="AU152" t="s">
+    <row r="148" spans="49:49">
+      <c r="AW148" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="153" spans="47:47">
-      <c r="AU153" t="s">
+    <row r="149" spans="49:49">
+      <c r="AW149" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="154" spans="47:47">
-      <c r="AU154" t="s">
+    <row r="150" spans="49:49">
+      <c r="AW150" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="155" spans="47:47">
-      <c r="AU155" t="s">
+    <row r="151" spans="49:49">
+      <c r="AW151" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="156" spans="47:47">
-      <c r="AU156" t="s">
+    <row r="152" spans="49:49">
+      <c r="AW152" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="157" spans="47:47">
-      <c r="AU157" t="s">
+    <row r="153" spans="49:49">
+      <c r="AW153" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="158" spans="47:47">
-      <c r="AU158" t="s">
+    <row r="154" spans="49:49">
+      <c r="AW154" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="159" spans="47:47">
-      <c r="AU159" t="s">
+    <row r="155" spans="49:49">
+      <c r="AW155" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="160" spans="47:47">
-      <c r="AU160" t="s">
+    <row r="156" spans="49:49">
+      <c r="AW156" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="161" spans="47:47">
-      <c r="AU161" t="s">
+    <row r="157" spans="49:49">
+      <c r="AW157" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="162" spans="47:47">
-      <c r="AU162" t="s">
+    <row r="158" spans="49:49">
+      <c r="AW158" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="163" spans="47:47">
-      <c r="AU163" t="s">
+    <row r="159" spans="49:49">
+      <c r="AW159" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="164" spans="47:47">
-      <c r="AU164" t="s">
+    <row r="160" spans="49:49">
+      <c r="AW160" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="165" spans="47:47">
-      <c r="AU165" t="s">
+    <row r="161" spans="49:49">
+      <c r="AW161" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="166" spans="47:47">
-      <c r="AU166" t="s">
+    <row r="162" spans="49:49">
+      <c r="AW162" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="167" spans="47:47">
-      <c r="AU167" t="s">
+    <row r="163" spans="49:49">
+      <c r="AW163" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="168" spans="47:47">
-      <c r="AU168" t="s">
+    <row r="164" spans="49:49">
+      <c r="AW164" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="169" spans="47:47">
-      <c r="AU169" t="s">
+    <row r="165" spans="49:49">
+      <c r="AW165" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="170" spans="47:47">
-      <c r="AU170" t="s">
+    <row r="166" spans="49:49">
+      <c r="AW166" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="171" spans="47:47">
-      <c r="AU171" t="s">
+    <row r="167" spans="49:49">
+      <c r="AW167" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="172" spans="47:47">
-      <c r="AU172" t="s">
+    <row r="168" spans="49:49">
+      <c r="AW168" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="173" spans="47:47">
-      <c r="AU173" t="s">
+    <row r="169" spans="49:49">
+      <c r="AW169" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="174" spans="47:47">
-      <c r="AU174" t="s">
+    <row r="170" spans="49:49">
+      <c r="AW170" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="175" spans="47:47">
-      <c r="AU175" t="s">
+    <row r="171" spans="49:49">
+      <c r="AW171" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="176" spans="47:47">
-      <c r="AU176" t="s">
+    <row r="172" spans="49:49">
+      <c r="AW172" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="177" spans="47:47">
-      <c r="AU177" t="s">
+    <row r="173" spans="49:49">
+      <c r="AW173" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="178" spans="47:47">
-      <c r="AU178" t="s">
+    <row r="174" spans="49:49">
+      <c r="AW174" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="179" spans="47:47">
-      <c r="AU179" t="s">
+    <row r="175" spans="49:49">
+      <c r="AW175" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="180" spans="47:47">
-      <c r="AU180" t="s">
+    <row r="176" spans="49:49">
+      <c r="AW176" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="181" spans="47:47">
-      <c r="AU181" t="s">
+    <row r="177" spans="49:49">
+      <c r="AW177" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="182" spans="47:47">
-      <c r="AU182" t="s">
+    <row r="178" spans="49:49">
+      <c r="AW178" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="183" spans="47:47">
-      <c r="AU183" t="s">
+    <row r="179" spans="49:49">
+      <c r="AW179" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="184" spans="47:47">
-      <c r="AU184" t="s">
+    <row r="180" spans="49:49">
+      <c r="AW180" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="185" spans="47:47">
-      <c r="AU185" t="s">
+    <row r="181" spans="49:49">
+      <c r="AW181" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="186" spans="47:47">
-      <c r="AU186" t="s">
+    <row r="182" spans="49:49">
+      <c r="AW182" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="187" spans="47:47">
-      <c r="AU187" t="s">
+    <row r="183" spans="49:49">
+      <c r="AW183" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="188" spans="47:47">
-      <c r="AU188" t="s">
+    <row r="184" spans="49:49">
+      <c r="AW184" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="189" spans="47:47">
-      <c r="AU189" t="s">
+    <row r="185" spans="49:49">
+      <c r="AW185" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="190" spans="47:47">
-      <c r="AU190" t="s">
+    <row r="186" spans="49:49">
+      <c r="AW186" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="191" spans="47:47">
-      <c r="AU191" t="s">
+    <row r="187" spans="49:49">
+      <c r="AW187" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="192" spans="47:47">
-      <c r="AU192" t="s">
+    <row r="188" spans="49:49">
+      <c r="AW188" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="193" spans="47:47">
-      <c r="AU193" t="s">
+    <row r="189" spans="49:49">
+      <c r="AW189" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="194" spans="47:47">
-      <c r="AU194" t="s">
+    <row r="190" spans="49:49">
+      <c r="AW190" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="195" spans="47:47">
-      <c r="AU195" t="s">
+    <row r="191" spans="49:49">
+      <c r="AW191" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="196" spans="47:47">
-      <c r="AU196" t="s">
+    <row r="192" spans="49:49">
+      <c r="AW192" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="197" spans="47:47">
-      <c r="AU197" t="s">
+    <row r="193" spans="49:49">
+      <c r="AW193" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="198" spans="47:47">
-      <c r="AU198" t="s">
+    <row r="194" spans="49:49">
+      <c r="AW194" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="199" spans="47:47">
-      <c r="AU199" t="s">
+    <row r="195" spans="49:49">
+      <c r="AW195" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="200" spans="47:47">
-      <c r="AU200" t="s">
+    <row r="196" spans="49:49">
+      <c r="AW196" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="201" spans="47:47">
-      <c r="AU201" t="s">
+    <row r="197" spans="49:49">
+      <c r="AW197" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="202" spans="47:47">
-      <c r="AU202" t="s">
+    <row r="198" spans="49:49">
+      <c r="AW198" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="203" spans="47:47">
-      <c r="AU203" t="s">
+    <row r="199" spans="49:49">
+      <c r="AW199" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="204" spans="47:47">
-      <c r="AU204" t="s">
+    <row r="200" spans="49:49">
+      <c r="AW200" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="205" spans="47:47">
-      <c r="AU205" t="s">
+    <row r="201" spans="49:49">
+      <c r="AW201" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="206" spans="47:47">
-      <c r="AU206" t="s">
+    <row r="202" spans="49:49">
+      <c r="AW202" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="207" spans="47:47">
-      <c r="AU207" t="s">
+    <row r="203" spans="49:49">
+      <c r="AW203" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="208" spans="47:47">
-      <c r="AU208" t="s">
+    <row r="204" spans="49:49">
+      <c r="AW204" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="209" spans="47:47">
-      <c r="AU209" t="s">
+    <row r="205" spans="49:49">
+      <c r="AW205" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="210" spans="47:47">
-      <c r="AU210" t="s">
+    <row r="206" spans="49:49">
+      <c r="AW206" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="211" spans="47:47">
-      <c r="AU211" t="s">
+    <row r="207" spans="49:49">
+      <c r="AW207" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="212" spans="47:47">
-      <c r="AU212" t="s">
+    <row r="208" spans="49:49">
+      <c r="AW208" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="213" spans="47:47">
-      <c r="AU213" t="s">
+    <row r="209" spans="49:49">
+      <c r="AW209" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="214" spans="47:47">
-      <c r="AU214" t="s">
+    <row r="210" spans="49:49">
+      <c r="AW210" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="215" spans="47:47">
-      <c r="AU215" t="s">
+    <row r="211" spans="49:49">
+      <c r="AW211" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="216" spans="47:47">
-      <c r="AU216" t="s">
+    <row r="212" spans="49:49">
+      <c r="AW212" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="217" spans="47:47">
-      <c r="AU217" t="s">
+    <row r="213" spans="49:49">
+      <c r="AW213" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="218" spans="47:47">
-      <c r="AU218" t="s">
+    <row r="214" spans="49:49">
+      <c r="AW214" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="219" spans="47:47">
-      <c r="AU219" t="s">
+    <row r="215" spans="49:49">
+      <c r="AW215" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="220" spans="47:47">
-      <c r="AU220" t="s">
+    <row r="216" spans="49:49">
+      <c r="AW216" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="221" spans="47:47">
-      <c r="AU221" t="s">
+    <row r="217" spans="49:49">
+      <c r="AW217" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="222" spans="47:47">
-      <c r="AU222" t="s">
+    <row r="218" spans="49:49">
+      <c r="AW218" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="223" spans="47:47">
-      <c r="AU223" t="s">
+    <row r="219" spans="49:49">
+      <c r="AW219" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="224" spans="47:47">
-      <c r="AU224" t="s">
+    <row r="220" spans="49:49">
+      <c r="AW220" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="225" spans="47:47">
-      <c r="AU225" t="s">
+    <row r="221" spans="49:49">
+      <c r="AW221" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="226" spans="47:47">
-      <c r="AU226" t="s">
+    <row r="222" spans="49:49">
+      <c r="AW222" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="227" spans="47:47">
-      <c r="AU227" t="s">
+    <row r="223" spans="49:49">
+      <c r="AW223" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="228" spans="47:47">
-      <c r="AU228" t="s">
+    <row r="224" spans="49:49">
+      <c r="AW224" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="229" spans="47:47">
-      <c r="AU229" t="s">
+    <row r="225" spans="49:49">
+      <c r="AW225" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="230" spans="47:47">
-      <c r="AU230" t="s">
+    <row r="226" spans="49:49">
+      <c r="AW226" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="231" spans="47:47">
-      <c r="AU231" t="s">
+    <row r="227" spans="49:49">
+      <c r="AW227" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="232" spans="47:47">
-      <c r="AU232" t="s">
+    <row r="228" spans="49:49">
+      <c r="AW228" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="233" spans="47:47">
-      <c r="AU233" t="s">
+    <row r="229" spans="49:49">
+      <c r="AW229" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="234" spans="47:47">
-      <c r="AU234" t="s">
+    <row r="230" spans="49:49">
+      <c r="AW230" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="235" spans="47:47">
-      <c r="AU235" t="s">
+    <row r="231" spans="49:49">
+      <c r="AW231" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="236" spans="47:47">
-      <c r="AU236" t="s">
+    <row r="232" spans="49:49">
+      <c r="AW232" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="237" spans="47:47">
-      <c r="AU237" t="s">
+    <row r="233" spans="49:49">
+      <c r="AW233" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="238" spans="47:47">
-      <c r="AU238" t="s">
+    <row r="234" spans="49:49">
+      <c r="AW234" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="239" spans="47:47">
-      <c r="AU239" t="s">
+    <row r="235" spans="49:49">
+      <c r="AW235" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="240" spans="47:47">
-      <c r="AU240" t="s">
+    <row r="236" spans="49:49">
+      <c r="AW236" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="241" spans="47:47">
-      <c r="AU241" t="s">
+    <row r="237" spans="49:49">
+      <c r="AW237" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="242" spans="47:47">
-      <c r="AU242" t="s">
+    <row r="238" spans="49:49">
+      <c r="AW238" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="243" spans="47:47">
-      <c r="AU243" t="s">
+    <row r="239" spans="49:49">
+      <c r="AW239" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="244" spans="47:47">
-      <c r="AU244" t="s">
+    <row r="240" spans="49:49">
+      <c r="AW240" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="245" spans="47:47">
-      <c r="AU245" t="s">
+    <row r="241" spans="49:49">
+      <c r="AW241" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="246" spans="47:47">
-      <c r="AU246" t="s">
+    <row r="242" spans="49:49">
+      <c r="AW242" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="247" spans="47:47">
-      <c r="AU247" t="s">
+    <row r="243" spans="49:49">
+      <c r="AW243" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="248" spans="47:47">
-      <c r="AU248" t="s">
+    <row r="244" spans="49:49">
+      <c r="AW244" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="249" spans="47:47">
-      <c r="AU249" t="s">
+    <row r="245" spans="49:49">
+      <c r="AW245" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="250" spans="47:47">
-      <c r="AU250" t="s">
+    <row r="246" spans="49:49">
+      <c r="AW246" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="251" spans="47:47">
-      <c r="AU251" t="s">
+    <row r="247" spans="49:49">
+      <c r="AW247" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="252" spans="47:47">
-      <c r="AU252" t="s">
+    <row r="248" spans="49:49">
+      <c r="AW248" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="253" spans="47:47">
-      <c r="AU253" t="s">
+    <row r="249" spans="49:49">
+      <c r="AW249" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="254" spans="47:47">
-      <c r="AU254" t="s">
+    <row r="250" spans="49:49">
+      <c r="AW250" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="255" spans="47:47">
-      <c r="AU255" t="s">
+    <row r="251" spans="49:49">
+      <c r="AW251" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="256" spans="47:47">
-      <c r="AU256" t="s">
+    <row r="252" spans="49:49">
+      <c r="AW252" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="257" spans="47:47">
-      <c r="AU257" t="s">
+    <row r="253" spans="49:49">
+      <c r="AW253" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="258" spans="47:47">
-      <c r="AU258" t="s">
+    <row r="254" spans="49:49">
+      <c r="AW254" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="259" spans="47:47">
-      <c r="AU259" t="s">
+    <row r="255" spans="49:49">
+      <c r="AW255" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="260" spans="47:47">
-      <c r="AU260" t="s">
+    <row r="256" spans="49:49">
+      <c r="AW256" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="261" spans="47:47">
-      <c r="AU261" t="s">
+    <row r="257" spans="49:49">
+      <c r="AW257" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="262" spans="47:47">
-      <c r="AU262" t="s">
+    <row r="258" spans="49:49">
+      <c r="AW258" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="263" spans="47:47">
-      <c r="AU263" t="s">
+    <row r="259" spans="49:49">
+      <c r="AW259" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="264" spans="47:47">
-      <c r="AU264" t="s">
+    <row r="260" spans="49:49">
+      <c r="AW260" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="265" spans="47:47">
-      <c r="AU265" t="s">
+    <row r="261" spans="49:49">
+      <c r="AW261" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="266" spans="47:47">
-      <c r="AU266" t="s">
+    <row r="262" spans="49:49">
+      <c r="AW262" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="267" spans="47:47">
-      <c r="AU267" t="s">
+    <row r="263" spans="49:49">
+      <c r="AW263" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="268" spans="47:47">
-      <c r="AU268" t="s">
+    <row r="264" spans="49:49">
+      <c r="AW264" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="269" spans="47:47">
-      <c r="AU269" t="s">
+    <row r="265" spans="49:49">
+      <c r="AW265" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="270" spans="47:47">
-      <c r="AU270" t="s">
+    <row r="266" spans="49:49">
+      <c r="AW266" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="271" spans="47:47">
-      <c r="AU271" t="s">
+    <row r="267" spans="49:49">
+      <c r="AW267" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="272" spans="47:47">
-      <c r="AU272" t="s">
+    <row r="268" spans="49:49">
+      <c r="AW268" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="273" spans="47:47">
-      <c r="AU273" t="s">
+    <row r="269" spans="49:49">
+      <c r="AW269" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="274" spans="47:47">
-      <c r="AU274" t="s">
+    <row r="270" spans="49:49">
+      <c r="AW270" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="275" spans="47:47">
-      <c r="AU275" t="s">
+    <row r="271" spans="49:49">
+      <c r="AW271" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="276" spans="47:47">
-      <c r="AU276" t="s">
+    <row r="272" spans="49:49">
+      <c r="AW272" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="277" spans="47:47">
-      <c r="AU277" t="s">
+    <row r="273" spans="49:49">
+      <c r="AW273" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="278" spans="47:47">
-      <c r="AU278" t="s">
+    <row r="274" spans="49:49">
+      <c r="AW274" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="279" spans="47:47">
-      <c r="AU279" t="s">
+    <row r="275" spans="49:49">
+      <c r="AW275" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="280" spans="47:47">
-      <c r="AU280" t="s">
+    <row r="276" spans="49:49">
+      <c r="AW276" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="281" spans="47:47">
-      <c r="AU281" t="s">
+    <row r="277" spans="49:49">
+      <c r="AW277" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="282" spans="47:47">
-      <c r="AU282" t="s">
+    <row r="278" spans="49:49">
+      <c r="AW278" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="283" spans="47:47">
-      <c r="AU283" t="s">
+    <row r="279" spans="49:49">
+      <c r="AW279" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="284" spans="47:47">
-      <c r="AU284" t="s">
+    <row r="280" spans="49:49">
+      <c r="AW280" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="285" spans="47:47">
-      <c r="AU285" t="s">
+    <row r="281" spans="49:49">
+      <c r="AW281" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="286" spans="47:47">
-      <c r="AU286" t="s">
+    <row r="282" spans="49:49">
+      <c r="AW282" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="287" spans="47:47">
-      <c r="AU287" t="s">
+    <row r="283" spans="49:49">
+      <c r="AW283" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="288" spans="47:47">
-      <c r="AU288" t="s">
+    <row r="284" spans="49:49">
+      <c r="AW284" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="289" spans="47:47">
-      <c r="AU289" t="s">
+    <row r="285" spans="49:49">
+      <c r="AW285" t="s">
         <v>704</v>
+      </c>
+    </row>
+    <row r="286" spans="49:49">
+      <c r="AW286" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="287" spans="49:49">
+      <c r="AW287" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="288" spans="49:49">
+      <c r="AW288" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="289" spans="49:49">
+      <c r="AW289" t="s">
+        <v>708</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000020/metadata_template_ERC000020.xlsx
+++ b/templates/ERC000020/metadata_template_ERC000020.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AW$1:$AW$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AW$1:$AW$294</definedName>
     <definedName name="growthfacility">'cv_sample'!$Q$1:$Q$6</definedName>
     <definedName name="growthhabit">'cv_sample'!$AS$1:$AS$4</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="880">
   <si>
     <t>alias</t>
   </si>
@@ -1232,7 +1232,7 @@
     <t>amount or size of sample collected</t>
   </si>
   <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m2, m3, g, L, kg)</t>
   </si>
   <si>
     <t>organism count</t>
@@ -1514,9 +1514,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1535,6 +1532,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1736,6 +1736,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1745,9 +1748,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1787,7 +1787,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1856,6 +1856,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1931,6 +1934,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1952,6 +1958,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1997,6 +2006,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -2009,6 +2021,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -2018,9 +2033,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -2045,6 +2057,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -2105,12 +2120,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -2189,7 +2204,7 @@
     <t>host age</t>
   </si>
   <si>
-    <t>(Optional) Age of host at the time of sampling; relevant scale depends on species and study, e.g. could be seconds for amoebae or centuries for trees (Units: years)</t>
+    <t>(Optional) Age of host at the time of sampling; relevant scale depends on species and study, e.g. could be seconds for amoebae or centuries for trees (Units: centuries, hours, seconds, months, weeks, minutes, days, decades, years)</t>
   </si>
   <si>
     <t>host taxid</t>
@@ -2207,13 +2222,13 @@
     <t>host height</t>
   </si>
   <si>
-    <t>(Optional) The height of subject (Units: mm)</t>
+    <t>(Optional) The height of subject (Units: mm, cm, m)</t>
   </si>
   <si>
     <t>host length</t>
   </si>
   <si>
-    <t>(Optional) The length of subject (Units: mm)</t>
+    <t>(Optional) The length of subject (Units: mm, cm, m)</t>
   </si>
   <si>
     <t>plant body site</t>
@@ -2225,7 +2240,7 @@
     <t>host total mass</t>
   </si>
   <si>
-    <t>(Optional) Total mass of the host at collection, the unit depends on host (Units: kg)</t>
+    <t>(Optional) Total mass of the host at collection, the unit depends on host (Units: g, kg)</t>
   </si>
   <si>
     <t>host phenotype</t>
@@ -2291,13 +2306,13 @@
     <t>host dry mass</t>
   </si>
   <si>
-    <t>(Optional) Measurement of dry mass (Units: mg)</t>
+    <t>(Optional) Measurement of dry mass (Units: g, mg, kg)</t>
   </si>
   <si>
     <t>host wet mass</t>
   </si>
   <si>
-    <t>(Optional) Measurement of wet mass (Units: mg)</t>
+    <t>(Optional) Measurement of wet mass (Units: g, mg, kg)</t>
   </si>
   <si>
     <t>perturbation</t>
@@ -2441,7 +2456,7 @@
     <t>sample volume or weight for DNA extraction</t>
   </si>
   <si>
-    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: ng)</t>
+    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: g, ng, mg, mL)</t>
   </si>
   <si>
     <t>nucleic acid extraction</t>
@@ -2513,7 +2528,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm, m)</t>
   </si>
   <si>
     <t>air temperature regimen</t>
@@ -4352,253 +4367,253 @@
         <v>418</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="DN1" s="1" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="DO1" s="1" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="DP1" s="1" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="DQ1" s="1" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="DR1" s="1" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="DS1" s="1" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="DT1" s="1" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
       <c r="DU1" s="1" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="DV1" s="1" t="s">
-        <v>863</v>
+        <v>868</v>
       </c>
       <c r="DW1" s="1" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
       <c r="DX1" s="1" t="s">
-        <v>867</v>
+        <v>872</v>
       </c>
       <c r="DY1" s="1" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
       <c r="DZ1" s="1" t="s">
-        <v>871</v>
+        <v>876</v>
       </c>
       <c r="EA1" s="1" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
     </row>
     <row r="2" spans="1:131" ht="150" customHeight="1">
@@ -4747,253 +4762,253 @@
         <v>419</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="DJ2" s="2" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="DK2" s="2" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="DL2" s="2" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="DM2" s="2" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="DN2" s="2" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="DO2" s="2" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="DP2" s="2" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
       <c r="DQ2" s="2" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="DR2" s="2" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="DS2" s="2" t="s">
-        <v>858</v>
+        <v>863</v>
       </c>
       <c r="DT2" s="2" t="s">
-        <v>860</v>
+        <v>865</v>
       </c>
       <c r="DU2" s="2" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="DV2" s="2" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
       <c r="DW2" s="2" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
       <c r="DX2" s="2" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="DY2" s="2" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="DZ2" s="2" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
       <c r="EA2" s="2" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
     </row>
   </sheetData>
@@ -5032,7 +5047,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:AW289"/>
+  <dimension ref="G1:AW294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6675,6 +6690,31 @@
         <v>708</v>
       </c>
     </row>
+    <row r="290" spans="49:49">
+      <c r="AW290" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="291" spans="49:49">
+      <c r="AW291" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="292" spans="49:49">
+      <c r="AW292" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="293" spans="49:49">
+      <c r="AW293" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="294" spans="49:49">
+      <c r="AW294" t="s">
+        <v>713</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/ERC000020/metadata_template_ERC000020.xlsx
+++ b/templates/ERC000020/metadata_template_ERC000020.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AW$1:$AW$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AW$1:$AW$294</definedName>
     <definedName name="growthfacility">'cv_sample'!$Q$1:$Q$6</definedName>
     <definedName name="growthhabit">'cv_sample'!$AS$1:$AS$4</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="880">
   <si>
     <t>alias</t>
   </si>
@@ -1232,7 +1232,7 @@
     <t>amount or size of sample collected</t>
   </si>
   <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: kg)</t>
   </si>
   <si>
     <t>organism count</t>
@@ -1514,9 +1514,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1535,6 +1532,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1736,6 +1736,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1745,9 +1748,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1787,7 +1787,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1856,6 +1856,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1931,6 +1934,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1952,6 +1958,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1997,6 +2006,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -2009,6 +2021,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -2018,9 +2033,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -2045,6 +2057,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -2105,12 +2120,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -2207,13 +2222,13 @@
     <t>host height</t>
   </si>
   <si>
-    <t>(Optional) The height of subject (Units: mm)</t>
+    <t>(Optional) The height of subject (Units: m)</t>
   </si>
   <si>
     <t>host length</t>
   </si>
   <si>
-    <t>(Optional) The length of subject (Units: mm)</t>
+    <t>(Optional) The length of subject (Units: m)</t>
   </si>
   <si>
     <t>plant body site</t>
@@ -2291,13 +2306,13 @@
     <t>host dry mass</t>
   </si>
   <si>
-    <t>(Optional) Measurement of dry mass (Units: mg)</t>
+    <t>(Optional) Measurement of dry mass (Units: kg)</t>
   </si>
   <si>
     <t>host wet mass</t>
   </si>
   <si>
-    <t>(Optional) Measurement of wet mass (Units: mg)</t>
+    <t>(Optional) Measurement of wet mass (Units: kg)</t>
   </si>
   <si>
     <t>perturbation</t>
@@ -2441,7 +2456,7 @@
     <t>sample volume or weight for DNA extraction</t>
   </si>
   <si>
-    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: ng)</t>
+    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: mL)</t>
   </si>
   <si>
     <t>nucleic acid extraction</t>
@@ -2513,7 +2528,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
   </si>
   <si>
     <t>air temperature regimen</t>
@@ -4352,253 +4367,253 @@
         <v>418</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="DN1" s="1" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="DO1" s="1" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="DP1" s="1" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="DQ1" s="1" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="DR1" s="1" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="DS1" s="1" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="DT1" s="1" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
       <c r="DU1" s="1" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="DV1" s="1" t="s">
-        <v>863</v>
+        <v>868</v>
       </c>
       <c r="DW1" s="1" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
       <c r="DX1" s="1" t="s">
-        <v>867</v>
+        <v>872</v>
       </c>
       <c r="DY1" s="1" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
       <c r="DZ1" s="1" t="s">
-        <v>871</v>
+        <v>876</v>
       </c>
       <c r="EA1" s="1" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
     </row>
     <row r="2" spans="1:131" ht="150" customHeight="1">
@@ -4747,253 +4762,253 @@
         <v>419</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="DJ2" s="2" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="DK2" s="2" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="DL2" s="2" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="DM2" s="2" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="DN2" s="2" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="DO2" s="2" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="DP2" s="2" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
       <c r="DQ2" s="2" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="DR2" s="2" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="DS2" s="2" t="s">
-        <v>858</v>
+        <v>863</v>
       </c>
       <c r="DT2" s="2" t="s">
-        <v>860</v>
+        <v>865</v>
       </c>
       <c r="DU2" s="2" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="DV2" s="2" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
       <c r="DW2" s="2" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
       <c r="DX2" s="2" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="DY2" s="2" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="DZ2" s="2" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
       <c r="EA2" s="2" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
     </row>
   </sheetData>
@@ -5032,7 +5047,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:AW289"/>
+  <dimension ref="G1:AW294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6675,6 +6690,31 @@
         <v>708</v>
       </c>
     </row>
+    <row r="290" spans="49:49">
+      <c r="AW290" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="291" spans="49:49">
+      <c r="AW291" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="292" spans="49:49">
+      <c r="AW292" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="293" spans="49:49">
+      <c r="AW293" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="294" spans="49:49">
+      <c r="AW294" t="s">
+        <v>713</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
